--- a/stat.xlsx
+++ b/stat.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\LetterCubicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4FC66D-7220-4342-8AFC-219B9572DE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B36D7C1-4C23-4FD7-B998-569C0D40E7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
   </bookViews>
   <sheets>
     <sheet name="uz" sheetId="1" r:id="rId1"/>
     <sheet name="en" sheetId="2" r:id="rId2"/>
     <sheet name="chart" sheetId="3" r:id="rId3"/>
     <sheet name="vovel stat" sheetId="4" r:id="rId4"/>
+    <sheet name="5-fold CV last uz 8" sheetId="8" r:id="rId5"/>
+    <sheet name="5-fold CV last en 8" sheetId="7" r:id="rId6"/>
+    <sheet name="uz 7" sheetId="10" r:id="rId7"/>
+    <sheet name="en 7" sheetId="11" r:id="rId8"/>
+    <sheet name="what is statistical significace" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t xml:space="preserve"># </t>
   </si>
@@ -53,9 +58,6 @@
   </si>
   <si>
     <t>desc_soft</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>5 letter words</t>
@@ -135,6 +137,39 @@
   <si>
     <t>*#*</t>
   </si>
+  <si>
+    <t>uz</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t># train</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.42</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -144,7 +179,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +208,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -195,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -210,6 +258,15 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1654,16 +1711,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1988,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F758B858-7E9E-4157-8605-E726A6A379F2}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M1048576"/>
+      <selection activeCell="A10" sqref="A10:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2018,20 +2075,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <f>150/(518+1165)</f>
-        <v>8.9126559714795009E-2</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.26800000000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>0.18099999999999999</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.121</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -2039,20 +2095,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <f>150/(518+1165)</f>
-        <v>8.9126559714795009E-2</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.26800000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>0.18099999999999999</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.121</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -2060,19 +2115,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.17899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="C4" s="1">
-        <v>0.35699999999999998</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -2080,20 +2135,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
-        <f>302/(518+1165)</f>
-        <v>0.17944147355912063</v>
+        <v>0.247</v>
       </c>
       <c r="C5" s="1">
-        <v>0.35699999999999998</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.11700000000000001</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -2101,19 +2155,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.26800000000000002</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.55400000000000005</v>
       </c>
       <c r="C6" s="1">
-        <v>0.68899999999999995</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>0.44400000000000001</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.121</v>
+        <v>0.42</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -2121,19 +2175,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.26800000000000002</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.52100000000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>0.68899999999999995</v>
+        <v>0.88</v>
       </c>
       <c r="D7" s="1">
-        <v>0.44400000000000001</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>0.121</v>
+        <v>0.375</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
@@ -2141,19 +2195,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.19</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.63900000000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>0.57699999999999996</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>0.30299999999999999</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="E8" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
@@ -2161,19 +2215,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.247</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>0.66200000000000003</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="D9" s="1">
-        <v>0.38400000000000001</v>
+        <v>0.751</v>
       </c>
       <c r="E9" s="1">
-        <v>0.11700000000000001</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
@@ -2181,19 +2235,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>0.55400000000000005</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>0.88600000000000001</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>0.73499999999999999</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="E10" s="1">
-        <v>0.42</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
@@ -2201,19 +2255,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.52100000000000002</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.81499999999999995</v>
       </c>
       <c r="C11" s="1">
-        <v>0.88</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>0.72099999999999997</v>
+        <v>0.90900000000000003</v>
       </c>
       <c r="E11" s="1">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -2221,19 +2275,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.63900000000000001</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.76700000000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>0.92300000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="D12" s="1">
-        <v>0.78900000000000003</v>
+        <v>0.872</v>
       </c>
       <c r="E12" s="1">
-        <v>0.52800000000000002</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -2241,19 +2295,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
-        <v>0.57699999999999996</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="C13" s="1">
-        <v>0.91100000000000003</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>0.751</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.44600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
@@ -2261,19 +2315,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>0.71099999999999997</v>
+        <v>0.91</v>
       </c>
       <c r="C14" s="1">
-        <v>0.92100000000000004</v>
+        <v>0.996</v>
       </c>
       <c r="D14" s="1">
-        <v>0.81699999999999995</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="E14" s="1">
-        <v>0.63100000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
@@ -2281,19 +2335,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="2">
-        <v>0.81499999999999995</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="C15" s="1">
-        <v>0.96099999999999997</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>0.90900000000000003</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.75</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -2301,19 +2355,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
-        <v>0.76700000000000002</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>0.95</v>
+        <v>0.996</v>
       </c>
       <c r="D16" s="1">
-        <v>0.872</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E16" s="1">
-        <v>0.69099999999999995</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
@@ -2321,108 +2375,28 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
-        <v>0.81100000000000005</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>0.96699999999999997</v>
+        <v>0.996</v>
       </c>
       <c r="D17" s="1">
-        <v>0.89100000000000001</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="E17" s="1">
-        <v>0.75</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.996</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F23">
-    <sortCondition ref="A2:A23"/>
-    <sortCondition ref="F2:F23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
+    <sortCondition ref="A2:A19"/>
+    <sortCondition ref="F2:F19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2431,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A199716-0BF3-40B4-9C34-5315D9C6F674}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2458,19 +2432,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>5.1999999999999998E-2</v>
+        <v>0.317</v>
       </c>
       <c r="C2">
-        <v>0.20100000000000001</v>
+        <v>0.68300000000000005</v>
       </c>
       <c r="D2">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>0.371</v>
+      </c>
+      <c r="E2">
+        <v>0.112</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -2478,19 +2452,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>5.1999999999999998E-2</v>
+        <v>0.252</v>
       </c>
       <c r="C3">
-        <v>0.20100000000000001</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="D3">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="E3">
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -2498,19 +2472,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.106</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.35299999999999998</v>
       </c>
       <c r="C4">
-        <v>0.36</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="D4">
-        <v>0.107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.151</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -2518,19 +2492,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.106</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.35299999999999998</v>
       </c>
       <c r="C5">
-        <v>0.36</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="D5">
-        <v>0.107</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="E5">
+        <v>0.151</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -2538,19 +2512,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.317</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="C6">
-        <v>0.68300000000000005</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="D6">
-        <v>0.371</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="E6">
-        <v>0.112</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -2558,19 +2532,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.252</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="C7">
-        <v>0.64900000000000002</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="D7">
-        <v>0.28899999999999998</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="E7">
-        <v>5.0999999999999997E-2</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="F7" t="s">
         <v>2</v>
@@ -2578,19 +2552,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>0.35299999999999998</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.70699999999999996</v>
       </c>
       <c r="C8">
-        <v>0.69799999999999995</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D8">
-        <v>0.41399999999999998</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="E8">
-        <v>0.151</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
@@ -2598,19 +2572,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>0.35299999999999998</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.70699999999999996</v>
       </c>
       <c r="C9">
-        <v>0.69799999999999995</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D9">
-        <v>0.41399999999999998</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="E9">
-        <v>0.151</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
@@ -2618,19 +2592,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>0.70599999999999996</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.88300000000000001</v>
       </c>
       <c r="C10">
-        <v>0.88400000000000001</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="D10">
-        <v>0.76700000000000002</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="E10">
-        <v>0.57099999999999995</v>
+        <v>0.82</v>
       </c>
       <c r="F10" t="s">
         <v>1</v>
@@ -2638,19 +2612,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>0.60199999999999998</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="C11">
-        <v>0.86799999999999999</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D11">
-        <v>0.65100000000000002</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="E11">
-        <v>0.44500000000000001</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
@@ -2658,19 +2632,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>0.70699999999999996</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.88300000000000001</v>
       </c>
       <c r="C12">
-        <v>0.89600000000000002</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="D12">
-        <v>0.77900000000000003</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="E12">
-        <v>0.55800000000000005</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -2678,19 +2652,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>0.70699999999999996</v>
+        <v>7</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.88300000000000001</v>
       </c>
       <c r="C13">
-        <v>0.89600000000000002</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="D13">
-        <v>0.77900000000000003</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="E13">
-        <v>0.55800000000000005</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
@@ -2698,19 +2672,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>0.88300000000000001</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.95399999999999996</v>
       </c>
       <c r="C14">
-        <v>0.96699999999999997</v>
+        <v>0.996</v>
       </c>
       <c r="D14">
-        <v>0.91200000000000003</v>
+        <v>0.98</v>
       </c>
       <c r="E14">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
@@ -2718,19 +2692,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>0.79900000000000004</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="C15">
-        <v>0.94599999999999995</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="D15">
-        <v>0.85699999999999998</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="E15">
-        <v>0.68100000000000005</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
@@ -2738,19 +2712,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>0.88300000000000001</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="C16">
-        <v>0.97099999999999997</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="D16">
-        <v>0.91800000000000004</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="E16">
-        <v>0.81200000000000006</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
@@ -2758,108 +2732,28 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>0.88300000000000001</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="C17">
-        <v>0.97099999999999997</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="D17">
-        <v>0.91800000000000004</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="E17">
-        <v>0.81200000000000006</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>0.95399999999999996</v>
-      </c>
-      <c r="C18">
-        <v>0.996</v>
-      </c>
-      <c r="D18">
-        <v>0.98</v>
-      </c>
-      <c r="E18">
-        <v>0.91</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="C19">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="D19">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="E19">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="C20">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="D20">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="E20">
-        <v>0.82099999999999995</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="C21">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="D21">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="E21">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="F21" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F44">
-    <sortCondition ref="A2:A44"/>
-    <sortCondition ref="F2:F44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F40">
+    <sortCondition ref="A2:A40"/>
+    <sortCondition ref="F2:F40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2868,15 +2762,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528DEE9C-BEF0-47B7-96C9-7686FCED1FD6}">
-  <dimension ref="B1:F5"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -2890,7 +2784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>5</v>
       </c>
@@ -2906,8 +2800,12 @@
       <c r="F2" s="1">
         <v>0.247</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <f>AVERAGE(C2:F2)</f>
+        <v>0.24324999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>6</v>
       </c>
@@ -2923,8 +2821,12 @@
       <c r="F3" s="1">
         <v>0.57699999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <f>AVERAGE(C3:F3)</f>
+        <v>0.57275000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>7</v>
       </c>
@@ -2940,8 +2842,12 @@
       <c r="F4" s="1">
         <v>0.81100000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <f>AVERAGE(C4:F4)</f>
+        <v>0.77599999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>8</v>
       </c>
@@ -2957,10 +2863,32 @@
       <c r="F5" s="1">
         <v>0.88700000000000001</v>
       </c>
+      <c r="G5" s="1">
+        <f>AVERAGE(C5:F5)</f>
+        <v>0.90649999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2969,7 +2897,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A17"/>
+      <selection activeCell="I2" sqref="I2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2981,36 +2909,36 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1417</v>
@@ -3020,7 +2948,7 @@
         <v>0.49286956521739128</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>351</v>
@@ -3030,7 +2958,7 @@
         <v>0.3012875536480687</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>416</v>
@@ -3042,7 +2970,7 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>634</v>
@@ -3052,7 +2980,7 @@
         <v>0.2205217391304348</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>309</v>
@@ -3062,7 +2990,7 @@
         <v>0.26523605150214591</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>52</v>
@@ -3074,7 +3002,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>434</v>
@@ -3084,7 +3012,7 @@
         <v>0.15095652173913043</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>259</v>
@@ -3094,7 +3022,7 @@
         <v>0.22231759656652361</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>47</v>
@@ -3106,7 +3034,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>86</v>
@@ -3116,7 +3044,7 @@
         <v>2.9913043478260869E-2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>126</v>
@@ -3126,7 +3054,7 @@
         <v>0.10815450643776824</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -3138,7 +3066,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>68</v>
@@ -3148,7 +3076,7 @@
         <v>2.365217391304348E-2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>82</v>
@@ -3162,7 +3090,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>49</v>
@@ -3172,7 +3100,7 @@
         <v>1.7043478260869566E-2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>28</v>
@@ -3186,7 +3114,7 @@
     </row>
     <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>48</v>
@@ -3196,7 +3124,7 @@
         <v>1.6695652173913042E-2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <f>1165-F2-F3-F4-F5-F6-F7</f>
@@ -3211,7 +3139,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>43</v>
@@ -3224,7 +3152,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <f>2875-B2-B3-B4-B5-B6-B7-B8-B9</f>
@@ -3238,21 +3166,3474 @@
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA2341E-E866-43A2-911D-AC37F482C321}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>910</v>
+      </c>
+      <c r="D1">
+        <v>96</v>
+      </c>
+      <c r="E1">
+        <v>243</v>
+      </c>
+      <c r="F1">
+        <v>571</v>
+      </c>
+      <c r="G1" s="1">
+        <f>C3</f>
+        <v>89.78</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" ref="H1:I1" si="0">D3</f>
+        <v>97.917000000000002</v>
+      </c>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
+        <v>96.707999999999998</v>
+      </c>
+      <c r="J1" s="1">
+        <f>F3</f>
+        <v>85.463999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>817</v>
+      </c>
+      <c r="D2">
+        <v>94</v>
+      </c>
+      <c r="E2">
+        <v>235</v>
+      </c>
+      <c r="F2">
+        <v>488</v>
+      </c>
+      <c r="G2" s="1">
+        <f>C6</f>
+        <v>86.075000000000003</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>99.114999999999995</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="1"/>
+        <v>80.138000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>89.78</v>
+      </c>
+      <c r="D3">
+        <v>97.917000000000002</v>
+      </c>
+      <c r="E3">
+        <v>96.707999999999998</v>
+      </c>
+      <c r="F3">
+        <v>85.463999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <f>C9</f>
+        <v>87.5</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="2"/>
+        <v>92.308000000000007</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="2"/>
+        <v>82.695999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>912</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>220</v>
+      </c>
+      <c r="F4">
+        <v>579</v>
+      </c>
+      <c r="G4" s="1">
+        <f>C12</f>
+        <v>88.924999999999997</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>94.298000000000002</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>785</v>
+      </c>
+      <c r="D5">
+        <v>112</v>
+      </c>
+      <c r="E5">
+        <v>209</v>
+      </c>
+      <c r="F5">
+        <v>464</v>
+      </c>
+      <c r="G5" s="1">
+        <f>C15</f>
+        <v>92.215000000000003</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="4"/>
+        <v>97.356999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="4"/>
+        <v>88.888999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>86.075000000000003</v>
+      </c>
+      <c r="D6">
+        <v>99.114999999999995</v>
+      </c>
+      <c r="E6">
+        <v>95</v>
+      </c>
+      <c r="F6">
+        <v>80.138000000000005</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2.08</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>912</v>
+      </c>
+      <c r="D7">
+        <v>116</v>
+      </c>
+      <c r="E7">
+        <v>247</v>
+      </c>
+      <c r="F7">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>798</v>
+      </c>
+      <c r="D8">
+        <v>116</v>
+      </c>
+      <c r="E8">
+        <v>228</v>
+      </c>
+      <c r="F8">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>87.5</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>92.308000000000007</v>
+      </c>
+      <c r="F9">
+        <v>82.695999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>912</v>
+      </c>
+      <c r="D10">
+        <v>93</v>
+      </c>
+      <c r="E10">
+        <v>228</v>
+      </c>
+      <c r="F10">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>811</v>
+      </c>
+      <c r="D11">
+        <v>93</v>
+      </c>
+      <c r="E11">
+        <v>215</v>
+      </c>
+      <c r="F11">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>88.924999999999997</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>94.298000000000002</v>
+      </c>
+      <c r="F12">
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>912</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>227</v>
+      </c>
+      <c r="F13">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>841</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>221</v>
+      </c>
+      <c r="F14">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>92.215000000000003</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>97.356999999999999</v>
+      </c>
+      <c r="F15">
+        <v>88.888999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f t="shared" ref="C16" si="5">AVERAGE(C3,C6,C9,C12,C15)</f>
+        <v>88.899000000000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16" si="6">AVERAGE(D3,D6,D9,D12,D15)</f>
+        <v>99.406399999999991</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16" si="7">AVERAGE(E3,E6,E9,E12,E15)</f>
+        <v>95.134200000000007</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="8">AVERAGE(F3,F6,F9,F12,F15)</f>
+        <v>84.459400000000002</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>910</v>
+      </c>
+      <c r="D17">
+        <v>96</v>
+      </c>
+      <c r="E17">
+        <v>243</v>
+      </c>
+      <c r="F17">
+        <v>571</v>
+      </c>
+      <c r="G17" s="1">
+        <f>C19</f>
+        <v>93.956000000000003</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17:J17" si="9">D19</f>
+        <v>98.957999999999998</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="9"/>
+        <v>97.531000000000006</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="9"/>
+        <v>91.593999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>855</v>
+      </c>
+      <c r="D18">
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <v>237</v>
+      </c>
+      <c r="F18">
+        <v>523</v>
+      </c>
+      <c r="G18" s="1">
+        <f>C22</f>
+        <v>96.052999999999997</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ref="H18:J18" si="10">D22</f>
+        <v>100</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="10"/>
+        <v>98.182000000000002</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="10"/>
+        <v>94.472999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>93.956000000000003</v>
+      </c>
+      <c r="D19">
+        <v>98.957999999999998</v>
+      </c>
+      <c r="E19">
+        <v>97.531000000000006</v>
+      </c>
+      <c r="F19">
+        <v>91.593999999999994</v>
+      </c>
+      <c r="G19" s="1">
+        <f>C25</f>
+        <v>97.039000000000001</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" ref="H19:J19" si="11">D25</f>
+        <v>98.275999999999996</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="11"/>
+        <v>97.975999999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="11"/>
+        <v>96.356999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>912</v>
+      </c>
+      <c r="D20">
+        <v>113</v>
+      </c>
+      <c r="E20">
+        <v>220</v>
+      </c>
+      <c r="F20">
+        <v>579</v>
+      </c>
+      <c r="G20" s="1">
+        <f>C28</f>
+        <v>96.162000000000006</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20:J20" si="12">D28</f>
+        <v>100</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="12"/>
+        <v>98.245999999999995</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="12"/>
+        <v>94.754999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>876</v>
+      </c>
+      <c r="D21">
+        <v>113</v>
+      </c>
+      <c r="E21">
+        <v>216</v>
+      </c>
+      <c r="F21">
+        <v>547</v>
+      </c>
+      <c r="G21" s="1">
+        <f>C31</f>
+        <v>96.491</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21:J21" si="13">D31</f>
+        <v>100</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="13"/>
+        <v>98.677999999999997</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="13"/>
+        <v>95.043000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>96.052999999999997</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>98.182000000000002</v>
+      </c>
+      <c r="F22">
+        <v>94.472999999999999</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>912</v>
+      </c>
+      <c r="D23">
+        <v>116</v>
+      </c>
+      <c r="E23">
+        <v>247</v>
+      </c>
+      <c r="F23">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>885</v>
+      </c>
+      <c r="D24">
+        <v>114</v>
+      </c>
+      <c r="E24">
+        <v>242</v>
+      </c>
+      <c r="F24">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>97.039000000000001</v>
+      </c>
+      <c r="D25">
+        <v>98.275999999999996</v>
+      </c>
+      <c r="E25">
+        <v>97.975999999999999</v>
+      </c>
+      <c r="F25">
+        <v>96.356999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>912</v>
+      </c>
+      <c r="D26">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>228</v>
+      </c>
+      <c r="F26">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>877</v>
+      </c>
+      <c r="D27">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>224</v>
+      </c>
+      <c r="F27">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>96.162000000000006</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>98.245999999999995</v>
+      </c>
+      <c r="F28">
+        <v>94.754999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>912</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>227</v>
+      </c>
+      <c r="F29">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>880</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>224</v>
+      </c>
+      <c r="F30">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>96.491</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>98.677999999999997</v>
+      </c>
+      <c r="F31">
+        <v>95.043000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <f t="shared" ref="C32" si="14">AVERAGE(C19,C22,C25,C28,C31)</f>
+        <v>95.940200000000004</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32" si="15">AVERAGE(D19,D22,D25,D28,D31)</f>
+        <v>99.446799999999996</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32" si="16">AVERAGE(E19,E22,E25,E28,E31)</f>
+        <v>98.122600000000006</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32" si="17">AVERAGE(F19,F22,F25,F28,F31)</f>
+        <v>94.444400000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6981B89-5433-4A4B-84D8-726093473F0F}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1208</v>
+      </c>
+      <c r="D1">
+        <v>211</v>
+      </c>
+      <c r="E1">
+        <v>513</v>
+      </c>
+      <c r="F1">
+        <v>484</v>
+      </c>
+      <c r="G1">
+        <f>C3</f>
+        <v>91.721999999999994</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ref="H1:J1" si="0">D3</f>
+        <v>98.103999999999999</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>94.932000000000002</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>85.537000000000006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1108</v>
+      </c>
+      <c r="D2">
+        <v>207</v>
+      </c>
+      <c r="E2">
+        <v>487</v>
+      </c>
+      <c r="F2">
+        <v>414</v>
+      </c>
+      <c r="G2">
+        <f>C6</f>
+        <v>91.113</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>99.418999999999997</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>95.668999999999997</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>83.968999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>91.721999999999994</v>
+      </c>
+      <c r="D3">
+        <v>98.103999999999999</v>
+      </c>
+      <c r="E3">
+        <v>94.932000000000002</v>
+      </c>
+      <c r="F3">
+        <v>85.537000000000006</v>
+      </c>
+      <c r="G3">
+        <f>C9</f>
+        <v>92.11</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>98.085999999999999</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>92.856999999999999</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>88.911000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1204</v>
+      </c>
+      <c r="D4">
+        <v>172</v>
+      </c>
+      <c r="E4">
+        <v>508</v>
+      </c>
+      <c r="F4">
+        <v>524</v>
+      </c>
+      <c r="G4">
+        <f>C12</f>
+        <v>90.033000000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>98.617999999999995</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>93.153999999999996</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>83.366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1097</v>
+      </c>
+      <c r="D5">
+        <v>171</v>
+      </c>
+      <c r="E5">
+        <v>486</v>
+      </c>
+      <c r="F5">
+        <v>440</v>
+      </c>
+      <c r="G5">
+        <f>C15</f>
+        <v>95.763999999999996</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>99.078000000000003</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>97.628</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>92.308000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>91.113</v>
+      </c>
+      <c r="D6">
+        <v>99.418999999999997</v>
+      </c>
+      <c r="E6">
+        <v>95.668999999999997</v>
+      </c>
+      <c r="F6">
+        <v>83.968999999999994</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.94</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1204</v>
+      </c>
+      <c r="D7">
+        <v>209</v>
+      </c>
+      <c r="E7">
+        <v>490</v>
+      </c>
+      <c r="F7">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1109</v>
+      </c>
+      <c r="D8">
+        <v>205</v>
+      </c>
+      <c r="E8">
+        <v>455</v>
+      </c>
+      <c r="F8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>92.11</v>
+      </c>
+      <c r="D9">
+        <v>98.085999999999999</v>
+      </c>
+      <c r="E9">
+        <v>92.856999999999999</v>
+      </c>
+      <c r="F9">
+        <v>88.911000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1204</v>
+      </c>
+      <c r="D10">
+        <v>217</v>
+      </c>
+      <c r="E10">
+        <v>482</v>
+      </c>
+      <c r="F10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1084</v>
+      </c>
+      <c r="D11">
+        <v>214</v>
+      </c>
+      <c r="E11">
+        <v>449</v>
+      </c>
+      <c r="F11">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>90.033000000000001</v>
+      </c>
+      <c r="D12">
+        <v>98.617999999999995</v>
+      </c>
+      <c r="E12">
+        <v>93.153999999999996</v>
+      </c>
+      <c r="F12">
+        <v>83.366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1204</v>
+      </c>
+      <c r="D13">
+        <v>217</v>
+      </c>
+      <c r="E13">
+        <v>506</v>
+      </c>
+      <c r="F13">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1153</v>
+      </c>
+      <c r="D14">
+        <v>215</v>
+      </c>
+      <c r="E14">
+        <v>494</v>
+      </c>
+      <c r="F14">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>95.763999999999996</v>
+      </c>
+      <c r="D15">
+        <v>99.078000000000003</v>
+      </c>
+      <c r="E15">
+        <v>97.628</v>
+      </c>
+      <c r="F15">
+        <v>92.308000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f>AVERAGE(C3,C6,C9,C12,C15)</f>
+        <v>92.148400000000009</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
+        <v>98.660999999999987</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>94.847999999999985</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>86.818200000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1208</v>
+      </c>
+      <c r="D17">
+        <v>211</v>
+      </c>
+      <c r="E17">
+        <v>513</v>
+      </c>
+      <c r="F17">
+        <v>484</v>
+      </c>
+      <c r="G17">
+        <f>C19</f>
+        <v>96.853999999999999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:J17" si="6">D19</f>
+        <v>99.052000000000007</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>97.855999999999995</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>94.834999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1170</v>
+      </c>
+      <c r="D18">
+        <v>209</v>
+      </c>
+      <c r="E18">
+        <v>502</v>
+      </c>
+      <c r="F18">
+        <v>459</v>
+      </c>
+      <c r="G18">
+        <f>C22</f>
+        <v>96.760999999999996</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:J18" si="7">D22</f>
+        <v>99.418999999999997</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>97.638000000000005</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>95.037999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>96.853999999999999</v>
+      </c>
+      <c r="D19">
+        <v>99.052000000000007</v>
+      </c>
+      <c r="E19">
+        <v>97.855999999999995</v>
+      </c>
+      <c r="F19">
+        <v>94.834999999999994</v>
+      </c>
+      <c r="G19">
+        <f>C25</f>
+        <v>97.507999999999996</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:J19" si="8">D25</f>
+        <v>98.564999999999998</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>97.754999999999995</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>96.831999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1204</v>
+      </c>
+      <c r="D20">
+        <v>172</v>
+      </c>
+      <c r="E20">
+        <v>508</v>
+      </c>
+      <c r="F20">
+        <v>524</v>
+      </c>
+      <c r="G20">
+        <f>C28</f>
+        <v>96.512</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J20" si="9">D28</f>
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>98.34</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>93.266999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1165</v>
+      </c>
+      <c r="D21">
+        <v>171</v>
+      </c>
+      <c r="E21">
+        <v>496</v>
+      </c>
+      <c r="F21">
+        <v>498</v>
+      </c>
+      <c r="G21">
+        <f>C31</f>
+        <v>96.262</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:J21" si="10">D31</f>
+        <v>98.617999999999995</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>97.628</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>93.763000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>96.760999999999996</v>
+      </c>
+      <c r="D22">
+        <v>99.418999999999997</v>
+      </c>
+      <c r="E22">
+        <v>97.638000000000005</v>
+      </c>
+      <c r="F22">
+        <v>95.037999999999997</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1204</v>
+      </c>
+      <c r="D23">
+        <v>209</v>
+      </c>
+      <c r="E23">
+        <v>490</v>
+      </c>
+      <c r="F23">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1174</v>
+      </c>
+      <c r="D24">
+        <v>206</v>
+      </c>
+      <c r="E24">
+        <v>479</v>
+      </c>
+      <c r="F24">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>97.507999999999996</v>
+      </c>
+      <c r="D25">
+        <v>98.564999999999998</v>
+      </c>
+      <c r="E25">
+        <v>97.754999999999995</v>
+      </c>
+      <c r="F25">
+        <v>96.831999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1204</v>
+      </c>
+      <c r="D26">
+        <v>217</v>
+      </c>
+      <c r="E26">
+        <v>482</v>
+      </c>
+      <c r="F26">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1162</v>
+      </c>
+      <c r="D27">
+        <v>217</v>
+      </c>
+      <c r="E27">
+        <v>474</v>
+      </c>
+      <c r="F27">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>96.512</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>98.34</v>
+      </c>
+      <c r="F28">
+        <v>93.266999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1204</v>
+      </c>
+      <c r="D29">
+        <v>217</v>
+      </c>
+      <c r="E29">
+        <v>506</v>
+      </c>
+      <c r="F29">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1159</v>
+      </c>
+      <c r="D30">
+        <v>214</v>
+      </c>
+      <c r="E30">
+        <v>494</v>
+      </c>
+      <c r="F30">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>96.262</v>
+      </c>
+      <c r="D31">
+        <v>98.617999999999995</v>
+      </c>
+      <c r="E31">
+        <v>97.628</v>
+      </c>
+      <c r="F31">
+        <v>93.763000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <f>AVERAGE(C19,C22,C25,C28,C31)</f>
+        <v>96.779399999999995</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
+        <v>99.130799999999994</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>97.843400000000003</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="11"/>
+        <v>94.747</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A9FFEC-73A8-4D4F-94F7-7026AFE1C90E}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>910</v>
+      </c>
+      <c r="D1">
+        <v>96</v>
+      </c>
+      <c r="E1">
+        <v>243</v>
+      </c>
+      <c r="F1">
+        <v>571</v>
+      </c>
+      <c r="G1">
+        <f>C3</f>
+        <v>77.143000000000001</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ref="H1:K1" si="0">D3</f>
+        <v>98.957999999999998</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>85.596999999999994</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>69.876999999999995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>702</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <v>208</v>
+      </c>
+      <c r="F2">
+        <v>399</v>
+      </c>
+      <c r="G2">
+        <f>C6</f>
+        <v>77.192999999999998</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>95.575000000000003</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>89.090999999999994</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>69.084999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>77.143000000000001</v>
+      </c>
+      <c r="D3">
+        <v>98.957999999999998</v>
+      </c>
+      <c r="E3">
+        <v>85.596999999999994</v>
+      </c>
+      <c r="F3">
+        <v>69.876999999999995</v>
+      </c>
+      <c r="G3">
+        <f>C9</f>
+        <v>78.727999999999994</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>91.379000000000005</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>91.093000000000004</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>70.492000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>912</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>220</v>
+      </c>
+      <c r="F4">
+        <v>579</v>
+      </c>
+      <c r="G4">
+        <f>C12</f>
+        <v>77.850999999999999</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>96.774000000000001</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>85.525999999999996</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>71.912000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>704</v>
+      </c>
+      <c r="D5">
+        <v>108</v>
+      </c>
+      <c r="E5">
+        <v>196</v>
+      </c>
+      <c r="F5">
+        <v>400</v>
+      </c>
+      <c r="G5">
+        <f>C15</f>
+        <v>75.328999999999994</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>96</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>84.581000000000003</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>68.204999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>77.192999999999998</v>
+      </c>
+      <c r="D6">
+        <v>95.575000000000003</v>
+      </c>
+      <c r="E6">
+        <v>89.090999999999994</v>
+      </c>
+      <c r="F6">
+        <v>69.084999999999994</v>
+      </c>
+      <c r="G6" s="8">
+        <f>AVERAGE(G1:G5)</f>
+        <v>77.248800000000003</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
+        <v>95.737200000000001</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="5"/>
+        <v>87.177600000000012</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="5"/>
+        <v>69.914199999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>912</v>
+      </c>
+      <c r="D7">
+        <v>116</v>
+      </c>
+      <c r="E7">
+        <v>247</v>
+      </c>
+      <c r="F7">
+        <v>549</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>718</v>
+      </c>
+      <c r="D8">
+        <v>106</v>
+      </c>
+      <c r="E8">
+        <v>225</v>
+      </c>
+      <c r="F8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>78.727999999999994</v>
+      </c>
+      <c r="D9">
+        <v>91.379000000000005</v>
+      </c>
+      <c r="E9">
+        <v>91.093000000000004</v>
+      </c>
+      <c r="F9">
+        <v>70.492000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>912</v>
+      </c>
+      <c r="D10">
+        <v>93</v>
+      </c>
+      <c r="E10">
+        <v>228</v>
+      </c>
+      <c r="F10">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>710</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>195</v>
+      </c>
+      <c r="F11">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>77.850999999999999</v>
+      </c>
+      <c r="D12">
+        <v>96.774000000000001</v>
+      </c>
+      <c r="E12">
+        <v>85.525999999999996</v>
+      </c>
+      <c r="F12">
+        <v>71.912000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>912</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>227</v>
+      </c>
+      <c r="F13">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>687</v>
+      </c>
+      <c r="D14">
+        <v>96</v>
+      </c>
+      <c r="E14">
+        <v>192</v>
+      </c>
+      <c r="F14">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>75.328999999999994</v>
+      </c>
+      <c r="D15">
+        <v>96</v>
+      </c>
+      <c r="E15">
+        <v>84.581000000000003</v>
+      </c>
+      <c r="F15">
+        <v>68.204999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>910</v>
+      </c>
+      <c r="D17">
+        <v>96</v>
+      </c>
+      <c r="E17">
+        <v>243</v>
+      </c>
+      <c r="F17">
+        <v>571</v>
+      </c>
+      <c r="G17">
+        <f>C19</f>
+        <v>76.373999999999995</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:J17" si="6">D19</f>
+        <v>96.875</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>84.361999999999995</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>69.527000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>695</v>
+      </c>
+      <c r="D18">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>205</v>
+      </c>
+      <c r="F18">
+        <v>397</v>
+      </c>
+      <c r="G18">
+        <f>C22</f>
+        <v>75.768000000000001</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:J18" si="7">D22</f>
+        <v>93.805000000000007</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>89.090999999999994</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>67.185000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>76.373999999999995</v>
+      </c>
+      <c r="D19">
+        <v>96.875</v>
+      </c>
+      <c r="E19">
+        <v>84.361999999999995</v>
+      </c>
+      <c r="F19">
+        <v>69.527000000000001</v>
+      </c>
+      <c r="G19">
+        <f>C25</f>
+        <v>78.069999999999993</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:J19" si="8">D25</f>
+        <v>92.241</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>88.664000000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>70.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>912</v>
+      </c>
+      <c r="D20">
+        <v>113</v>
+      </c>
+      <c r="E20">
+        <v>220</v>
+      </c>
+      <c r="F20">
+        <v>579</v>
+      </c>
+      <c r="G20">
+        <f>C28</f>
+        <v>80.153999999999996</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J20" si="9">D28</f>
+        <v>97.849000000000004</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>89.912000000000006</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>73.603999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>691</v>
+      </c>
+      <c r="D21">
+        <v>106</v>
+      </c>
+      <c r="E21">
+        <v>196</v>
+      </c>
+      <c r="F21">
+        <v>389</v>
+      </c>
+      <c r="G21">
+        <f>C31</f>
+        <v>76.754000000000005</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:J21" si="10">D31</f>
+        <v>96</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>87.224999999999994</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>69.402000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>75.768000000000001</v>
+      </c>
+      <c r="D22">
+        <v>93.805000000000007</v>
+      </c>
+      <c r="E22">
+        <v>89.090999999999994</v>
+      </c>
+      <c r="F22">
+        <v>67.185000000000002</v>
+      </c>
+      <c r="G22" s="8">
+        <f>AVERAGE(G17:G21)</f>
+        <v>77.424000000000007</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" ref="H22:J22" si="11">AVERAGE(H17:H21)</f>
+        <v>95.353999999999999</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="11"/>
+        <v>87.850800000000007</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="11"/>
+        <v>70.005599999999987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>912</v>
+      </c>
+      <c r="D23">
+        <v>116</v>
+      </c>
+      <c r="E23">
+        <v>247</v>
+      </c>
+      <c r="F23">
+        <v>549</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1.56</v>
+      </c>
+      <c r="H23" s="9">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1.95</v>
+      </c>
+      <c r="J23" s="8">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>712</v>
+      </c>
+      <c r="D24">
+        <v>107</v>
+      </c>
+      <c r="E24">
+        <v>219</v>
+      </c>
+      <c r="F24">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>78.069999999999993</v>
+      </c>
+      <c r="D25">
+        <v>92.241</v>
+      </c>
+      <c r="E25">
+        <v>88.664000000000001</v>
+      </c>
+      <c r="F25">
+        <v>70.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>912</v>
+      </c>
+      <c r="D26">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>228</v>
+      </c>
+      <c r="F26">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>731</v>
+      </c>
+      <c r="D27">
+        <v>91</v>
+      </c>
+      <c r="E27">
+        <v>205</v>
+      </c>
+      <c r="F27">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>80.153999999999996</v>
+      </c>
+      <c r="D28">
+        <v>97.849000000000004</v>
+      </c>
+      <c r="E28">
+        <v>89.912000000000006</v>
+      </c>
+      <c r="F28">
+        <v>73.603999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>912</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>227</v>
+      </c>
+      <c r="F29">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>700</v>
+      </c>
+      <c r="D30">
+        <v>96</v>
+      </c>
+      <c r="E30">
+        <v>198</v>
+      </c>
+      <c r="F30">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>76.754000000000005</v>
+      </c>
+      <c r="D31">
+        <v>96</v>
+      </c>
+      <c r="E31">
+        <v>87.224999999999994</v>
+      </c>
+      <c r="F31">
+        <v>69.402000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F114FA6-C604-4621-8026-B722E31EC2F7}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1208</v>
+      </c>
+      <c r="D1">
+        <v>211</v>
+      </c>
+      <c r="E1">
+        <v>513</v>
+      </c>
+      <c r="F1">
+        <v>484</v>
+      </c>
+      <c r="G1">
+        <f>C3</f>
+        <v>88.411000000000001</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ref="H1:J1" si="0">D3</f>
+        <v>94.787000000000006</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>89.864000000000004</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>84.090999999999994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1068</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>461</v>
+      </c>
+      <c r="F2">
+        <v>407</v>
+      </c>
+      <c r="G2">
+        <f>C6</f>
+        <v>90.448999999999998</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>96.512</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>93.11</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>85.878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>88.411000000000001</v>
+      </c>
+      <c r="D3">
+        <v>94.787000000000006</v>
+      </c>
+      <c r="E3">
+        <v>89.864000000000004</v>
+      </c>
+      <c r="F3">
+        <v>84.090999999999994</v>
+      </c>
+      <c r="G3">
+        <f>C9</f>
+        <v>83.305999999999997</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>97.129000000000005</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>88.775999999999996</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>72.277000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1204</v>
+      </c>
+      <c r="D4">
+        <v>172</v>
+      </c>
+      <c r="E4">
+        <v>508</v>
+      </c>
+      <c r="F4">
+        <v>524</v>
+      </c>
+      <c r="G4">
+        <f>C12</f>
+        <v>90.033000000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>98.617999999999995</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>94.191000000000003</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>82.376000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1089</v>
+      </c>
+      <c r="D5">
+        <v>166</v>
+      </c>
+      <c r="E5">
+        <v>473</v>
+      </c>
+      <c r="F5">
+        <v>450</v>
+      </c>
+      <c r="G5">
+        <f>C15</f>
+        <v>84.884</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>96.313000000000002</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>89.328000000000003</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>75.052000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>90.448999999999998</v>
+      </c>
+      <c r="D6">
+        <v>96.512</v>
+      </c>
+      <c r="E6">
+        <v>93.11</v>
+      </c>
+      <c r="F6">
+        <v>85.878</v>
+      </c>
+      <c r="G6" s="8">
+        <f>AVERAGE(G1:G5)</f>
+        <v>87.416600000000003</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
+        <v>96.67179999999999</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="5"/>
+        <v>91.053799999999995</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="5"/>
+        <v>79.934799999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1204</v>
+      </c>
+      <c r="D7">
+        <v>209</v>
+      </c>
+      <c r="E7">
+        <v>490</v>
+      </c>
+      <c r="F7">
+        <v>505</v>
+      </c>
+      <c r="G7">
+        <v>2.84</v>
+      </c>
+      <c r="H7">
+        <v>1.24</v>
+      </c>
+      <c r="I7">
+        <v>2.17</v>
+      </c>
+      <c r="J7">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1003</v>
+      </c>
+      <c r="D8">
+        <v>203</v>
+      </c>
+      <c r="E8">
+        <v>435</v>
+      </c>
+      <c r="F8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>83.305999999999997</v>
+      </c>
+      <c r="D9">
+        <v>97.129000000000005</v>
+      </c>
+      <c r="E9">
+        <v>88.775999999999996</v>
+      </c>
+      <c r="F9">
+        <v>72.277000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1204</v>
+      </c>
+      <c r="D10">
+        <v>217</v>
+      </c>
+      <c r="E10">
+        <v>482</v>
+      </c>
+      <c r="F10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1084</v>
+      </c>
+      <c r="D11">
+        <v>214</v>
+      </c>
+      <c r="E11">
+        <v>454</v>
+      </c>
+      <c r="F11">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>90.033000000000001</v>
+      </c>
+      <c r="D12">
+        <v>98.617999999999995</v>
+      </c>
+      <c r="E12">
+        <v>94.191000000000003</v>
+      </c>
+      <c r="F12">
+        <v>82.376000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1204</v>
+      </c>
+      <c r="D13">
+        <v>217</v>
+      </c>
+      <c r="E13">
+        <v>506</v>
+      </c>
+      <c r="F13">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1022</v>
+      </c>
+      <c r="D14">
+        <v>209</v>
+      </c>
+      <c r="E14">
+        <v>452</v>
+      </c>
+      <c r="F14">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>84.884</v>
+      </c>
+      <c r="D15">
+        <v>96.313000000000002</v>
+      </c>
+      <c r="E15">
+        <v>89.328000000000003</v>
+      </c>
+      <c r="F15">
+        <v>75.052000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1208</v>
+      </c>
+      <c r="D17">
+        <v>211</v>
+      </c>
+      <c r="E17">
+        <v>513</v>
+      </c>
+      <c r="F17">
+        <v>484</v>
+      </c>
+      <c r="G17">
+        <f>C19</f>
+        <v>86.174999999999997</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:J17" si="6">D19</f>
+        <v>92.417000000000002</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>87.718999999999994</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>81.817999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1041</v>
+      </c>
+      <c r="D18">
+        <v>195</v>
+      </c>
+      <c r="E18">
+        <v>450</v>
+      </c>
+      <c r="F18">
+        <v>396</v>
+      </c>
+      <c r="G18">
+        <f>C22</f>
+        <v>85.962999999999994</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:J18" si="7">D22</f>
+        <v>93.022999999999996</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>89.173000000000002</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>80.534000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>86.174999999999997</v>
+      </c>
+      <c r="D19">
+        <v>92.417000000000002</v>
+      </c>
+      <c r="E19">
+        <v>87.718999999999994</v>
+      </c>
+      <c r="F19">
+        <v>81.817999999999998</v>
+      </c>
+      <c r="G19">
+        <f>C25</f>
+        <v>87.707999999999998</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:J19" si="8">D25</f>
+        <v>97.129000000000005</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>91.632999999999996</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1204</v>
+      </c>
+      <c r="D20">
+        <v>172</v>
+      </c>
+      <c r="E20">
+        <v>508</v>
+      </c>
+      <c r="F20">
+        <v>524</v>
+      </c>
+      <c r="G20">
+        <f>C28</f>
+        <v>86.046999999999997</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J20" si="9">D28</f>
+        <v>94.930999999999997</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>90.040999999999997</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>78.415999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1035</v>
+      </c>
+      <c r="D21">
+        <v>160</v>
+      </c>
+      <c r="E21">
+        <v>453</v>
+      </c>
+      <c r="F21">
+        <v>422</v>
+      </c>
+      <c r="G21">
+        <f>C31</f>
+        <v>86.876999999999995</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:J21" si="10">D31</f>
+        <v>95.391999999999996</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>90.316000000000003</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>79.418000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>85.962999999999994</v>
+      </c>
+      <c r="D22">
+        <v>93.022999999999996</v>
+      </c>
+      <c r="E22">
+        <v>89.173000000000002</v>
+      </c>
+      <c r="F22">
+        <v>80.534000000000006</v>
+      </c>
+      <c r="G22" s="8">
+        <f>AVERAGE(G17:G21)</f>
+        <v>86.554000000000002</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" ref="H22:J22" si="11">AVERAGE(H17:H21)</f>
+        <v>94.578400000000002</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="11"/>
+        <v>89.776399999999995</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="11"/>
+        <v>80.037200000000013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1204</v>
+      </c>
+      <c r="D23">
+        <v>209</v>
+      </c>
+      <c r="E23">
+        <v>490</v>
+      </c>
+      <c r="F23">
+        <v>505</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="J23" s="9">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1056</v>
+      </c>
+      <c r="D24">
+        <v>203</v>
+      </c>
+      <c r="E24">
+        <v>449</v>
+      </c>
+      <c r="F24">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>87.707999999999998</v>
+      </c>
+      <c r="D25">
+        <v>97.129000000000005</v>
+      </c>
+      <c r="E25">
+        <v>91.632999999999996</v>
+      </c>
+      <c r="F25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1204</v>
+      </c>
+      <c r="D26">
+        <v>217</v>
+      </c>
+      <c r="E26">
+        <v>482</v>
+      </c>
+      <c r="F26">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1036</v>
+      </c>
+      <c r="D27">
+        <v>206</v>
+      </c>
+      <c r="E27">
+        <v>434</v>
+      </c>
+      <c r="F27">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>86.046999999999997</v>
+      </c>
+      <c r="D28">
+        <v>94.930999999999997</v>
+      </c>
+      <c r="E28">
+        <v>90.040999999999997</v>
+      </c>
+      <c r="F28">
+        <v>78.415999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1204</v>
+      </c>
+      <c r="D29">
+        <v>217</v>
+      </c>
+      <c r="E29">
+        <v>506</v>
+      </c>
+      <c r="F29">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1046</v>
+      </c>
+      <c r="D30">
+        <v>207</v>
+      </c>
+      <c r="E30">
+        <v>457</v>
+      </c>
+      <c r="F30">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>86.876999999999995</v>
+      </c>
+      <c r="D31">
+        <v>95.391999999999996</v>
+      </c>
+      <c r="E31">
+        <v>90.316000000000003</v>
+      </c>
+      <c r="F31">
+        <v>79.418000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9E162C-0449-4ED3-9ABA-74E3D824EDE7}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>912</v>
+      </c>
+      <c r="C2">
+        <v>818</v>
+      </c>
+      <c r="D2">
+        <v>89.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>912</v>
+      </c>
+      <c r="C3">
+        <v>785</v>
+      </c>
+      <c r="D3">
+        <v>86.075000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>912</v>
+      </c>
+      <c r="C4">
+        <v>798</v>
+      </c>
+      <c r="D4">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>912</v>
+      </c>
+      <c r="C5">
+        <v>811</v>
+      </c>
+      <c r="D5">
+        <v>88.924999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>912</v>
+      </c>
+      <c r="C6">
+        <v>841</v>
+      </c>
+      <c r="D6">
+        <v>92.215000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="8">
+        <f>AVERAGE(D2:D6)</f>
+        <v>88.881</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stat.xlsx
+++ b/stat.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\LetterCubicGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulugbek\PycharmProjects\LetterCubicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B36D7C1-4C23-4FD7-B998-569C0D40E7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58127C8E-D648-47F1-BB0B-316BC20BF1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
   </bookViews>
   <sheets>
     <sheet name="uz" sheetId="1" r:id="rId1"/>
     <sheet name="en" sheetId="2" r:id="rId2"/>
     <sheet name="chart" sheetId="3" r:id="rId3"/>
     <sheet name="vovel stat" sheetId="4" r:id="rId4"/>
-    <sheet name="5-fold CV last uz 8" sheetId="8" r:id="rId5"/>
-    <sheet name="5-fold CV last en 8" sheetId="7" r:id="rId6"/>
-    <sheet name="uz 7" sheetId="10" r:id="rId7"/>
-    <sheet name="en 7" sheetId="11" r:id="rId8"/>
+    <sheet name="uz 8 CV" sheetId="8" r:id="rId5"/>
+    <sheet name="en 8 CV" sheetId="7" r:id="rId6"/>
+    <sheet name="uz 7 CV" sheetId="10" r:id="rId7"/>
+    <sheet name="en 7 CV" sheetId="11" r:id="rId8"/>
     <sheet name="what is statistical significace" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -263,14 +263,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -288,7 +288,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -351,7 +351,7 @@
               <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -423,7 +423,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -553,7 +553,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -683,7 +683,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -815,7 +815,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="ru-RU"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -962,7 +962,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="548169912"/>
@@ -1021,7 +1021,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="548168928"/>
@@ -1073,7 +1073,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1110,7 +1110,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1749,9 +1749,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1789,7 +1789,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1895,7 +1895,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2051,12 +2051,12 @@
       <selection activeCell="A10" sqref="A10:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2411,9 +2411,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2768,9 +2768,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>5</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>0.24324999999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>6</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>0.57275000000000009</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>7</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0.77599999999999991</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>8</v>
       </c>
@@ -2868,21 +2868,21 @@
         <v>0.90649999999999997</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
   </sheetData>
@@ -2896,18 +2896,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0086F817-B0BC-49D3-A303-DFC2312F9E47}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>0.80308880308880304</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>0.10038610038610038</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>9.0733590733590733E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>5.7915057915057912E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3088,7 +3088,7 @@
       <c r="I6" s="7"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="I7" s="7"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="I8" s="7"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3164,17 +3164,17 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3193,13 +3193,13 @@
       <selection activeCell="B1" sqref="B1:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="10"/>
+    <col min="8" max="9" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>85.463999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>80.138000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>82.695999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>85.11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>88.888999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>82.695999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>85.11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>88.888999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f t="shared" ref="C16" si="5">AVERAGE(C3,C6,C9,C12,C15)</f>
         <v>88.899000000000001</v>
@@ -3611,7 +3611,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>91.593999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>94.472999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>96.356999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>94.754999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>95.043000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>96.356999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>94.754999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>95.043000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32">
         <f t="shared" ref="C32" si="14">AVERAGE(C19,C22,C25,C28,C31)</f>
         <v>95.940200000000004</v>
@@ -4035,9 +4035,9 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>85.537000000000006</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>83.968999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>88.911000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>83.366</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>92.308000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>88.911000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>83.366</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>92.308000000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16">
         <f>AVERAGE(C3,C6,C9,C12,C15)</f>
         <v>92.148400000000009</v>
@@ -4447,7 +4447,7 @@
         <v>86.818200000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>94.834999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>95.037999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>96.831999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>93.266999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>93.763000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4646,7 +4646,7 @@
       <c r="F22">
         <v>95.037999999999997</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>37</v>
       </c>
       <c r="H22" s="9">
@@ -4659,7 +4659,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>96.831999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>93.266999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>93.763000000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32">
         <f>AVERAGE(C19,C22,C25,C28,C31)</f>
         <v>96.779399999999995</v>
@@ -4870,9 +4870,9 @@
       <selection activeCell="A34" sqref="A34:XFD64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>77.143000000000001</v>
       </c>
       <c r="H1">
-        <f t="shared" ref="H1:K1" si="0">D3</f>
+        <f t="shared" ref="H1:J1" si="0">D3</f>
         <v>98.957999999999998</v>
       </c>
       <c r="I1">
@@ -4908,7 +4908,7 @@
         <v>69.876999999999995</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>69.084999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>70.492000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>71.912000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>68.204999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>69.914199999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>70.492000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>71.912000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>68.204999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>69.527000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>67.185000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>70.31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>73.603999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>69.402000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>70.005599999999987</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>70.31</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>73.603999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -5698,13 +5698,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F114FA6-C604-4621-8026-B722E31EC2F7}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>84.090999999999994</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>85.878</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>72.277000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>82.376000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>75.052000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>79.934799999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>72.277000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>82.376000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>75.052000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>81.817999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>80.534000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>78.415999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>79.418000000000006</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>80.037200000000013</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>78.415999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -6533,9 +6533,9 @@
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>89.69</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>86.075000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>88.924999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6619,12 +6619,12 @@
         <v>92.215000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="8">
         <f>AVERAGE(D2:D6)</f>
         <v>88.881</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulugbek\PycharmProjects\LetterCubicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58127C8E-D648-47F1-BB0B-316BC20BF1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CA4E1B-3F25-485F-967A-66A6801AB23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
   </bookViews>
   <sheets>
     <sheet name="uz" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <sheet name="en 8 CV" sheetId="7" r:id="rId6"/>
     <sheet name="uz 7 CV" sheetId="10" r:id="rId7"/>
     <sheet name="en 7 CV" sheetId="11" r:id="rId8"/>
-    <sheet name="what is statistical significace" sheetId="9" r:id="rId9"/>
+    <sheet name="uz random" sheetId="12" r:id="rId9"/>
+    <sheet name="en random" sheetId="13" r:id="rId10"/>
+    <sheet name="what is statistical significace" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t xml:space="preserve"># </t>
   </si>
@@ -169,6 +171,9 @@
       </rPr>
       <t>0.42</t>
     </r>
+  </si>
+  <si>
+    <t>Approach</t>
   </si>
 </sst>
 </file>
@@ -2403,6 +2408,241 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801C0523-53CD-4ED8-BB43-DEE3D8BED4BB}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6024</v>
+      </c>
+      <c r="C2">
+        <v>1026</v>
+      </c>
+      <c r="D2">
+        <v>2499</v>
+      </c>
+      <c r="E2">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1114</v>
+      </c>
+      <c r="C3">
+        <v>405</v>
+      </c>
+      <c r="D3">
+        <v>487</v>
+      </c>
+      <c r="E3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>18.492999999999999</v>
+      </c>
+      <c r="C4">
+        <v>39.473999999999997</v>
+      </c>
+      <c r="D4">
+        <v>19.488</v>
+      </c>
+      <c r="E4">
+        <v>8.8840000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>6024</v>
+      </c>
+      <c r="C5">
+        <v>1026</v>
+      </c>
+      <c r="D5">
+        <v>2499</v>
+      </c>
+      <c r="E5">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4614</v>
+      </c>
+      <c r="C6">
+        <v>902</v>
+      </c>
+      <c r="D6">
+        <v>2048</v>
+      </c>
+      <c r="E6">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>76.593999999999994</v>
+      </c>
+      <c r="C7">
+        <v>87.914000000000001</v>
+      </c>
+      <c r="D7">
+        <v>81.953000000000003</v>
+      </c>
+      <c r="E7">
+        <v>66.587000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9E162C-0449-4ED3-9ABA-74E3D824EDE7}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>912</v>
+      </c>
+      <c r="C2">
+        <v>818</v>
+      </c>
+      <c r="D2">
+        <v>89.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>912</v>
+      </c>
+      <c r="C3">
+        <v>785</v>
+      </c>
+      <c r="D3">
+        <v>86.075000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>912</v>
+      </c>
+      <c r="C4">
+        <v>798</v>
+      </c>
+      <c r="D4">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>912</v>
+      </c>
+      <c r="C5">
+        <v>811</v>
+      </c>
+      <c r="D5">
+        <v>88.924999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>912</v>
+      </c>
+      <c r="C6">
+        <v>841</v>
+      </c>
+      <c r="D6">
+        <v>92.215000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="8">
+        <f>AVERAGE(D2:D6)</f>
+        <v>88.881</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A199716-0BF3-40B4-9C34-5315D9C6F674}">
   <dimension ref="A1:F17"/>
@@ -2896,7 +3136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0086F817-B0BC-49D3-A303-DFC2312F9E47}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:K5"/>
     </sheetView>
   </sheetViews>
@@ -6526,114 +6766,123 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9E162C-0449-4ED3-9ABA-74E3D824EDE7}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63161854-79E1-4D59-BACB-BA1A63A5651F}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>912</v>
+        <v>4558</v>
       </c>
       <c r="C2">
-        <v>818</v>
+        <v>518</v>
       </c>
       <c r="D2">
-        <v>89.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1165</v>
+      </c>
+      <c r="E2">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>912</v>
+        <v>1316</v>
       </c>
       <c r="C3">
-        <v>785</v>
+        <v>288</v>
       </c>
       <c r="D3">
-        <v>86.075000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="E3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>912</v>
+        <v>28.872</v>
       </c>
       <c r="C4">
-        <v>798</v>
+        <v>55.597999999999999</v>
       </c>
       <c r="D4">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35.707999999999998</v>
+      </c>
+      <c r="E4">
+        <v>21.286999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>912</v>
+        <v>4558</v>
       </c>
       <c r="C5">
-        <v>811</v>
+        <v>518</v>
       </c>
       <c r="D5">
-        <v>88.924999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1165</v>
+      </c>
+      <c r="E5">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>912</v>
+        <v>3262</v>
       </c>
       <c r="C6">
-        <v>841</v>
+        <v>495</v>
       </c>
       <c r="D6">
-        <v>92.215000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="8">
-        <f>AVERAGE(D2:D6)</f>
-        <v>88.881</v>
+        <v>962</v>
+      </c>
+      <c r="E6">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>71.566000000000003</v>
+      </c>
+      <c r="C7">
+        <v>95.56</v>
+      </c>
+      <c r="D7">
+        <v>82.575000000000003</v>
+      </c>
+      <c r="E7">
+        <v>62.783000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:C7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stat.xlsx
+++ b/stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulugbek\PycharmProjects\LetterCubicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CA4E1B-3F25-485F-967A-66A6801AB23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC950774-07CD-4FF4-9394-FA113E02C220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
   </bookViews>
   <sheets>
     <sheet name="uz" sheetId="1" r:id="rId1"/>
@@ -2412,8 +2412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801C0523-53CD-4ED8-BB43-DEE3D8BED4BB}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2534,7 +2534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9E162C-0449-4ED3-9ABA-74E3D824EDE7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
@@ -6770,7 +6770,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -8,22 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulugbek\PycharmProjects\LetterCubicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC950774-07CD-4FF4-9394-FA113E02C220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9391BC-E24A-4D02-9CDE-5EE04FCC6E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
   </bookViews>
   <sheets>
     <sheet name="uz" sheetId="1" r:id="rId1"/>
     <sheet name="en" sheetId="2" r:id="rId2"/>
     <sheet name="chart" sheetId="3" r:id="rId3"/>
     <sheet name="vovel stat" sheetId="4" r:id="rId4"/>
-    <sheet name="uz 8 CV" sheetId="8" r:id="rId5"/>
-    <sheet name="en 8 CV" sheetId="7" r:id="rId6"/>
-    <sheet name="uz 7 CV" sheetId="10" r:id="rId7"/>
-    <sheet name="en 7 CV" sheetId="11" r:id="rId8"/>
-    <sheet name="uz random" sheetId="12" r:id="rId9"/>
-    <sheet name="en random" sheetId="13" r:id="rId10"/>
-    <sheet name="what is statistical significace" sheetId="9" r:id="rId11"/>
+    <sheet name="uz 5 CV" sheetId="14" r:id="rId5"/>
+    <sheet name="en 5 CV" sheetId="16" r:id="rId6"/>
+    <sheet name="uz 6 CV" sheetId="17" r:id="rId7"/>
+    <sheet name="en 6 CV" sheetId="18" r:id="rId8"/>
+    <sheet name="uz 7 CV" sheetId="10" r:id="rId9"/>
+    <sheet name="en 7 CV" sheetId="11" r:id="rId10"/>
+    <sheet name="uz 8 CV" sheetId="8" r:id="rId11"/>
+    <sheet name="en 8 CV" sheetId="7" r:id="rId12"/>
+    <sheet name="uz random" sheetId="12" r:id="rId13"/>
+    <sheet name="en random" sheetId="13" r:id="rId14"/>
+    <sheet name="what is statistical significace" sheetId="9" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -180,9 +184,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -248,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -272,6 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2409,6 +2415,2636 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F114FA6-C604-4621-8026-B722E31EC2F7}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1208</v>
+      </c>
+      <c r="D1">
+        <v>211</v>
+      </c>
+      <c r="E1">
+        <v>513</v>
+      </c>
+      <c r="F1">
+        <v>484</v>
+      </c>
+      <c r="G1">
+        <f>C3</f>
+        <v>88.411000000000001</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ref="H1:J1" si="0">D3</f>
+        <v>94.787000000000006</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>89.864000000000004</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>84.090999999999994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1068</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>461</v>
+      </c>
+      <c r="F2">
+        <v>407</v>
+      </c>
+      <c r="G2">
+        <f>C6</f>
+        <v>90.448999999999998</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>96.512</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>93.11</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>85.878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>88.411000000000001</v>
+      </c>
+      <c r="D3">
+        <v>94.787000000000006</v>
+      </c>
+      <c r="E3">
+        <v>89.864000000000004</v>
+      </c>
+      <c r="F3">
+        <v>84.090999999999994</v>
+      </c>
+      <c r="G3">
+        <f>C9</f>
+        <v>83.305999999999997</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>97.129000000000005</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>88.775999999999996</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>72.277000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1204</v>
+      </c>
+      <c r="D4">
+        <v>172</v>
+      </c>
+      <c r="E4">
+        <v>508</v>
+      </c>
+      <c r="F4">
+        <v>524</v>
+      </c>
+      <c r="G4">
+        <f>C12</f>
+        <v>90.033000000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>98.617999999999995</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>94.191000000000003</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>82.376000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1089</v>
+      </c>
+      <c r="D5">
+        <v>166</v>
+      </c>
+      <c r="E5">
+        <v>473</v>
+      </c>
+      <c r="F5">
+        <v>450</v>
+      </c>
+      <c r="G5">
+        <f>C15</f>
+        <v>84.884</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>96.313000000000002</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>89.328000000000003</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>75.052000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>90.448999999999998</v>
+      </c>
+      <c r="D6">
+        <v>96.512</v>
+      </c>
+      <c r="E6">
+        <v>93.11</v>
+      </c>
+      <c r="F6">
+        <v>85.878</v>
+      </c>
+      <c r="G6" s="8">
+        <f>AVERAGE(G1:G5)</f>
+        <v>87.416600000000003</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
+        <v>96.67179999999999</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="5"/>
+        <v>91.053799999999995</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="5"/>
+        <v>79.934799999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1204</v>
+      </c>
+      <c r="D7">
+        <v>209</v>
+      </c>
+      <c r="E7">
+        <v>490</v>
+      </c>
+      <c r="F7">
+        <v>505</v>
+      </c>
+      <c r="G7">
+        <v>2.84</v>
+      </c>
+      <c r="H7">
+        <v>1.24</v>
+      </c>
+      <c r="I7">
+        <v>2.17</v>
+      </c>
+      <c r="J7">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1003</v>
+      </c>
+      <c r="D8">
+        <v>203</v>
+      </c>
+      <c r="E8">
+        <v>435</v>
+      </c>
+      <c r="F8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>83.305999999999997</v>
+      </c>
+      <c r="D9">
+        <v>97.129000000000005</v>
+      </c>
+      <c r="E9">
+        <v>88.775999999999996</v>
+      </c>
+      <c r="F9">
+        <v>72.277000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1204</v>
+      </c>
+      <c r="D10">
+        <v>217</v>
+      </c>
+      <c r="E10">
+        <v>482</v>
+      </c>
+      <c r="F10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1084</v>
+      </c>
+      <c r="D11">
+        <v>214</v>
+      </c>
+      <c r="E11">
+        <v>454</v>
+      </c>
+      <c r="F11">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>90.033000000000001</v>
+      </c>
+      <c r="D12">
+        <v>98.617999999999995</v>
+      </c>
+      <c r="E12">
+        <v>94.191000000000003</v>
+      </c>
+      <c r="F12">
+        <v>82.376000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1204</v>
+      </c>
+      <c r="D13">
+        <v>217</v>
+      </c>
+      <c r="E13">
+        <v>506</v>
+      </c>
+      <c r="F13">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1022</v>
+      </c>
+      <c r="D14">
+        <v>209</v>
+      </c>
+      <c r="E14">
+        <v>452</v>
+      </c>
+      <c r="F14">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>84.884</v>
+      </c>
+      <c r="D15">
+        <v>96.313000000000002</v>
+      </c>
+      <c r="E15">
+        <v>89.328000000000003</v>
+      </c>
+      <c r="F15">
+        <v>75.052000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1208</v>
+      </c>
+      <c r="D17">
+        <v>211</v>
+      </c>
+      <c r="E17">
+        <v>513</v>
+      </c>
+      <c r="F17">
+        <v>484</v>
+      </c>
+      <c r="G17">
+        <f>C19</f>
+        <v>86.174999999999997</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:J17" si="6">D19</f>
+        <v>92.417000000000002</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>87.718999999999994</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>81.817999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1041</v>
+      </c>
+      <c r="D18">
+        <v>195</v>
+      </c>
+      <c r="E18">
+        <v>450</v>
+      </c>
+      <c r="F18">
+        <v>396</v>
+      </c>
+      <c r="G18">
+        <f>C22</f>
+        <v>85.962999999999994</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:J18" si="7">D22</f>
+        <v>93.022999999999996</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>89.173000000000002</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>80.534000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>86.174999999999997</v>
+      </c>
+      <c r="D19">
+        <v>92.417000000000002</v>
+      </c>
+      <c r="E19">
+        <v>87.718999999999994</v>
+      </c>
+      <c r="F19">
+        <v>81.817999999999998</v>
+      </c>
+      <c r="G19">
+        <f>C25</f>
+        <v>87.707999999999998</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:J19" si="8">D25</f>
+        <v>97.129000000000005</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>91.632999999999996</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1204</v>
+      </c>
+      <c r="D20">
+        <v>172</v>
+      </c>
+      <c r="E20">
+        <v>508</v>
+      </c>
+      <c r="F20">
+        <v>524</v>
+      </c>
+      <c r="G20">
+        <f>C28</f>
+        <v>86.046999999999997</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J20" si="9">D28</f>
+        <v>94.930999999999997</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>90.040999999999997</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>78.415999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1035</v>
+      </c>
+      <c r="D21">
+        <v>160</v>
+      </c>
+      <c r="E21">
+        <v>453</v>
+      </c>
+      <c r="F21">
+        <v>422</v>
+      </c>
+      <c r="G21">
+        <f>C31</f>
+        <v>86.876999999999995</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:J21" si="10">D31</f>
+        <v>95.391999999999996</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>90.316000000000003</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>79.418000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>85.962999999999994</v>
+      </c>
+      <c r="D22">
+        <v>93.022999999999996</v>
+      </c>
+      <c r="E22">
+        <v>89.173000000000002</v>
+      </c>
+      <c r="F22">
+        <v>80.534000000000006</v>
+      </c>
+      <c r="G22" s="8">
+        <f>AVERAGE(G17:G21)</f>
+        <v>86.554000000000002</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" ref="H22:J22" si="11">AVERAGE(H17:H21)</f>
+        <v>94.578400000000002</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="11"/>
+        <v>89.776399999999995</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="11"/>
+        <v>80.037200000000013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1204</v>
+      </c>
+      <c r="D23">
+        <v>209</v>
+      </c>
+      <c r="E23">
+        <v>490</v>
+      </c>
+      <c r="F23">
+        <v>505</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.66</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="J23" s="9">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1056</v>
+      </c>
+      <c r="D24">
+        <v>203</v>
+      </c>
+      <c r="E24">
+        <v>449</v>
+      </c>
+      <c r="F24">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>87.707999999999998</v>
+      </c>
+      <c r="D25">
+        <v>97.129000000000005</v>
+      </c>
+      <c r="E25">
+        <v>91.632999999999996</v>
+      </c>
+      <c r="F25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1204</v>
+      </c>
+      <c r="D26">
+        <v>217</v>
+      </c>
+      <c r="E26">
+        <v>482</v>
+      </c>
+      <c r="F26">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1036</v>
+      </c>
+      <c r="D27">
+        <v>206</v>
+      </c>
+      <c r="E27">
+        <v>434</v>
+      </c>
+      <c r="F27">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>86.046999999999997</v>
+      </c>
+      <c r="D28">
+        <v>94.930999999999997</v>
+      </c>
+      <c r="E28">
+        <v>90.040999999999997</v>
+      </c>
+      <c r="F28">
+        <v>78.415999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1204</v>
+      </c>
+      <c r="D29">
+        <v>217</v>
+      </c>
+      <c r="E29">
+        <v>506</v>
+      </c>
+      <c r="F29">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1046</v>
+      </c>
+      <c r="D30">
+        <v>207</v>
+      </c>
+      <c r="E30">
+        <v>457</v>
+      </c>
+      <c r="F30">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>86.876999999999995</v>
+      </c>
+      <c r="D31">
+        <v>95.391999999999996</v>
+      </c>
+      <c r="E31">
+        <v>90.316000000000003</v>
+      </c>
+      <c r="F31">
+        <v>79.418000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA2341E-E866-43A2-911D-AC37F482C321}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>910</v>
+      </c>
+      <c r="D1">
+        <v>96</v>
+      </c>
+      <c r="E1">
+        <v>243</v>
+      </c>
+      <c r="F1">
+        <v>571</v>
+      </c>
+      <c r="G1" s="1">
+        <f>C3</f>
+        <v>89.78</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" ref="H1:I1" si="0">D3</f>
+        <v>97.917000000000002</v>
+      </c>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
+        <v>96.707999999999998</v>
+      </c>
+      <c r="J1" s="1">
+        <f>F3</f>
+        <v>85.463999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>817</v>
+      </c>
+      <c r="D2">
+        <v>94</v>
+      </c>
+      <c r="E2">
+        <v>235</v>
+      </c>
+      <c r="F2">
+        <v>488</v>
+      </c>
+      <c r="G2" s="1">
+        <f>C6</f>
+        <v>86.075000000000003</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>99.114999999999995</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="1"/>
+        <v>80.138000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>89.78</v>
+      </c>
+      <c r="D3">
+        <v>97.917000000000002</v>
+      </c>
+      <c r="E3">
+        <v>96.707999999999998</v>
+      </c>
+      <c r="F3">
+        <v>85.463999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <f>C9</f>
+        <v>87.5</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="2"/>
+        <v>92.308000000000007</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="2"/>
+        <v>82.695999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>912</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>220</v>
+      </c>
+      <c r="F4">
+        <v>579</v>
+      </c>
+      <c r="G4" s="1">
+        <f>C12</f>
+        <v>88.924999999999997</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>94.298000000000002</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>785</v>
+      </c>
+      <c r="D5">
+        <v>112</v>
+      </c>
+      <c r="E5">
+        <v>209</v>
+      </c>
+      <c r="F5">
+        <v>464</v>
+      </c>
+      <c r="G5" s="1">
+        <f>C15</f>
+        <v>92.215000000000003</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="4"/>
+        <v>97.356999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="4"/>
+        <v>88.888999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>86.075000000000003</v>
+      </c>
+      <c r="D6">
+        <v>99.114999999999995</v>
+      </c>
+      <c r="E6">
+        <v>95</v>
+      </c>
+      <c r="F6">
+        <v>80.138000000000005</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2.08</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.82</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>912</v>
+      </c>
+      <c r="D7">
+        <v>116</v>
+      </c>
+      <c r="E7">
+        <v>247</v>
+      </c>
+      <c r="F7">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>798</v>
+      </c>
+      <c r="D8">
+        <v>116</v>
+      </c>
+      <c r="E8">
+        <v>228</v>
+      </c>
+      <c r="F8">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>87.5</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>92.308000000000007</v>
+      </c>
+      <c r="F9">
+        <v>82.695999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>912</v>
+      </c>
+      <c r="D10">
+        <v>93</v>
+      </c>
+      <c r="E10">
+        <v>228</v>
+      </c>
+      <c r="F10">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>811</v>
+      </c>
+      <c r="D11">
+        <v>93</v>
+      </c>
+      <c r="E11">
+        <v>215</v>
+      </c>
+      <c r="F11">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>88.924999999999997</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>94.298000000000002</v>
+      </c>
+      <c r="F12">
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>912</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>227</v>
+      </c>
+      <c r="F13">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>841</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>221</v>
+      </c>
+      <c r="F14">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>92.215000000000003</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>97.356999999999999</v>
+      </c>
+      <c r="F15">
+        <v>88.888999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" ref="C16" si="5">AVERAGE(C3,C6,C9,C12,C15)</f>
+        <v>88.899000000000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16" si="6">AVERAGE(D3,D6,D9,D12,D15)</f>
+        <v>99.406399999999991</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16" si="7">AVERAGE(E3,E6,E9,E12,E15)</f>
+        <v>95.134200000000007</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="8">AVERAGE(F3,F6,F9,F12,F15)</f>
+        <v>84.459400000000002</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>910</v>
+      </c>
+      <c r="D17">
+        <v>96</v>
+      </c>
+      <c r="E17">
+        <v>243</v>
+      </c>
+      <c r="F17">
+        <v>571</v>
+      </c>
+      <c r="G17" s="1">
+        <f>C19</f>
+        <v>93.956000000000003</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17:J17" si="9">D19</f>
+        <v>98.957999999999998</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="9"/>
+        <v>97.531000000000006</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="9"/>
+        <v>91.593999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>855</v>
+      </c>
+      <c r="D18">
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <v>237</v>
+      </c>
+      <c r="F18">
+        <v>523</v>
+      </c>
+      <c r="G18" s="1">
+        <f>C22</f>
+        <v>96.052999999999997</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ref="H18:J18" si="10">D22</f>
+        <v>100</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="10"/>
+        <v>98.182000000000002</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="10"/>
+        <v>94.472999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>93.956000000000003</v>
+      </c>
+      <c r="D19">
+        <v>98.957999999999998</v>
+      </c>
+      <c r="E19">
+        <v>97.531000000000006</v>
+      </c>
+      <c r="F19">
+        <v>91.593999999999994</v>
+      </c>
+      <c r="G19" s="1">
+        <f>C25</f>
+        <v>97.039000000000001</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" ref="H19:J19" si="11">D25</f>
+        <v>98.275999999999996</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="11"/>
+        <v>97.975999999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="11"/>
+        <v>96.356999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>912</v>
+      </c>
+      <c r="D20">
+        <v>113</v>
+      </c>
+      <c r="E20">
+        <v>220</v>
+      </c>
+      <c r="F20">
+        <v>579</v>
+      </c>
+      <c r="G20" s="1">
+        <f>C28</f>
+        <v>96.162000000000006</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20:J20" si="12">D28</f>
+        <v>100</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="12"/>
+        <v>98.245999999999995</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="12"/>
+        <v>94.754999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>876</v>
+      </c>
+      <c r="D21">
+        <v>113</v>
+      </c>
+      <c r="E21">
+        <v>216</v>
+      </c>
+      <c r="F21">
+        <v>547</v>
+      </c>
+      <c r="G21" s="1">
+        <f>C31</f>
+        <v>96.491</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21:J21" si="13">D31</f>
+        <v>100</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="13"/>
+        <v>98.677999999999997</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="13"/>
+        <v>95.043000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>96.052999999999997</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>98.182000000000002</v>
+      </c>
+      <c r="F22">
+        <v>94.472999999999999</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.71</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>912</v>
+      </c>
+      <c r="D23">
+        <v>116</v>
+      </c>
+      <c r="E23">
+        <v>247</v>
+      </c>
+      <c r="F23">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>885</v>
+      </c>
+      <c r="D24">
+        <v>114</v>
+      </c>
+      <c r="E24">
+        <v>242</v>
+      </c>
+      <c r="F24">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>97.039000000000001</v>
+      </c>
+      <c r="D25">
+        <v>98.275999999999996</v>
+      </c>
+      <c r="E25">
+        <v>97.975999999999999</v>
+      </c>
+      <c r="F25">
+        <v>96.356999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>912</v>
+      </c>
+      <c r="D26">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>228</v>
+      </c>
+      <c r="F26">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>877</v>
+      </c>
+      <c r="D27">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>224</v>
+      </c>
+      <c r="F27">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>96.162000000000006</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>98.245999999999995</v>
+      </c>
+      <c r="F28">
+        <v>94.754999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>912</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>227</v>
+      </c>
+      <c r="F29">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>880</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>224</v>
+      </c>
+      <c r="F30">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>96.491</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>98.677999999999997</v>
+      </c>
+      <c r="F31">
+        <v>95.043000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" ref="C32" si="14">AVERAGE(C19,C22,C25,C28,C31)</f>
+        <v>95.940200000000004</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32" si="15">AVERAGE(D19,D22,D25,D28,D31)</f>
+        <v>99.446799999999996</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32" si="16">AVERAGE(E19,E22,E25,E28,E31)</f>
+        <v>98.122600000000006</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32" si="17">AVERAGE(F19,F22,F25,F28,F31)</f>
+        <v>94.444400000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6981B89-5433-4A4B-84D8-726093473F0F}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1208</v>
+      </c>
+      <c r="D1">
+        <v>211</v>
+      </c>
+      <c r="E1">
+        <v>513</v>
+      </c>
+      <c r="F1">
+        <v>484</v>
+      </c>
+      <c r="G1">
+        <f>C3</f>
+        <v>91.721999999999994</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ref="H1:J1" si="0">D3</f>
+        <v>98.103999999999999</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>94.932000000000002</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>85.537000000000006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1108</v>
+      </c>
+      <c r="D2">
+        <v>207</v>
+      </c>
+      <c r="E2">
+        <v>487</v>
+      </c>
+      <c r="F2">
+        <v>414</v>
+      </c>
+      <c r="G2">
+        <f>C6</f>
+        <v>91.113</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>99.418999999999997</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>95.668999999999997</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>83.968999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>91.721999999999994</v>
+      </c>
+      <c r="D3">
+        <v>98.103999999999999</v>
+      </c>
+      <c r="E3">
+        <v>94.932000000000002</v>
+      </c>
+      <c r="F3">
+        <v>85.537000000000006</v>
+      </c>
+      <c r="G3">
+        <f>C9</f>
+        <v>92.11</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>98.085999999999999</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>92.856999999999999</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>88.911000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1204</v>
+      </c>
+      <c r="D4">
+        <v>172</v>
+      </c>
+      <c r="E4">
+        <v>508</v>
+      </c>
+      <c r="F4">
+        <v>524</v>
+      </c>
+      <c r="G4">
+        <f>C12</f>
+        <v>90.033000000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>98.617999999999995</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>93.153999999999996</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>83.366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1097</v>
+      </c>
+      <c r="D5">
+        <v>171</v>
+      </c>
+      <c r="E5">
+        <v>486</v>
+      </c>
+      <c r="F5">
+        <v>440</v>
+      </c>
+      <c r="G5">
+        <f>C15</f>
+        <v>95.763999999999996</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>99.078000000000003</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>97.628</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>92.308000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>91.113</v>
+      </c>
+      <c r="D6">
+        <v>99.418999999999997</v>
+      </c>
+      <c r="E6">
+        <v>95.668999999999997</v>
+      </c>
+      <c r="F6">
+        <v>83.968999999999994</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.94</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1204</v>
+      </c>
+      <c r="D7">
+        <v>209</v>
+      </c>
+      <c r="E7">
+        <v>490</v>
+      </c>
+      <c r="F7">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1109</v>
+      </c>
+      <c r="D8">
+        <v>205</v>
+      </c>
+      <c r="E8">
+        <v>455</v>
+      </c>
+      <c r="F8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>92.11</v>
+      </c>
+      <c r="D9">
+        <v>98.085999999999999</v>
+      </c>
+      <c r="E9">
+        <v>92.856999999999999</v>
+      </c>
+      <c r="F9">
+        <v>88.911000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1204</v>
+      </c>
+      <c r="D10">
+        <v>217</v>
+      </c>
+      <c r="E10">
+        <v>482</v>
+      </c>
+      <c r="F10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1084</v>
+      </c>
+      <c r="D11">
+        <v>214</v>
+      </c>
+      <c r="E11">
+        <v>449</v>
+      </c>
+      <c r="F11">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>90.033000000000001</v>
+      </c>
+      <c r="D12">
+        <v>98.617999999999995</v>
+      </c>
+      <c r="E12">
+        <v>93.153999999999996</v>
+      </c>
+      <c r="F12">
+        <v>83.366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1204</v>
+      </c>
+      <c r="D13">
+        <v>217</v>
+      </c>
+      <c r="E13">
+        <v>506</v>
+      </c>
+      <c r="F13">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1153</v>
+      </c>
+      <c r="D14">
+        <v>215</v>
+      </c>
+      <c r="E14">
+        <v>494</v>
+      </c>
+      <c r="F14">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>95.763999999999996</v>
+      </c>
+      <c r="D15">
+        <v>99.078000000000003</v>
+      </c>
+      <c r="E15">
+        <v>97.628</v>
+      </c>
+      <c r="F15">
+        <v>92.308000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>AVERAGE(C3,C6,C9,C12,C15)</f>
+        <v>92.148400000000009</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
+        <v>98.660999999999987</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>94.847999999999985</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>86.818200000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1208</v>
+      </c>
+      <c r="D17">
+        <v>211</v>
+      </c>
+      <c r="E17">
+        <v>513</v>
+      </c>
+      <c r="F17">
+        <v>484</v>
+      </c>
+      <c r="G17">
+        <f>C19</f>
+        <v>96.853999999999999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:J17" si="6">D19</f>
+        <v>99.052000000000007</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>97.855999999999995</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>94.834999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1170</v>
+      </c>
+      <c r="D18">
+        <v>209</v>
+      </c>
+      <c r="E18">
+        <v>502</v>
+      </c>
+      <c r="F18">
+        <v>459</v>
+      </c>
+      <c r="G18">
+        <f>C22</f>
+        <v>96.760999999999996</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:J18" si="7">D22</f>
+        <v>99.418999999999997</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>97.638000000000005</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>95.037999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>96.853999999999999</v>
+      </c>
+      <c r="D19">
+        <v>99.052000000000007</v>
+      </c>
+      <c r="E19">
+        <v>97.855999999999995</v>
+      </c>
+      <c r="F19">
+        <v>94.834999999999994</v>
+      </c>
+      <c r="G19">
+        <f>C25</f>
+        <v>97.507999999999996</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:J19" si="8">D25</f>
+        <v>98.564999999999998</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>97.754999999999995</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>96.831999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1204</v>
+      </c>
+      <c r="D20">
+        <v>172</v>
+      </c>
+      <c r="E20">
+        <v>508</v>
+      </c>
+      <c r="F20">
+        <v>524</v>
+      </c>
+      <c r="G20">
+        <f>C28</f>
+        <v>96.512</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J20" si="9">D28</f>
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>98.34</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>93.266999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1165</v>
+      </c>
+      <c r="D21">
+        <v>171</v>
+      </c>
+      <c r="E21">
+        <v>496</v>
+      </c>
+      <c r="F21">
+        <v>498</v>
+      </c>
+      <c r="G21">
+        <f>C31</f>
+        <v>96.262</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:J21" si="10">D31</f>
+        <v>98.617999999999995</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>97.628</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>93.763000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>96.760999999999996</v>
+      </c>
+      <c r="D22">
+        <v>99.418999999999997</v>
+      </c>
+      <c r="E22">
+        <v>97.638000000000005</v>
+      </c>
+      <c r="F22">
+        <v>95.037999999999997</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1204</v>
+      </c>
+      <c r="D23">
+        <v>209</v>
+      </c>
+      <c r="E23">
+        <v>490</v>
+      </c>
+      <c r="F23">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1174</v>
+      </c>
+      <c r="D24">
+        <v>206</v>
+      </c>
+      <c r="E24">
+        <v>479</v>
+      </c>
+      <c r="F24">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>97.507999999999996</v>
+      </c>
+      <c r="D25">
+        <v>98.564999999999998</v>
+      </c>
+      <c r="E25">
+        <v>97.754999999999995</v>
+      </c>
+      <c r="F25">
+        <v>96.831999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1204</v>
+      </c>
+      <c r="D26">
+        <v>217</v>
+      </c>
+      <c r="E26">
+        <v>482</v>
+      </c>
+      <c r="F26">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1162</v>
+      </c>
+      <c r="D27">
+        <v>217</v>
+      </c>
+      <c r="E27">
+        <v>474</v>
+      </c>
+      <c r="F27">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>96.512</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>98.34</v>
+      </c>
+      <c r="F28">
+        <v>93.266999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1204</v>
+      </c>
+      <c r="D29">
+        <v>217</v>
+      </c>
+      <c r="E29">
+        <v>506</v>
+      </c>
+      <c r="F29">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1159</v>
+      </c>
+      <c r="D30">
+        <v>214</v>
+      </c>
+      <c r="E30">
+        <v>494</v>
+      </c>
+      <c r="F30">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>96.262</v>
+      </c>
+      <c r="D31">
+        <v>98.617999999999995</v>
+      </c>
+      <c r="E31">
+        <v>97.628</v>
+      </c>
+      <c r="F31">
+        <v>93.763000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f>AVERAGE(C19,C22,C25,C28,C31)</f>
+        <v>96.779399999999995</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
+        <v>99.130799999999994</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>97.843400000000003</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="11"/>
+        <v>94.747</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63161854-79E1-4D59-BACB-BA1A63A5651F}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4558</v>
+      </c>
+      <c r="C2">
+        <v>518</v>
+      </c>
+      <c r="D2">
+        <v>1165</v>
+      </c>
+      <c r="E2">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1316</v>
+      </c>
+      <c r="C3">
+        <v>288</v>
+      </c>
+      <c r="D3">
+        <v>416</v>
+      </c>
+      <c r="E3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>28.872</v>
+      </c>
+      <c r="C4">
+        <v>55.597999999999999</v>
+      </c>
+      <c r="D4">
+        <v>35.707999999999998</v>
+      </c>
+      <c r="E4">
+        <v>21.286999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4558</v>
+      </c>
+      <c r="C5">
+        <v>518</v>
+      </c>
+      <c r="D5">
+        <v>1165</v>
+      </c>
+      <c r="E5">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>3262</v>
+      </c>
+      <c r="C6">
+        <v>495</v>
+      </c>
+      <c r="D6">
+        <v>962</v>
+      </c>
+      <c r="E6">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>71.566000000000003</v>
+      </c>
+      <c r="C7">
+        <v>95.56</v>
+      </c>
+      <c r="D7">
+        <v>82.575000000000003</v>
+      </c>
+      <c r="E7">
+        <v>62.783000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801C0523-53CD-4ED8-BB43-DEE3D8BED4BB}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -2530,11 +5166,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9E162C-0449-4ED3-9ABA-74E3D824EDE7}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
@@ -3426,853 +6062,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA2341E-E866-43A2-911D-AC37F482C321}">
-  <dimension ref="A1:J32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>910</v>
-      </c>
-      <c r="D1">
-        <v>96</v>
-      </c>
-      <c r="E1">
-        <v>243</v>
-      </c>
-      <c r="F1">
-        <v>571</v>
-      </c>
-      <c r="G1" s="1">
-        <f>C3</f>
-        <v>89.78</v>
-      </c>
-      <c r="H1" s="1">
-        <f t="shared" ref="H1:I1" si="0">D3</f>
-        <v>97.917000000000002</v>
-      </c>
-      <c r="I1" s="1">
-        <f t="shared" si="0"/>
-        <v>96.707999999999998</v>
-      </c>
-      <c r="J1" s="1">
-        <f>F3</f>
-        <v>85.463999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>817</v>
-      </c>
-      <c r="D2">
-        <v>94</v>
-      </c>
-      <c r="E2">
-        <v>235</v>
-      </c>
-      <c r="F2">
-        <v>488</v>
-      </c>
-      <c r="G2" s="1">
-        <f>C6</f>
-        <v>86.075000000000003</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:J2" si="1">D6</f>
-        <v>99.114999999999995</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="J2" s="1">
-        <f t="shared" si="1"/>
-        <v>80.138000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>89.78</v>
-      </c>
-      <c r="D3">
-        <v>97.917000000000002</v>
-      </c>
-      <c r="E3">
-        <v>96.707999999999998</v>
-      </c>
-      <c r="F3">
-        <v>85.463999999999999</v>
-      </c>
-      <c r="G3" s="1">
-        <f>C9</f>
-        <v>87.5</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:J3" si="2">D9</f>
-        <v>100</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" si="2"/>
-        <v>92.308000000000007</v>
-      </c>
-      <c r="J3" s="1">
-        <f t="shared" si="2"/>
-        <v>82.695999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>912</v>
-      </c>
-      <c r="D4">
-        <v>113</v>
-      </c>
-      <c r="E4">
-        <v>220</v>
-      </c>
-      <c r="F4">
-        <v>579</v>
-      </c>
-      <c r="G4" s="1">
-        <f>C12</f>
-        <v>88.924999999999997</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:J4" si="3">D12</f>
-        <v>100</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="3"/>
-        <v>94.298000000000002</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="3"/>
-        <v>85.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>785</v>
-      </c>
-      <c r="D5">
-        <v>112</v>
-      </c>
-      <c r="E5">
-        <v>209</v>
-      </c>
-      <c r="F5">
-        <v>464</v>
-      </c>
-      <c r="G5" s="1">
-        <f>C15</f>
-        <v>92.215000000000003</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5:J5" si="4">D15</f>
-        <v>100</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="4"/>
-        <v>97.356999999999999</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="4"/>
-        <v>88.888999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>86.075000000000003</v>
-      </c>
-      <c r="D6">
-        <v>99.114999999999995</v>
-      </c>
-      <c r="E6">
-        <v>95</v>
-      </c>
-      <c r="F6">
-        <v>80.138000000000005</v>
-      </c>
-      <c r="G6" s="9">
-        <v>2.08</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.82</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="J6" s="9">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>912</v>
-      </c>
-      <c r="D7">
-        <v>116</v>
-      </c>
-      <c r="E7">
-        <v>247</v>
-      </c>
-      <c r="F7">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>798</v>
-      </c>
-      <c r="D8">
-        <v>116</v>
-      </c>
-      <c r="E8">
-        <v>228</v>
-      </c>
-      <c r="F8">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>87.5</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>92.308000000000007</v>
-      </c>
-      <c r="F9">
-        <v>82.695999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>912</v>
-      </c>
-      <c r="D10">
-        <v>93</v>
-      </c>
-      <c r="E10">
-        <v>228</v>
-      </c>
-      <c r="F10">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>811</v>
-      </c>
-      <c r="D11">
-        <v>93</v>
-      </c>
-      <c r="E11">
-        <v>215</v>
-      </c>
-      <c r="F11">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>88.924999999999997</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-      <c r="E12">
-        <v>94.298000000000002</v>
-      </c>
-      <c r="F12">
-        <v>85.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>912</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>227</v>
-      </c>
-      <c r="F13">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>841</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
-      </c>
-      <c r="E14">
-        <v>221</v>
-      </c>
-      <c r="F14">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>92.215000000000003</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="E15">
-        <v>97.356999999999999</v>
-      </c>
-      <c r="F15">
-        <v>88.888999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f t="shared" ref="C16" si="5">AVERAGE(C3,C6,C9,C12,C15)</f>
-        <v>88.899000000000001</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16" si="6">AVERAGE(D3,D6,D9,D12,D15)</f>
-        <v>99.406399999999991</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16" si="7">AVERAGE(E3,E6,E9,E12,E15)</f>
-        <v>95.134200000000007</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ref="F16" si="8">AVERAGE(F3,F6,F9,F12,F15)</f>
-        <v>84.459400000000002</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>910</v>
-      </c>
-      <c r="D17">
-        <v>96</v>
-      </c>
-      <c r="E17">
-        <v>243</v>
-      </c>
-      <c r="F17">
-        <v>571</v>
-      </c>
-      <c r="G17" s="1">
-        <f>C19</f>
-        <v>93.956000000000003</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" ref="H17:J17" si="9">D19</f>
-        <v>98.957999999999998</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="9"/>
-        <v>97.531000000000006</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="9"/>
-        <v>91.593999999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>855</v>
-      </c>
-      <c r="D18">
-        <v>95</v>
-      </c>
-      <c r="E18">
-        <v>237</v>
-      </c>
-      <c r="F18">
-        <v>523</v>
-      </c>
-      <c r="G18" s="1">
-        <f>C22</f>
-        <v>96.052999999999997</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" ref="H18:J18" si="10">D22</f>
-        <v>100</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="10"/>
-        <v>98.182000000000002</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="10"/>
-        <v>94.472999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>93.956000000000003</v>
-      </c>
-      <c r="D19">
-        <v>98.957999999999998</v>
-      </c>
-      <c r="E19">
-        <v>97.531000000000006</v>
-      </c>
-      <c r="F19">
-        <v>91.593999999999994</v>
-      </c>
-      <c r="G19" s="1">
-        <f>C25</f>
-        <v>97.039000000000001</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" ref="H19:J19" si="11">D25</f>
-        <v>98.275999999999996</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="11"/>
-        <v>97.975999999999999</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="11"/>
-        <v>96.356999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>912</v>
-      </c>
-      <c r="D20">
-        <v>113</v>
-      </c>
-      <c r="E20">
-        <v>220</v>
-      </c>
-      <c r="F20">
-        <v>579</v>
-      </c>
-      <c r="G20" s="1">
-        <f>C28</f>
-        <v>96.162000000000006</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" ref="H20:J20" si="12">D28</f>
-        <v>100</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="12"/>
-        <v>98.245999999999995</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="12"/>
-        <v>94.754999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>876</v>
-      </c>
-      <c r="D21">
-        <v>113</v>
-      </c>
-      <c r="E21">
-        <v>216</v>
-      </c>
-      <c r="F21">
-        <v>547</v>
-      </c>
-      <c r="G21" s="1">
-        <f>C31</f>
-        <v>96.491</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" ref="H21:J21" si="13">D31</f>
-        <v>100</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="13"/>
-        <v>98.677999999999997</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="13"/>
-        <v>95.043000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>96.052999999999997</v>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-      <c r="E22">
-        <v>98.182000000000002</v>
-      </c>
-      <c r="F22">
-        <v>94.472999999999999</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1.05</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.71</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.37</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>912</v>
-      </c>
-      <c r="D23">
-        <v>116</v>
-      </c>
-      <c r="E23">
-        <v>247</v>
-      </c>
-      <c r="F23">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>885</v>
-      </c>
-      <c r="D24">
-        <v>114</v>
-      </c>
-      <c r="E24">
-        <v>242</v>
-      </c>
-      <c r="F24">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>97.039000000000001</v>
-      </c>
-      <c r="D25">
-        <v>98.275999999999996</v>
-      </c>
-      <c r="E25">
-        <v>97.975999999999999</v>
-      </c>
-      <c r="F25">
-        <v>96.356999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>912</v>
-      </c>
-      <c r="D26">
-        <v>93</v>
-      </c>
-      <c r="E26">
-        <v>228</v>
-      </c>
-      <c r="F26">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>877</v>
-      </c>
-      <c r="D27">
-        <v>93</v>
-      </c>
-      <c r="E27">
-        <v>224</v>
-      </c>
-      <c r="F27">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>96.162000000000006</v>
-      </c>
-      <c r="D28">
-        <v>100</v>
-      </c>
-      <c r="E28">
-        <v>98.245999999999995</v>
-      </c>
-      <c r="F28">
-        <v>94.754999999999995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>912</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
-      <c r="E29">
-        <v>227</v>
-      </c>
-      <c r="F29">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>880</v>
-      </c>
-      <c r="D30">
-        <v>100</v>
-      </c>
-      <c r="E30">
-        <v>224</v>
-      </c>
-      <c r="F30">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>96.491</v>
-      </c>
-      <c r="D31">
-        <v>100</v>
-      </c>
-      <c r="E31">
-        <v>98.677999999999997</v>
-      </c>
-      <c r="F31">
-        <v>95.043000000000006</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <f t="shared" ref="C32" si="14">AVERAGE(C19,C22,C25,C28,C31)</f>
-        <v>95.940200000000004</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ref="D32" si="15">AVERAGE(D19,D22,D25,D28,D31)</f>
-        <v>99.446799999999996</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ref="E32" si="16">AVERAGE(E19,E22,E25,E28,E31)</f>
-        <v>98.122600000000006</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ref="F32" si="17">AVERAGE(F19,F22,F25,F28,F31)</f>
-        <v>94.444400000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6981B89-5433-4A4B-84D8-726093473F0F}">
-  <dimension ref="A1:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B773E0-ED98-482C-A8BA-7935FB4D5E10}">
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4285,6 +6079,838 @@
         <v>0</v>
       </c>
       <c r="C1">
+        <v>910</v>
+      </c>
+      <c r="D1">
+        <v>96</v>
+      </c>
+      <c r="E1">
+        <v>243</v>
+      </c>
+      <c r="F1">
+        <v>571</v>
+      </c>
+      <c r="G1">
+        <f>C3</f>
+        <v>25.495000000000001</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ref="H1:J1" si="0">D3</f>
+        <v>65.625</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>39.917999999999999</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>12.609</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>232</v>
+      </c>
+      <c r="D2">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>97</v>
+      </c>
+      <c r="F2">
+        <v>72</v>
+      </c>
+      <c r="G2">
+        <f>C6</f>
+        <v>26.206</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>65.486999999999995</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>40.454999999999998</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>13.125999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>25.495000000000001</v>
+      </c>
+      <c r="D3">
+        <v>65.625</v>
+      </c>
+      <c r="E3">
+        <v>39.917999999999999</v>
+      </c>
+      <c r="F3">
+        <v>12.609</v>
+      </c>
+      <c r="G3">
+        <f>C9</f>
+        <v>27.741</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>64.655000000000001</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>43.32</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>12.933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>912</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>220</v>
+      </c>
+      <c r="F4">
+        <v>579</v>
+      </c>
+      <c r="G4">
+        <f>C12</f>
+        <v>23.135999999999999</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>65.590999999999994</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>34.649000000000001</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>12.013999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>239</v>
+      </c>
+      <c r="D5">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>89</v>
+      </c>
+      <c r="F5">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <f>C15</f>
+        <v>26.754000000000001</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>77</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>42.290999999999997</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>12.137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>26.206</v>
+      </c>
+      <c r="D6">
+        <v>65.486999999999995</v>
+      </c>
+      <c r="E6">
+        <v>40.454999999999998</v>
+      </c>
+      <c r="F6">
+        <v>13.125999999999999</v>
+      </c>
+      <c r="G6" s="15">
+        <f>AVERAGE(G1:G5)</f>
+        <v>25.866399999999999</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
+        <v>67.671599999999998</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="5"/>
+        <v>40.126599999999996</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="5"/>
+        <v>12.563800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>912</v>
+      </c>
+      <c r="D7">
+        <v>116</v>
+      </c>
+      <c r="E7">
+        <v>247</v>
+      </c>
+      <c r="F7">
+        <v>549</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1.55</v>
+      </c>
+      <c r="H7" s="15">
+        <v>4.68</v>
+      </c>
+      <c r="I7" s="15">
+        <v>3</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>253</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>107</v>
+      </c>
+      <c r="F8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>27.741</v>
+      </c>
+      <c r="D9">
+        <v>64.655000000000001</v>
+      </c>
+      <c r="E9">
+        <v>43.32</v>
+      </c>
+      <c r="F9">
+        <v>12.933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>912</v>
+      </c>
+      <c r="D10">
+        <v>93</v>
+      </c>
+      <c r="E10">
+        <v>228</v>
+      </c>
+      <c r="F10">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>211</v>
+      </c>
+      <c r="D11">
+        <v>61</v>
+      </c>
+      <c r="E11">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>23.135999999999999</v>
+      </c>
+      <c r="D12">
+        <v>65.590999999999994</v>
+      </c>
+      <c r="E12">
+        <v>34.649000000000001</v>
+      </c>
+      <c r="F12">
+        <v>12.013999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>912</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>227</v>
+      </c>
+      <c r="F13">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>244</v>
+      </c>
+      <c r="D14">
+        <v>77</v>
+      </c>
+      <c r="E14">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>26.754000000000001</v>
+      </c>
+      <c r="D15">
+        <v>77</v>
+      </c>
+      <c r="E15">
+        <v>42.290999999999997</v>
+      </c>
+      <c r="F15">
+        <v>12.137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>910</v>
+      </c>
+      <c r="D17">
+        <v>96</v>
+      </c>
+      <c r="E17">
+        <v>243</v>
+      </c>
+      <c r="F17">
+        <v>571</v>
+      </c>
+      <c r="G17">
+        <f>C19</f>
+        <v>27.143000000000001</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:J17" si="6">D19</f>
+        <v>68.75</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>44.033000000000001</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>247</v>
+      </c>
+      <c r="D18">
+        <v>66</v>
+      </c>
+      <c r="E18">
+        <v>107</v>
+      </c>
+      <c r="F18">
+        <v>74</v>
+      </c>
+      <c r="G18">
+        <f>C22</f>
+        <v>26.206</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:J18" si="7">D22</f>
+        <v>65.486999999999995</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>40.454999999999998</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>13.125999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>27.143000000000001</v>
+      </c>
+      <c r="D19">
+        <v>68.75</v>
+      </c>
+      <c r="E19">
+        <v>44.033000000000001</v>
+      </c>
+      <c r="F19">
+        <v>12.96</v>
+      </c>
+      <c r="G19">
+        <f>C25</f>
+        <v>27.411999999999999</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:J19" si="8">D25</f>
+        <v>65.516999999999996</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>41.7</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>12.933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>912</v>
+      </c>
+      <c r="D20">
+        <v>113</v>
+      </c>
+      <c r="E20">
+        <v>220</v>
+      </c>
+      <c r="F20">
+        <v>579</v>
+      </c>
+      <c r="G20">
+        <f>C28</f>
+        <v>23.026</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J20" si="9">D28</f>
+        <v>65.590999999999994</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>32.895000000000003</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>12.521000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>239</v>
+      </c>
+      <c r="D21">
+        <v>74</v>
+      </c>
+      <c r="E21">
+        <v>89</v>
+      </c>
+      <c r="F21">
+        <v>76</v>
+      </c>
+      <c r="G21">
+        <f>C31</f>
+        <v>26.754000000000001</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:J21" si="10">D31</f>
+        <v>77</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>42.290999999999997</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>12.137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>26.206</v>
+      </c>
+      <c r="D22">
+        <v>65.486999999999995</v>
+      </c>
+      <c r="E22">
+        <v>40.454999999999998</v>
+      </c>
+      <c r="F22">
+        <v>13.125999999999999</v>
+      </c>
+      <c r="G22" s="15">
+        <f>AVERAGE(G17:G21)</f>
+        <v>26.1082</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" ref="H22:J22" si="11">AVERAGE(H17:H21)</f>
+        <v>68.468999999999994</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="11"/>
+        <v>40.274799999999999</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="11"/>
+        <v>12.7354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>912</v>
+      </c>
+      <c r="D23">
+        <v>116</v>
+      </c>
+      <c r="E23">
+        <v>247</v>
+      </c>
+      <c r="F23">
+        <v>549</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1.59</v>
+      </c>
+      <c r="H23" s="15">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I23" s="15">
+        <v>3.87</v>
+      </c>
+      <c r="J23" s="15">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>250</v>
+      </c>
+      <c r="D24">
+        <v>76</v>
+      </c>
+      <c r="E24">
+        <v>103</v>
+      </c>
+      <c r="F24">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>27.411999999999999</v>
+      </c>
+      <c r="D25">
+        <v>65.516999999999996</v>
+      </c>
+      <c r="E25">
+        <v>41.7</v>
+      </c>
+      <c r="F25">
+        <v>12.933</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>912</v>
+      </c>
+      <c r="D26">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>228</v>
+      </c>
+      <c r="F26">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>210</v>
+      </c>
+      <c r="D27">
+        <v>61</v>
+      </c>
+      <c r="E27">
+        <v>75</v>
+      </c>
+      <c r="F27">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>23.026</v>
+      </c>
+      <c r="D28">
+        <v>65.590999999999994</v>
+      </c>
+      <c r="E28">
+        <v>32.895000000000003</v>
+      </c>
+      <c r="F28">
+        <v>12.521000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>912</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>227</v>
+      </c>
+      <c r="F29">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>244</v>
+      </c>
+      <c r="D30">
+        <v>77</v>
+      </c>
+      <c r="E30">
+        <v>96</v>
+      </c>
+      <c r="F30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>26.754000000000001</v>
+      </c>
+      <c r="D31">
+        <v>77</v>
+      </c>
+      <c r="E31">
+        <v>42.290999999999997</v>
+      </c>
+      <c r="F31">
+        <v>12.137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C1118B-73CE-4228-AD14-CE1807F20C6E}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
         <v>1208</v>
       </c>
       <c r="D1">
@@ -4298,19 +6924,19 @@
       </c>
       <c r="G1">
         <f>C3</f>
-        <v>91.721999999999994</v>
+        <v>36.093000000000004</v>
       </c>
       <c r="H1">
         <f t="shared" ref="H1:J1" si="0">D3</f>
-        <v>98.103999999999999</v>
+        <v>70.616</v>
       </c>
       <c r="I1">
         <f t="shared" si="0"/>
-        <v>94.932000000000002</v>
+        <v>41.52</v>
       </c>
       <c r="J1">
         <f t="shared" si="0"/>
-        <v>85.537000000000006</v>
+        <v>15.289</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4321,32 +6947,32 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1108</v>
+        <v>436</v>
       </c>
       <c r="D2">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="E2">
-        <v>487</v>
+        <v>213</v>
       </c>
       <c r="F2">
-        <v>414</v>
+        <v>74</v>
       </c>
       <c r="G2">
         <f>C6</f>
-        <v>91.113</v>
+        <v>32.89</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:J2" si="1">D6</f>
-        <v>99.418999999999997</v>
+        <v>63.372</v>
       </c>
       <c r="I2">
         <f t="shared" si="1"/>
-        <v>95.668999999999997</v>
+        <v>40.156999999999996</v>
       </c>
       <c r="J2">
         <f t="shared" si="1"/>
-        <v>83.968999999999994</v>
+        <v>15.84</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4357,32 +6983,32 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>91.721999999999994</v>
+        <v>36.093000000000004</v>
       </c>
       <c r="D3">
-        <v>98.103999999999999</v>
+        <v>70.616</v>
       </c>
       <c r="E3">
-        <v>94.932000000000002</v>
+        <v>41.52</v>
       </c>
       <c r="F3">
-        <v>85.537000000000006</v>
+        <v>15.289</v>
       </c>
       <c r="G3">
         <f>C9</f>
-        <v>92.11</v>
+        <v>32.723999999999997</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:J3" si="2">D9</f>
-        <v>98.085999999999999</v>
+        <v>66.986000000000004</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>92.856999999999999</v>
+        <v>37.959000000000003</v>
       </c>
       <c r="J3">
         <f t="shared" si="2"/>
-        <v>88.911000000000001</v>
+        <v>13.465</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4406,19 +7032,19 @@
       </c>
       <c r="G4">
         <f>C12</f>
-        <v>90.033000000000001</v>
+        <v>34.801000000000002</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:J4" si="3">D12</f>
-        <v>98.617999999999995</v>
+        <v>68.664000000000001</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>93.153999999999996</v>
+        <v>41.494</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>83.366</v>
+        <v>13.861000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4429,32 +7055,32 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1097</v>
+        <v>396</v>
       </c>
       <c r="D5">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="E5">
-        <v>486</v>
+        <v>204</v>
       </c>
       <c r="F5">
-        <v>440</v>
+        <v>83</v>
       </c>
       <c r="G5">
         <f>C15</f>
-        <v>95.763999999999996</v>
+        <v>37.375</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:J5" si="4">D15</f>
-        <v>99.078000000000003</v>
+        <v>73.733000000000004</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
-        <v>97.628</v>
+        <v>46.442999999999998</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>92.308000000000007</v>
+        <v>11.435</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -4465,28 +7091,32 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>91.113</v>
+        <v>32.89</v>
       </c>
       <c r="D6">
-        <v>99.418999999999997</v>
+        <v>63.372</v>
       </c>
       <c r="E6">
-        <v>95.668999999999997</v>
+        <v>40.156999999999996</v>
       </c>
       <c r="F6">
-        <v>83.968999999999994</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1.94</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.53</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1.75</v>
-      </c>
-      <c r="J6" s="9">
-        <v>3.35</v>
+        <v>15.84</v>
+      </c>
+      <c r="G6" s="15">
+        <f>AVERAGE(G1:G5)</f>
+        <v>34.776599999999995</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
+        <v>68.674199999999999</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="5"/>
+        <v>41.514599999999994</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="5"/>
+        <v>13.978</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4508,6 +7138,22 @@
       <c r="F7">
         <v>505</v>
       </c>
+      <c r="G7" s="15">
+        <f>_xlfn.STDEV.P(G1:G5)</f>
+        <v>1.8031978926340846</v>
+      </c>
+      <c r="H7" s="15">
+        <f>_xlfn.STDEV.P(H1:H5)</f>
+        <v>3.4734850741006511</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" ref="I7:J7" si="6">_xlfn.STDEV.P(I1:I5)</f>
+        <v>2.7847782389267541</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="6"/>
+        <v>1.544634066696704</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4517,16 +7163,16 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>1109</v>
+        <v>394</v>
       </c>
       <c r="D8">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="E8">
-        <v>455</v>
+        <v>186</v>
       </c>
       <c r="F8">
-        <v>449</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4537,16 +7183,16 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>92.11</v>
+        <v>32.723999999999997</v>
       </c>
       <c r="D9">
-        <v>98.085999999999999</v>
+        <v>66.986000000000004</v>
       </c>
       <c r="E9">
-        <v>92.856999999999999</v>
+        <v>37.959000000000003</v>
       </c>
       <c r="F9">
-        <v>88.911000000000001</v>
+        <v>13.465</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4577,16 +7223,16 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>1084</v>
+        <v>419</v>
       </c>
       <c r="D11">
-        <v>214</v>
+        <v>149</v>
       </c>
       <c r="E11">
-        <v>449</v>
+        <v>200</v>
       </c>
       <c r="F11">
-        <v>421</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4597,16 +7243,16 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>90.033000000000001</v>
+        <v>34.801000000000002</v>
       </c>
       <c r="D12">
-        <v>98.617999999999995</v>
+        <v>68.664000000000001</v>
       </c>
       <c r="E12">
-        <v>93.153999999999996</v>
+        <v>41.494</v>
       </c>
       <c r="F12">
-        <v>83.366</v>
+        <v>13.861000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4637,16 +7283,16 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>1153</v>
+        <v>450</v>
       </c>
       <c r="D14">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="E14">
-        <v>494</v>
+        <v>235</v>
       </c>
       <c r="F14">
-        <v>444</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4657,34 +7303,16 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>95.763999999999996</v>
+        <v>37.375</v>
       </c>
       <c r="D15">
-        <v>99.078000000000003</v>
+        <v>73.733000000000004</v>
       </c>
       <c r="E15">
-        <v>97.628</v>
+        <v>46.442999999999998</v>
       </c>
       <c r="F15">
-        <v>92.308000000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f>AVERAGE(C3,C6,C9,C12,C15)</f>
-        <v>92.148400000000009</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
-        <v>98.660999999999987</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="5"/>
-        <v>94.847999999999985</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="5"/>
-        <v>86.818200000000004</v>
+        <v>11.435</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4708,19 +7336,19 @@
       </c>
       <c r="G17">
         <f>C19</f>
-        <v>96.853999999999999</v>
+        <v>33.444000000000003</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:J17" si="6">D19</f>
-        <v>99.052000000000007</v>
+        <f t="shared" ref="H17:J17" si="7">D19</f>
+        <v>72.512</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
-        <v>97.855999999999995</v>
+        <f t="shared" si="7"/>
+        <v>37.817</v>
       </c>
       <c r="J17">
-        <f t="shared" si="6"/>
-        <v>94.834999999999994</v>
+        <f t="shared" si="7"/>
+        <v>11.776999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4731,32 +7359,32 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1170</v>
+        <v>404</v>
       </c>
       <c r="D18">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="E18">
-        <v>502</v>
+        <v>194</v>
       </c>
       <c r="F18">
-        <v>459</v>
+        <v>57</v>
       </c>
       <c r="G18">
         <f>C22</f>
-        <v>96.760999999999996</v>
+        <v>30.731000000000002</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:J18" si="7">D22</f>
-        <v>99.418999999999997</v>
+        <f t="shared" ref="H18:J18" si="8">D22</f>
+        <v>65.116</v>
       </c>
       <c r="I18">
-        <f t="shared" si="7"/>
-        <v>97.638000000000005</v>
+        <f t="shared" si="8"/>
+        <v>36.22</v>
       </c>
       <c r="J18">
-        <f t="shared" si="7"/>
-        <v>95.037999999999997</v>
+        <f t="shared" si="8"/>
+        <v>14.122</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4767,32 +7395,32 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>96.853999999999999</v>
+        <v>33.444000000000003</v>
       </c>
       <c r="D19">
-        <v>99.052000000000007</v>
+        <v>72.512</v>
       </c>
       <c r="E19">
-        <v>97.855999999999995</v>
+        <v>37.817</v>
       </c>
       <c r="F19">
-        <v>94.834999999999994</v>
+        <v>11.776999999999999</v>
       </c>
       <c r="G19">
         <f>C25</f>
-        <v>97.507999999999996</v>
+        <v>31.977</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:J19" si="8">D25</f>
-        <v>98.564999999999998</v>
+        <f t="shared" ref="H19:J19" si="9">D25</f>
+        <v>67.463999999999999</v>
       </c>
       <c r="I19">
-        <f t="shared" si="8"/>
-        <v>97.754999999999995</v>
+        <f t="shared" si="9"/>
+        <v>35.101999999999997</v>
       </c>
       <c r="J19">
-        <f t="shared" si="8"/>
-        <v>96.831999999999994</v>
+        <f t="shared" si="9"/>
+        <v>14.257</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4816,19 +7444,19 @@
       </c>
       <c r="G20">
         <f>C28</f>
-        <v>96.512</v>
+        <v>34.136000000000003</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:J20" si="9">D28</f>
-        <v>100</v>
+        <f t="shared" ref="H20:J20" si="10">D28</f>
+        <v>69.584999999999994</v>
       </c>
       <c r="I20">
-        <f t="shared" si="9"/>
-        <v>98.34</v>
+        <f t="shared" si="10"/>
+        <v>39.834000000000003</v>
       </c>
       <c r="J20">
-        <f t="shared" si="9"/>
-        <v>93.266999999999996</v>
+        <f t="shared" si="10"/>
+        <v>13.465</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4839,32 +7467,32 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1165</v>
+        <v>370</v>
       </c>
       <c r="D21">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="E21">
-        <v>496</v>
+        <v>184</v>
       </c>
       <c r="F21">
-        <v>498</v>
+        <v>74</v>
       </c>
       <c r="G21">
         <f>C31</f>
-        <v>96.262</v>
+        <v>34.634999999999998</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:J21" si="10">D31</f>
-        <v>98.617999999999995</v>
+        <f t="shared" ref="H21:J21" si="11">D31</f>
+        <v>74.194000000000003</v>
       </c>
       <c r="I21">
-        <f t="shared" si="10"/>
-        <v>97.628</v>
+        <f t="shared" si="11"/>
+        <v>40.908999999999999</v>
       </c>
       <c r="J21">
-        <f t="shared" si="10"/>
-        <v>93.763000000000005</v>
+        <f t="shared" si="11"/>
+        <v>10.186999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4875,28 +7503,32 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>96.760999999999996</v>
+        <v>30.731000000000002</v>
       </c>
       <c r="D22">
-        <v>99.418999999999997</v>
+        <v>65.116</v>
       </c>
       <c r="E22">
-        <v>97.638000000000005</v>
+        <v>36.22</v>
       </c>
       <c r="F22">
-        <v>95.037999999999997</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.53</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1.23</v>
+        <v>14.122</v>
+      </c>
+      <c r="G22" s="15">
+        <f>AVERAGE(G17:G21)</f>
+        <v>32.9846</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" ref="H22:J22" si="12">AVERAGE(H17:H21)</f>
+        <v>69.774199999999993</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="12"/>
+        <v>37.976399999999998</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="12"/>
+        <v>12.761599999999998</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4918,6 +7550,22 @@
       <c r="F23">
         <v>505</v>
       </c>
+      <c r="G23" s="15">
+        <f>_xlfn.STDEV.P(G17:G21)</f>
+        <v>1.4390664473887225</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" ref="H23:J23" si="13">_xlfn.STDEV.P(H17:H21)</f>
+        <v>3.2894324373666661</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="13"/>
+        <v>2.1644096285130514</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="13"/>
+        <v>1.5607487433920997</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -4927,16 +7575,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>1174</v>
+        <v>385</v>
       </c>
       <c r="D24">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="E24">
-        <v>479</v>
+        <v>172</v>
       </c>
       <c r="F24">
-        <v>489</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4947,16 +7595,16 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>97.507999999999996</v>
+        <v>31.977</v>
       </c>
       <c r="D25">
-        <v>98.564999999999998</v>
+        <v>67.463999999999999</v>
       </c>
       <c r="E25">
-        <v>97.754999999999995</v>
+        <v>35.101999999999997</v>
       </c>
       <c r="F25">
-        <v>96.831999999999994</v>
+        <v>14.257</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4987,16 +7635,16 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>1162</v>
+        <v>411</v>
       </c>
       <c r="D27">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="E27">
-        <v>474</v>
+        <v>192</v>
       </c>
       <c r="F27">
-        <v>471</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5007,16 +7655,16 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>96.512</v>
+        <v>34.136000000000003</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>69.584999999999994</v>
       </c>
       <c r="E28">
-        <v>98.34</v>
+        <v>39.834000000000003</v>
       </c>
       <c r="F28">
-        <v>93.266999999999996</v>
+        <v>13.465</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5047,16 +7695,16 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>1159</v>
+        <v>417</v>
       </c>
       <c r="D30">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="E30">
-        <v>494</v>
+        <v>207</v>
       </c>
       <c r="F30">
-        <v>451</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5067,34 +7715,16 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>96.262</v>
+        <v>34.634999999999998</v>
       </c>
       <c r="D31">
-        <v>98.617999999999995</v>
+        <v>74.194000000000003</v>
       </c>
       <c r="E31">
-        <v>97.628</v>
+        <v>40.908999999999999</v>
       </c>
       <c r="F31">
-        <v>93.763000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <f>AVERAGE(C19,C22,C25,C28,C31)</f>
-        <v>96.779399999999995</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
-        <v>99.130799999999994</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="11"/>
-        <v>97.843400000000003</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="11"/>
-        <v>94.747</v>
+        <v>10.186999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5103,11 +7733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A9FFEC-73A8-4D4F-94F7-7026AFE1C90E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5E4A38-CBE3-4D83-BB64-BDF6A8D26486}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD64"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,19 +7763,19 @@
       </c>
       <c r="G1">
         <f>C3</f>
-        <v>77.143000000000001</v>
+        <v>53.956000000000003</v>
       </c>
       <c r="H1">
-        <f t="shared" ref="H1:J1" si="0">D3</f>
-        <v>98.957999999999998</v>
+        <f>D3</f>
+        <v>83.332999999999998</v>
       </c>
       <c r="I1">
-        <f t="shared" si="0"/>
-        <v>85.596999999999994</v>
+        <f>E3</f>
+        <v>67.489999999999995</v>
       </c>
       <c r="J1">
-        <f t="shared" si="0"/>
-        <v>69.876999999999995</v>
+        <f>F3</f>
+        <v>43.256999999999998</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5156,32 +7786,32 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>702</v>
+        <v>491</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E2">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="F2">
-        <v>399</v>
+        <v>247</v>
       </c>
       <c r="G2">
         <f>C6</f>
-        <v>77.192999999999998</v>
+        <v>55.262999999999998</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:J2" si="1">D6</f>
-        <v>95.575000000000003</v>
+        <f>D6</f>
+        <v>84.956000000000003</v>
       </c>
       <c r="I2">
-        <f t="shared" si="1"/>
-        <v>89.090999999999994</v>
+        <f>E6</f>
+        <v>69.090999999999994</v>
       </c>
       <c r="J2">
-        <f t="shared" si="1"/>
-        <v>69.084999999999994</v>
+        <f>F6</f>
+        <v>44.213999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -5192,32 +7822,32 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>77.143000000000001</v>
+        <v>53.956000000000003</v>
       </c>
       <c r="D3">
-        <v>98.957999999999998</v>
+        <v>83.332999999999998</v>
       </c>
       <c r="E3">
-        <v>85.596999999999994</v>
+        <v>67.489999999999995</v>
       </c>
       <c r="F3">
-        <v>69.876999999999995</v>
+        <v>43.256999999999998</v>
       </c>
       <c r="G3">
         <f>C9</f>
-        <v>78.727999999999994</v>
+        <v>62.5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:J3" si="2">D9</f>
-        <v>91.379000000000005</v>
+        <f>D9</f>
+        <v>88.793000000000006</v>
       </c>
       <c r="I3">
-        <f t="shared" si="2"/>
-        <v>91.093000000000004</v>
+        <f>E9</f>
+        <v>76.923000000000002</v>
       </c>
       <c r="J3">
-        <f t="shared" si="2"/>
-        <v>70.492000000000004</v>
+        <f>F9</f>
+        <v>50.454999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5241,19 +7871,19 @@
       </c>
       <c r="G4">
         <f>C12</f>
-        <v>77.850999999999999</v>
+        <v>64.912000000000006</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:J4" si="3">D12</f>
-        <v>96.774000000000001</v>
+        <f>D12</f>
+        <v>95.698999999999998</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
-        <v>85.525999999999996</v>
+        <f>E12</f>
+        <v>84.210999999999999</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
-        <v>71.912000000000006</v>
+        <f>F12</f>
+        <v>52.622999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -5264,32 +7894,32 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>704</v>
+        <v>504</v>
       </c>
       <c r="D5">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E5">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="F5">
-        <v>400</v>
+        <v>256</v>
       </c>
       <c r="G5">
         <f>C15</f>
-        <v>75.328999999999994</v>
+        <v>56.25</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:J5" si="4">D15</f>
-        <v>96</v>
+        <f>D15</f>
+        <v>89</v>
       </c>
       <c r="I5">
-        <f t="shared" si="4"/>
-        <v>84.581000000000003</v>
+        <f>E15</f>
+        <v>70.043999999999997</v>
       </c>
       <c r="J5">
-        <f t="shared" si="4"/>
-        <v>68.204999999999998</v>
+        <f>F15</f>
+        <v>45.298999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -5300,32 +7930,32 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>77.192999999999998</v>
+        <v>55.262999999999998</v>
       </c>
       <c r="D6">
-        <v>95.575000000000003</v>
+        <v>84.956000000000003</v>
       </c>
       <c r="E6">
-        <v>89.090999999999994</v>
+        <v>69.090999999999994</v>
       </c>
       <c r="F6">
-        <v>69.084999999999994</v>
-      </c>
-      <c r="G6" s="8">
+        <v>44.213999999999999</v>
+      </c>
+      <c r="G6" s="15">
         <f>AVERAGE(G1:G5)</f>
-        <v>77.248800000000003</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
-        <v>95.737200000000001</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" si="5"/>
-        <v>87.177600000000012</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" si="5"/>
-        <v>69.914199999999994</v>
+        <v>58.576199999999993</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" ref="H6:J6" si="0">AVERAGE(H1:H5)</f>
+        <v>88.356200000000001</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="0"/>
+        <v>73.551799999999986</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="0"/>
+        <v>47.169599999999996</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -5347,17 +7977,21 @@
       <c r="F7">
         <v>549</v>
       </c>
-      <c r="G7" s="9">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="H7" s="9">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="I7" s="9">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1.26</v>
+      <c r="G7" s="15">
+        <f>_xlfn.STDEV.P(G1:G5)</f>
+        <v>4.3191044627329882</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" ref="H7:J7" si="1">_xlfn.STDEV.P(H1:H5)</f>
+        <v>4.2735437940893961</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="1"/>
+        <v>6.2278784638109324</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="1"/>
+        <v>3.6898937437275885</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5368,16 +8002,16 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>718</v>
+        <v>570</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E8">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="F8">
-        <v>387</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5388,16 +8022,16 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>78.727999999999994</v>
+        <v>62.5</v>
       </c>
       <c r="D9">
-        <v>91.379000000000005</v>
+        <v>88.793000000000006</v>
       </c>
       <c r="E9">
-        <v>91.093000000000004</v>
+        <v>76.923000000000002</v>
       </c>
       <c r="F9">
-        <v>70.492000000000004</v>
+        <v>50.454999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5428,16 +8062,16 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>710</v>
+        <v>592</v>
       </c>
       <c r="D11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F11">
-        <v>425</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5448,16 +8082,16 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>77.850999999999999</v>
+        <v>64.912000000000006</v>
       </c>
       <c r="D12">
-        <v>96.774000000000001</v>
+        <v>95.698999999999998</v>
       </c>
       <c r="E12">
-        <v>85.525999999999996</v>
+        <v>84.210999999999999</v>
       </c>
       <c r="F12">
-        <v>71.912000000000006</v>
+        <v>52.622999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5488,16 +8122,16 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>687</v>
+        <v>513</v>
       </c>
       <c r="D14">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E14">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="F14">
-        <v>399</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5508,16 +8142,16 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>75.328999999999994</v>
+        <v>56.25</v>
       </c>
       <c r="D15">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E15">
-        <v>84.581000000000003</v>
+        <v>70.043999999999997</v>
       </c>
       <c r="F15">
-        <v>68.204999999999998</v>
+        <v>45.298999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5541,19 +8175,19 @@
       </c>
       <c r="G17">
         <f>C19</f>
-        <v>76.373999999999995</v>
+        <v>50.988999999999997</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:J17" si="6">D19</f>
-        <v>96.875</v>
+        <f t="shared" ref="H17:J17" si="2">D19</f>
+        <v>82.292000000000002</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
-        <v>84.361999999999995</v>
+        <f t="shared" si="2"/>
+        <v>65.021000000000001</v>
       </c>
       <c r="J17">
-        <f t="shared" si="6"/>
-        <v>69.527000000000001</v>
+        <f t="shared" si="2"/>
+        <v>39.755000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5564,32 +8198,32 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>695</v>
+        <v>464</v>
       </c>
       <c r="D18">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E18">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="F18">
-        <v>397</v>
+        <v>227</v>
       </c>
       <c r="G18">
         <f>C22</f>
-        <v>75.768000000000001</v>
+        <v>54.386000000000003</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:J18" si="7">D22</f>
-        <v>93.805000000000007</v>
+        <f t="shared" ref="H18:J18" si="3">D22</f>
+        <v>88.495999999999995</v>
       </c>
       <c r="I18">
-        <f t="shared" si="7"/>
-        <v>89.090999999999994</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="J18">
-        <f t="shared" si="7"/>
-        <v>67.185000000000002</v>
+        <f t="shared" si="3"/>
+        <v>43.695999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5600,32 +8234,32 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>76.373999999999995</v>
+        <v>50.988999999999997</v>
       </c>
       <c r="D19">
-        <v>96.875</v>
+        <v>82.292000000000002</v>
       </c>
       <c r="E19">
-        <v>84.361999999999995</v>
+        <v>65.021000000000001</v>
       </c>
       <c r="F19">
-        <v>69.527000000000001</v>
+        <v>39.755000000000003</v>
       </c>
       <c r="G19">
         <f>C25</f>
-        <v>78.069999999999993</v>
+        <v>54.276000000000003</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:J19" si="8">D25</f>
-        <v>92.241</v>
+        <f t="shared" ref="H19:J19" si="4">D25</f>
+        <v>81.897000000000006</v>
       </c>
       <c r="I19">
-        <f t="shared" si="8"/>
-        <v>88.664000000000001</v>
+        <f t="shared" si="4"/>
+        <v>71.254999999999995</v>
       </c>
       <c r="J19">
-        <f t="shared" si="8"/>
-        <v>70.31</v>
+        <f t="shared" si="4"/>
+        <v>40.801000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5649,19 +8283,19 @@
       </c>
       <c r="G20">
         <f>C28</f>
-        <v>80.153999999999996</v>
+        <v>55.043999999999997</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20:J20" si="9">D28</f>
-        <v>97.849000000000004</v>
+        <f t="shared" ref="H20:J20" si="5">D28</f>
+        <v>88.171999999999997</v>
       </c>
       <c r="I20">
-        <f t="shared" si="9"/>
-        <v>89.912000000000006</v>
+        <f t="shared" si="5"/>
+        <v>71.930000000000007</v>
       </c>
       <c r="J20">
-        <f t="shared" si="9"/>
-        <v>73.603999999999999</v>
+        <f t="shared" si="5"/>
+        <v>43.316000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5672,32 +8306,32 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>691</v>
+        <v>496</v>
       </c>
       <c r="D21">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E21">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="F21">
-        <v>389</v>
+        <v>253</v>
       </c>
       <c r="G21">
         <f>C31</f>
-        <v>76.754000000000005</v>
+        <v>51.973999999999997</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:J21" si="10">D31</f>
-        <v>96</v>
+        <f t="shared" ref="H21:J21" si="6">D31</f>
+        <v>83</v>
       </c>
       <c r="I21">
-        <f t="shared" si="10"/>
-        <v>87.224999999999994</v>
+        <f t="shared" si="6"/>
+        <v>66.52</v>
       </c>
       <c r="J21">
-        <f t="shared" si="10"/>
-        <v>69.402000000000001</v>
+        <f t="shared" si="6"/>
+        <v>41.026000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -5708,32 +8342,32 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>75.768000000000001</v>
+        <v>54.386000000000003</v>
       </c>
       <c r="D22">
-        <v>93.805000000000007</v>
+        <v>88.495999999999995</v>
       </c>
       <c r="E22">
-        <v>89.090999999999994</v>
+        <v>65</v>
       </c>
       <c r="F22">
-        <v>67.185000000000002</v>
-      </c>
-      <c r="G22" s="8">
+        <v>43.695999999999998</v>
+      </c>
+      <c r="G22" s="15">
         <f>AVERAGE(G17:G21)</f>
-        <v>77.424000000000007</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" ref="H22:J22" si="11">AVERAGE(H17:H21)</f>
-        <v>95.353999999999999</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="11"/>
-        <v>87.850800000000007</v>
-      </c>
-      <c r="J22" s="8">
-        <f t="shared" si="11"/>
-        <v>70.005599999999987</v>
+        <v>53.333799999999997</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" ref="H22:J22" si="7">AVERAGE(H17:H21)</f>
+        <v>84.7714</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="7"/>
+        <v>67.9452</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="7"/>
+        <v>41.718800000000002</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5755,17 +8389,21 @@
       <c r="F23">
         <v>549</v>
       </c>
-      <c r="G23" s="9">
-        <v>1.56</v>
-      </c>
-      <c r="H23" s="9">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="I23" s="8">
-        <v>1.95</v>
-      </c>
-      <c r="J23" s="8">
-        <v>2.08</v>
+      <c r="G23" s="15">
+        <f>_xlfn.STDEV.P(G17:G21)</f>
+        <v>1.5663200694621791</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" ref="H23:J23" si="8">_xlfn.STDEV.P(H17:H21)</f>
+        <v>2.932036261713006</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="8"/>
+        <v>3.0361077319489187</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="8"/>
+        <v>1.5257265023587931</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5776,16 +8414,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>712</v>
+        <v>495</v>
       </c>
       <c r="D24">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E24">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="F24">
-        <v>386</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5796,16 +8434,16 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>78.069999999999993</v>
+        <v>54.276000000000003</v>
       </c>
       <c r="D25">
-        <v>92.241</v>
+        <v>81.897000000000006</v>
       </c>
       <c r="E25">
-        <v>88.664000000000001</v>
+        <v>71.254999999999995</v>
       </c>
       <c r="F25">
-        <v>70.31</v>
+        <v>40.801000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5836,16 +8474,16 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>731</v>
+        <v>502</v>
       </c>
       <c r="D27">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E27">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="F27">
-        <v>435</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5856,16 +8494,16 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>80.153999999999996</v>
+        <v>55.043999999999997</v>
       </c>
       <c r="D28">
-        <v>97.849000000000004</v>
+        <v>88.171999999999997</v>
       </c>
       <c r="E28">
-        <v>89.912000000000006</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="F28">
-        <v>73.603999999999999</v>
+        <v>43.316000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5896,16 +8534,16 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>700</v>
+        <v>474</v>
       </c>
       <c r="D30">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E30">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="F30">
-        <v>406</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5916,30 +8554,1411 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>76.754000000000005</v>
+        <v>51.973999999999997</v>
       </c>
       <c r="D31">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E31">
-        <v>87.224999999999994</v>
+        <v>66.52</v>
       </c>
       <c r="F31">
-        <v>69.402000000000001</v>
+        <v>41.026000000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F114FA6-C604-4621-8026-B722E31EC2F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9063E8E-08D6-4B0B-938E-A8466FD2D202}">
+  <dimension ref="A1:T31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1208</v>
+      </c>
+      <c r="D1">
+        <v>211</v>
+      </c>
+      <c r="E1">
+        <v>513</v>
+      </c>
+      <c r="F1">
+        <v>484</v>
+      </c>
+      <c r="G1">
+        <f>C3</f>
+        <v>67.881</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ref="H1:J1" si="0">D3</f>
+        <v>90.046999999999997</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>72.515000000000001</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>53.305999999999997</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1">
+        <v>1208</v>
+      </c>
+      <c r="R1">
+        <v>211</v>
+      </c>
+      <c r="S1">
+        <v>513</v>
+      </c>
+      <c r="T1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>820</v>
+      </c>
+      <c r="D2">
+        <v>190</v>
+      </c>
+      <c r="E2">
+        <v>372</v>
+      </c>
+      <c r="F2">
+        <v>258</v>
+      </c>
+      <c r="G2">
+        <f>C6</f>
+        <v>65.448999999999998</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>87.790999999999997</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>71.063000000000002</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>52.671999999999997</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>820</v>
+      </c>
+      <c r="R2">
+        <v>190</v>
+      </c>
+      <c r="S2">
+        <v>372</v>
+      </c>
+      <c r="T2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>67.881</v>
+      </c>
+      <c r="D3">
+        <v>90.046999999999997</v>
+      </c>
+      <c r="E3">
+        <v>72.515000000000001</v>
+      </c>
+      <c r="F3">
+        <v>53.305999999999997</v>
+      </c>
+      <c r="G3">
+        <f>C9</f>
+        <v>68.522000000000006</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>90.909000000000006</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>74.897999999999996</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>53.069000000000003</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>67.881</v>
+      </c>
+      <c r="R3">
+        <v>90.046999999999997</v>
+      </c>
+      <c r="S3">
+        <v>72.515000000000001</v>
+      </c>
+      <c r="T3">
+        <v>53.305999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1204</v>
+      </c>
+      <c r="D4">
+        <v>172</v>
+      </c>
+      <c r="E4">
+        <v>508</v>
+      </c>
+      <c r="F4">
+        <v>524</v>
+      </c>
+      <c r="G4">
+        <f>C12</f>
+        <v>69.518000000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>87.096999999999994</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>74.688999999999993</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>57.03</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1204</v>
+      </c>
+      <c r="R4">
+        <v>172</v>
+      </c>
+      <c r="S4">
+        <v>508</v>
+      </c>
+      <c r="T4">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>788</v>
+      </c>
+      <c r="D5">
+        <v>151</v>
+      </c>
+      <c r="E5">
+        <v>361</v>
+      </c>
+      <c r="F5">
+        <v>276</v>
+      </c>
+      <c r="G5">
+        <f>C15</f>
+        <v>71.512</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>88.018000000000001</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>75.888999999999996</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>59.459000000000003</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>788</v>
+      </c>
+      <c r="R5">
+        <v>151</v>
+      </c>
+      <c r="S5">
+        <v>361</v>
+      </c>
+      <c r="T5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>65.448999999999998</v>
+      </c>
+      <c r="D6">
+        <v>87.790999999999997</v>
+      </c>
+      <c r="E6">
+        <v>71.063000000000002</v>
+      </c>
+      <c r="F6">
+        <v>52.671999999999997</v>
+      </c>
+      <c r="G6" s="15">
+        <f>AVERAGE(G1:G5)</f>
+        <v>68.576400000000007</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
+        <v>88.77239999999999</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="5"/>
+        <v>73.8108</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="5"/>
+        <v>55.107199999999999</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>65.448999999999998</v>
+      </c>
+      <c r="R6">
+        <v>87.790999999999997</v>
+      </c>
+      <c r="S6">
+        <v>71.063000000000002</v>
+      </c>
+      <c r="T6">
+        <v>52.671999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1204</v>
+      </c>
+      <c r="D7">
+        <v>209</v>
+      </c>
+      <c r="E7">
+        <v>490</v>
+      </c>
+      <c r="F7">
+        <v>505</v>
+      </c>
+      <c r="G7" s="15">
+        <f>_xlfn.STDEV.P(G1:G5)</f>
+        <v>1.9885436479997123</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" ref="H7:J7" si="6">_xlfn.STDEV.P(H1:H5)</f>
+        <v>1.4511302629330038</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="6"/>
+        <v>1.7607757835681377</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="6"/>
+        <v>2.6819434296793081</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>1204</v>
+      </c>
+      <c r="R7">
+        <v>209</v>
+      </c>
+      <c r="S7">
+        <v>490</v>
+      </c>
+      <c r="T7">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>825</v>
+      </c>
+      <c r="D8">
+        <v>190</v>
+      </c>
+      <c r="E8">
+        <v>367</v>
+      </c>
+      <c r="F8">
+        <v>268</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>825</v>
+      </c>
+      <c r="R8">
+        <v>190</v>
+      </c>
+      <c r="S8">
+        <v>367</v>
+      </c>
+      <c r="T8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>68.522000000000006</v>
+      </c>
+      <c r="D9">
+        <v>90.909000000000006</v>
+      </c>
+      <c r="E9">
+        <v>74.897999999999996</v>
+      </c>
+      <c r="F9">
+        <v>53.069000000000003</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>68.522000000000006</v>
+      </c>
+      <c r="R9">
+        <v>90.909000000000006</v>
+      </c>
+      <c r="S9">
+        <v>74.897999999999996</v>
+      </c>
+      <c r="T9">
+        <v>53.069000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1204</v>
+      </c>
+      <c r="D10">
+        <v>217</v>
+      </c>
+      <c r="E10">
+        <v>482</v>
+      </c>
+      <c r="F10">
+        <v>505</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>1204</v>
+      </c>
+      <c r="R10">
+        <v>217</v>
+      </c>
+      <c r="S10">
+        <v>482</v>
+      </c>
+      <c r="T10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>837</v>
+      </c>
+      <c r="D11">
+        <v>189</v>
+      </c>
+      <c r="E11">
+        <v>360</v>
+      </c>
+      <c r="F11">
+        <v>288</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>837</v>
+      </c>
+      <c r="R11">
+        <v>189</v>
+      </c>
+      <c r="S11">
+        <v>360</v>
+      </c>
+      <c r="T11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>69.518000000000001</v>
+      </c>
+      <c r="D12">
+        <v>87.096999999999994</v>
+      </c>
+      <c r="E12">
+        <v>74.688999999999993</v>
+      </c>
+      <c r="F12">
+        <v>57.03</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>69.518000000000001</v>
+      </c>
+      <c r="R12">
+        <v>87.096999999999994</v>
+      </c>
+      <c r="S12">
+        <v>74.688999999999993</v>
+      </c>
+      <c r="T12">
+        <v>57.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1204</v>
+      </c>
+      <c r="D13">
+        <v>217</v>
+      </c>
+      <c r="E13">
+        <v>506</v>
+      </c>
+      <c r="F13">
+        <v>481</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>1204</v>
+      </c>
+      <c r="R13">
+        <v>217</v>
+      </c>
+      <c r="S13">
+        <v>506</v>
+      </c>
+      <c r="T13">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>861</v>
+      </c>
+      <c r="D14">
+        <v>191</v>
+      </c>
+      <c r="E14">
+        <v>384</v>
+      </c>
+      <c r="F14">
+        <v>286</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>861</v>
+      </c>
+      <c r="R14">
+        <v>191</v>
+      </c>
+      <c r="S14">
+        <v>384</v>
+      </c>
+      <c r="T14">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>71.512</v>
+      </c>
+      <c r="D15">
+        <v>88.018000000000001</v>
+      </c>
+      <c r="E15">
+        <v>75.888999999999996</v>
+      </c>
+      <c r="F15">
+        <v>59.459000000000003</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+      <c r="Q15">
+        <v>71.512</v>
+      </c>
+      <c r="R15">
+        <v>88.018000000000001</v>
+      </c>
+      <c r="S15">
+        <v>75.888999999999996</v>
+      </c>
+      <c r="T15">
+        <v>59.459000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1208</v>
+      </c>
+      <c r="R16">
+        <v>211</v>
+      </c>
+      <c r="S16">
+        <v>513</v>
+      </c>
+      <c r="T16">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1208</v>
+      </c>
+      <c r="D17">
+        <v>211</v>
+      </c>
+      <c r="E17">
+        <v>513</v>
+      </c>
+      <c r="F17">
+        <v>484</v>
+      </c>
+      <c r="G17">
+        <f>C19</f>
+        <v>64.983000000000004</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:J17" si="7">D19</f>
+        <v>86.73</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>68.811000000000007</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>51.445999999999998</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>785</v>
+      </c>
+      <c r="R17">
+        <v>183</v>
+      </c>
+      <c r="S17">
+        <v>353</v>
+      </c>
+      <c r="T17">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>785</v>
+      </c>
+      <c r="D18">
+        <v>183</v>
+      </c>
+      <c r="E18">
+        <v>353</v>
+      </c>
+      <c r="F18">
+        <v>249</v>
+      </c>
+      <c r="G18">
+        <f>C22</f>
+        <v>63.122999999999998</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:J18" si="8">D22</f>
+        <v>80.813999999999993</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>71.653999999999996</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>49.045999999999999</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>64.983000000000004</v>
+      </c>
+      <c r="R18">
+        <v>86.73</v>
+      </c>
+      <c r="S18">
+        <v>68.811000000000007</v>
+      </c>
+      <c r="T18">
+        <v>51.445999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>64.983000000000004</v>
+      </c>
+      <c r="D19">
+        <v>86.73</v>
+      </c>
+      <c r="E19">
+        <v>68.811000000000007</v>
+      </c>
+      <c r="F19">
+        <v>51.445999999999998</v>
+      </c>
+      <c r="G19">
+        <f>C25</f>
+        <v>66.03</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:J19" si="9">D25</f>
+        <v>88.516999999999996</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="9"/>
+        <v>70.611999999999995</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="9"/>
+        <v>52.277000000000001</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1204</v>
+      </c>
+      <c r="R19">
+        <v>172</v>
+      </c>
+      <c r="S19">
+        <v>508</v>
+      </c>
+      <c r="T19">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1204</v>
+      </c>
+      <c r="D20">
+        <v>172</v>
+      </c>
+      <c r="E20">
+        <v>508</v>
+      </c>
+      <c r="F20">
+        <v>524</v>
+      </c>
+      <c r="G20">
+        <f>C28</f>
+        <v>64.12</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J20" si="10">D28</f>
+        <v>86.635999999999996</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="10"/>
+        <v>66.805000000000007</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="10"/>
+        <v>51.881</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>760</v>
+      </c>
+      <c r="R20">
+        <v>139</v>
+      </c>
+      <c r="S20">
+        <v>364</v>
+      </c>
+      <c r="T20">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>760</v>
+      </c>
+      <c r="D21">
+        <v>139</v>
+      </c>
+      <c r="E21">
+        <v>364</v>
+      </c>
+      <c r="F21">
+        <v>257</v>
+      </c>
+      <c r="G21">
+        <f>C31</f>
+        <v>64.617999999999995</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:J21" si="11">D31</f>
+        <v>85.253</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="11"/>
+        <v>71.936999999999998</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="11"/>
+        <v>47.609000000000002</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>63.122999999999998</v>
+      </c>
+      <c r="R21">
+        <v>80.813999999999993</v>
+      </c>
+      <c r="S21">
+        <v>71.653999999999996</v>
+      </c>
+      <c r="T21">
+        <v>49.045999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>63.122999999999998</v>
+      </c>
+      <c r="D22">
+        <v>80.813999999999993</v>
+      </c>
+      <c r="E22">
+        <v>71.653999999999996</v>
+      </c>
+      <c r="F22">
+        <v>49.045999999999999</v>
+      </c>
+      <c r="G22" s="15">
+        <f>AVERAGE(G17:G21)</f>
+        <v>64.574799999999996</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" ref="H22:J22" si="12">AVERAGE(H17:H21)</f>
+        <v>85.59</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="12"/>
+        <v>69.963800000000006</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="12"/>
+        <v>50.451800000000006</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+      <c r="Q22">
+        <v>1204</v>
+      </c>
+      <c r="R22">
+        <v>209</v>
+      </c>
+      <c r="S22">
+        <v>490</v>
+      </c>
+      <c r="T22">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1204</v>
+      </c>
+      <c r="D23">
+        <v>209</v>
+      </c>
+      <c r="E23">
+        <v>490</v>
+      </c>
+      <c r="F23">
+        <v>505</v>
+      </c>
+      <c r="G23" s="15">
+        <f>_xlfn.STDEV.P(G17:G21)</f>
+        <v>0.95923582084907666</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" ref="H23:J23" si="13">_xlfn.STDEV.P(H17:H21)</f>
+        <v>2.6032591111912025</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="13"/>
+        <v>1.9223643151078265</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="13"/>
+        <v>1.8121913144036415</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+      <c r="Q23">
+        <v>795</v>
+      </c>
+      <c r="R23">
+        <v>185</v>
+      </c>
+      <c r="S23">
+        <v>346</v>
+      </c>
+      <c r="T23">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>795</v>
+      </c>
+      <c r="D24">
+        <v>185</v>
+      </c>
+      <c r="E24">
+        <v>346</v>
+      </c>
+      <c r="F24">
+        <v>264</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>66.03</v>
+      </c>
+      <c r="R24">
+        <v>88.516999999999996</v>
+      </c>
+      <c r="S24">
+        <v>70.611999999999995</v>
+      </c>
+      <c r="T24">
+        <v>52.277000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>66.03</v>
+      </c>
+      <c r="D25">
+        <v>88.516999999999996</v>
+      </c>
+      <c r="E25">
+        <v>70.611999999999995</v>
+      </c>
+      <c r="F25">
+        <v>52.277000000000001</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>1204</v>
+      </c>
+      <c r="R25">
+        <v>217</v>
+      </c>
+      <c r="S25">
+        <v>482</v>
+      </c>
+      <c r="T25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1204</v>
+      </c>
+      <c r="D26">
+        <v>217</v>
+      </c>
+      <c r="E26">
+        <v>482</v>
+      </c>
+      <c r="F26">
+        <v>505</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>772</v>
+      </c>
+      <c r="R26">
+        <v>188</v>
+      </c>
+      <c r="S26">
+        <v>322</v>
+      </c>
+      <c r="T26">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>772</v>
+      </c>
+      <c r="D27">
+        <v>188</v>
+      </c>
+      <c r="E27">
+        <v>322</v>
+      </c>
+      <c r="F27">
+        <v>262</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>64.12</v>
+      </c>
+      <c r="R27">
+        <v>86.635999999999996</v>
+      </c>
+      <c r="S27">
+        <v>66.805000000000007</v>
+      </c>
+      <c r="T27">
+        <v>51.881</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>64.12</v>
+      </c>
+      <c r="D28">
+        <v>86.635999999999996</v>
+      </c>
+      <c r="E28">
+        <v>66.805000000000007</v>
+      </c>
+      <c r="F28">
+        <v>51.881</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>1204</v>
+      </c>
+      <c r="R28">
+        <v>217</v>
+      </c>
+      <c r="S28">
+        <v>506</v>
+      </c>
+      <c r="T28">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1204</v>
+      </c>
+      <c r="D29">
+        <v>217</v>
+      </c>
+      <c r="E29">
+        <v>506</v>
+      </c>
+      <c r="F29">
+        <v>481</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>4</v>
+      </c>
+      <c r="Q29">
+        <v>778</v>
+      </c>
+      <c r="R29">
+        <v>185</v>
+      </c>
+      <c r="S29">
+        <v>364</v>
+      </c>
+      <c r="T29">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>778</v>
+      </c>
+      <c r="D30">
+        <v>185</v>
+      </c>
+      <c r="E30">
+        <v>364</v>
+      </c>
+      <c r="F30">
+        <v>229</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="Q30">
+        <v>64.617999999999995</v>
+      </c>
+      <c r="R30">
+        <v>85.253</v>
+      </c>
+      <c r="S30">
+        <v>71.936999999999998</v>
+      </c>
+      <c r="T30">
+        <v>47.609000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>64.617999999999995</v>
+      </c>
+      <c r="D31">
+        <v>85.253</v>
+      </c>
+      <c r="E31">
+        <v>71.936999999999998</v>
+      </c>
+      <c r="F31">
+        <v>47.609000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A9FFEC-73A8-4D4F-94F7-7026AFE1C90E}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5952,32 +9971,32 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1208</v>
+        <v>910</v>
       </c>
       <c r="D1">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="E1">
-        <v>513</v>
+        <v>243</v>
       </c>
       <c r="F1">
-        <v>484</v>
+        <v>571</v>
       </c>
       <c r="G1">
         <f>C3</f>
-        <v>88.411000000000001</v>
+        <v>77.143000000000001</v>
       </c>
       <c r="H1">
         <f t="shared" ref="H1:J1" si="0">D3</f>
-        <v>94.787000000000006</v>
+        <v>98.957999999999998</v>
       </c>
       <c r="I1">
         <f t="shared" si="0"/>
-        <v>89.864000000000004</v>
+        <v>85.596999999999994</v>
       </c>
       <c r="J1">
         <f t="shared" si="0"/>
-        <v>84.090999999999994</v>
+        <v>69.876999999999995</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5988,32 +10007,32 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1068</v>
+        <v>702</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>461</v>
+        <v>208</v>
       </c>
       <c r="F2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G2">
         <f>C6</f>
-        <v>90.448999999999998</v>
+        <v>77.192999999999998</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:J2" si="1">D6</f>
-        <v>96.512</v>
+        <v>95.575000000000003</v>
       </c>
       <c r="I2">
         <f t="shared" si="1"/>
-        <v>93.11</v>
+        <v>89.090999999999994</v>
       </c>
       <c r="J2">
         <f t="shared" si="1"/>
-        <v>85.878</v>
+        <v>69.084999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -6024,32 +10043,32 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>88.411000000000001</v>
+        <v>77.143000000000001</v>
       </c>
       <c r="D3">
-        <v>94.787000000000006</v>
+        <v>98.957999999999998</v>
       </c>
       <c r="E3">
-        <v>89.864000000000004</v>
+        <v>85.596999999999994</v>
       </c>
       <c r="F3">
-        <v>84.090999999999994</v>
+        <v>69.876999999999995</v>
       </c>
       <c r="G3">
         <f>C9</f>
-        <v>83.305999999999997</v>
+        <v>78.727999999999994</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:J3" si="2">D9</f>
-        <v>97.129000000000005</v>
+        <v>91.379000000000005</v>
       </c>
       <c r="I3">
         <f t="shared" si="2"/>
-        <v>88.775999999999996</v>
+        <v>91.093000000000004</v>
       </c>
       <c r="J3">
         <f t="shared" si="2"/>
-        <v>72.277000000000001</v>
+        <v>70.492000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -6060,32 +10079,32 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1204</v>
+        <v>912</v>
       </c>
       <c r="D4">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="E4">
-        <v>508</v>
+        <v>220</v>
       </c>
       <c r="F4">
-        <v>524</v>
+        <v>579</v>
       </c>
       <c r="G4">
         <f>C12</f>
-        <v>90.033000000000001</v>
+        <v>77.850999999999999</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:J4" si="3">D12</f>
-        <v>98.617999999999995</v>
+        <v>96.774000000000001</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>94.191000000000003</v>
+        <v>85.525999999999996</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>82.376000000000005</v>
+        <v>71.912000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6096,32 +10115,32 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1089</v>
+        <v>704</v>
       </c>
       <c r="D5">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>473</v>
+        <v>196</v>
       </c>
       <c r="F5">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G5">
         <f>C15</f>
-        <v>84.884</v>
+        <v>75.328999999999994</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:J5" si="4">D15</f>
-        <v>96.313000000000002</v>
+        <v>96</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
-        <v>89.328000000000003</v>
+        <v>84.581000000000003</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>75.052000000000007</v>
+        <v>68.204999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -6132,32 +10151,32 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>90.448999999999998</v>
+        <v>77.192999999999998</v>
       </c>
       <c r="D6">
-        <v>96.512</v>
+        <v>95.575000000000003</v>
       </c>
       <c r="E6">
-        <v>93.11</v>
+        <v>89.090999999999994</v>
       </c>
       <c r="F6">
-        <v>85.878</v>
+        <v>69.084999999999994</v>
       </c>
       <c r="G6" s="8">
         <f>AVERAGE(G1:G5)</f>
-        <v>87.416600000000003</v>
+        <v>77.248800000000003</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
-        <v>96.67179999999999</v>
+        <v>95.737200000000001</v>
       </c>
       <c r="I6" s="8">
         <f t="shared" si="5"/>
-        <v>91.053799999999995</v>
+        <v>87.177600000000012</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" si="5"/>
-        <v>79.934799999999996</v>
+        <v>69.914199999999994</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6168,28 +10187,28 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>1204</v>
+        <v>912</v>
       </c>
       <c r="D7">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="E7">
-        <v>490</v>
+        <v>247</v>
       </c>
       <c r="F7">
-        <v>505</v>
-      </c>
-      <c r="G7">
-        <v>2.84</v>
-      </c>
-      <c r="H7">
-        <v>1.24</v>
-      </c>
-      <c r="I7">
-        <v>2.17</v>
-      </c>
-      <c r="J7">
-        <v>5.31</v>
+        <v>549</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1.26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -6200,16 +10219,16 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>1003</v>
+        <v>718</v>
       </c>
       <c r="D8">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="E8">
-        <v>435</v>
+        <v>225</v>
       </c>
       <c r="F8">
-        <v>365</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6220,16 +10239,16 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>83.305999999999997</v>
+        <v>78.727999999999994</v>
       </c>
       <c r="D9">
-        <v>97.129000000000005</v>
+        <v>91.379000000000005</v>
       </c>
       <c r="E9">
-        <v>88.775999999999996</v>
+        <v>91.093000000000004</v>
       </c>
       <c r="F9">
-        <v>72.277000000000001</v>
+        <v>70.492000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -6240,16 +10259,16 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1204</v>
+        <v>912</v>
       </c>
       <c r="D10">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="E10">
-        <v>482</v>
+        <v>228</v>
       </c>
       <c r="F10">
-        <v>505</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -6260,16 +10279,16 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>1084</v>
+        <v>710</v>
       </c>
       <c r="D11">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="E11">
-        <v>454</v>
+        <v>195</v>
       </c>
       <c r="F11">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6280,16 +10299,16 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>90.033000000000001</v>
+        <v>77.850999999999999</v>
       </c>
       <c r="D12">
-        <v>98.617999999999995</v>
+        <v>96.774000000000001</v>
       </c>
       <c r="E12">
-        <v>94.191000000000003</v>
+        <v>85.525999999999996</v>
       </c>
       <c r="F12">
-        <v>82.376000000000005</v>
+        <v>71.912000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -6300,16 +10319,16 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>1204</v>
+        <v>912</v>
       </c>
       <c r="D13">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>506</v>
+        <v>227</v>
       </c>
       <c r="F13">
-        <v>481</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -6320,16 +10339,16 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>1022</v>
+        <v>687</v>
       </c>
       <c r="D14">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="E14">
-        <v>452</v>
+        <v>192</v>
       </c>
       <c r="F14">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -6340,16 +10359,16 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>84.884</v>
+        <v>75.328999999999994</v>
       </c>
       <c r="D15">
-        <v>96.313000000000002</v>
+        <v>96</v>
       </c>
       <c r="E15">
-        <v>89.328000000000003</v>
+        <v>84.581000000000003</v>
       </c>
       <c r="F15">
-        <v>75.052000000000007</v>
+        <v>68.204999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -6360,32 +10379,32 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1208</v>
+        <v>910</v>
       </c>
       <c r="D17">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="E17">
-        <v>513</v>
+        <v>243</v>
       </c>
       <c r="F17">
-        <v>484</v>
+        <v>571</v>
       </c>
       <c r="G17">
         <f>C19</f>
-        <v>86.174999999999997</v>
+        <v>76.373999999999995</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:J17" si="6">D19</f>
-        <v>92.417000000000002</v>
+        <v>96.875</v>
       </c>
       <c r="I17">
         <f t="shared" si="6"/>
-        <v>87.718999999999994</v>
+        <v>84.361999999999995</v>
       </c>
       <c r="J17">
         <f t="shared" si="6"/>
-        <v>81.817999999999998</v>
+        <v>69.527000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -6396,32 +10415,32 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1041</v>
+        <v>695</v>
       </c>
       <c r="D18">
-        <v>195</v>
+        <v>93</v>
       </c>
       <c r="E18">
-        <v>450</v>
+        <v>205</v>
       </c>
       <c r="F18">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G18">
         <f>C22</f>
-        <v>85.962999999999994</v>
+        <v>75.768000000000001</v>
       </c>
       <c r="H18">
         <f t="shared" ref="H18:J18" si="7">D22</f>
-        <v>93.022999999999996</v>
+        <v>93.805000000000007</v>
       </c>
       <c r="I18">
         <f t="shared" si="7"/>
-        <v>89.173000000000002</v>
+        <v>89.090999999999994</v>
       </c>
       <c r="J18">
         <f t="shared" si="7"/>
-        <v>80.534000000000006</v>
+        <v>67.185000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -6432,32 +10451,32 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>86.174999999999997</v>
+        <v>76.373999999999995</v>
       </c>
       <c r="D19">
-        <v>92.417000000000002</v>
+        <v>96.875</v>
       </c>
       <c r="E19">
-        <v>87.718999999999994</v>
+        <v>84.361999999999995</v>
       </c>
       <c r="F19">
-        <v>81.817999999999998</v>
+        <v>69.527000000000001</v>
       </c>
       <c r="G19">
         <f>C25</f>
-        <v>87.707999999999998</v>
+        <v>78.069999999999993</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19:J19" si="8">D25</f>
-        <v>97.129000000000005</v>
+        <v>92.241</v>
       </c>
       <c r="I19">
         <f t="shared" si="8"/>
-        <v>91.632999999999996</v>
+        <v>88.664000000000001</v>
       </c>
       <c r="J19">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>70.31</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -6468,32 +10487,32 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1204</v>
+        <v>912</v>
       </c>
       <c r="D20">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="E20">
-        <v>508</v>
+        <v>220</v>
       </c>
       <c r="F20">
-        <v>524</v>
+        <v>579</v>
       </c>
       <c r="G20">
         <f>C28</f>
-        <v>86.046999999999997</v>
+        <v>80.153999999999996</v>
       </c>
       <c r="H20">
         <f t="shared" ref="H20:J20" si="9">D28</f>
-        <v>94.930999999999997</v>
+        <v>97.849000000000004</v>
       </c>
       <c r="I20">
         <f t="shared" si="9"/>
-        <v>90.040999999999997</v>
+        <v>89.912000000000006</v>
       </c>
       <c r="J20">
         <f t="shared" si="9"/>
-        <v>78.415999999999997</v>
+        <v>73.603999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -6504,32 +10523,32 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1035</v>
+        <v>691</v>
       </c>
       <c r="D21">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="E21">
-        <v>453</v>
+        <v>196</v>
       </c>
       <c r="F21">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="G21">
         <f>C31</f>
-        <v>86.876999999999995</v>
+        <v>76.754000000000005</v>
       </c>
       <c r="H21">
         <f t="shared" ref="H21:J21" si="10">D31</f>
-        <v>95.391999999999996</v>
+        <v>96</v>
       </c>
       <c r="I21">
         <f t="shared" si="10"/>
-        <v>90.316000000000003</v>
+        <v>87.224999999999994</v>
       </c>
       <c r="J21">
         <f t="shared" si="10"/>
-        <v>79.418000000000006</v>
+        <v>69.402000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -6540,32 +10559,32 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>85.962999999999994</v>
+        <v>75.768000000000001</v>
       </c>
       <c r="D22">
-        <v>93.022999999999996</v>
+        <v>93.805000000000007</v>
       </c>
       <c r="E22">
-        <v>89.173000000000002</v>
+        <v>89.090999999999994</v>
       </c>
       <c r="F22">
-        <v>80.534000000000006</v>
+        <v>67.185000000000002</v>
       </c>
       <c r="G22" s="8">
         <f>AVERAGE(G17:G21)</f>
-        <v>86.554000000000002</v>
+        <v>77.424000000000007</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" ref="H22:J22" si="11">AVERAGE(H17:H21)</f>
-        <v>94.578400000000002</v>
+        <v>95.353999999999999</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="11"/>
-        <v>89.776399999999995</v>
+        <v>87.850800000000007</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" si="11"/>
-        <v>80.037200000000013</v>
+        <v>70.005599999999987</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -6576,28 +10595,28 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>1204</v>
+        <v>912</v>
       </c>
       <c r="D23">
-        <v>209</v>
+        <v>116</v>
       </c>
       <c r="E23">
-        <v>490</v>
+        <v>247</v>
       </c>
       <c r="F23">
-        <v>505</v>
+        <v>549</v>
       </c>
       <c r="G23" s="9">
-        <v>0.66</v>
+        <v>1.56</v>
       </c>
       <c r="H23" s="9">
-        <v>1.7</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I23" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="J23" s="9">
-        <v>1.1299999999999999</v>
+        <v>1.95</v>
+      </c>
+      <c r="J23" s="8">
+        <v>2.08</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -6608,16 +10627,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>1056</v>
+        <v>712</v>
       </c>
       <c r="D24">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="E24">
-        <v>449</v>
+        <v>219</v>
       </c>
       <c r="F24">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -6628,16 +10647,16 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>87.707999999999998</v>
+        <v>78.069999999999993</v>
       </c>
       <c r="D25">
-        <v>97.129000000000005</v>
+        <v>92.241</v>
       </c>
       <c r="E25">
-        <v>91.632999999999996</v>
+        <v>88.664000000000001</v>
       </c>
       <c r="F25">
-        <v>80</v>
+        <v>70.31</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -6648,16 +10667,16 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>1204</v>
+        <v>912</v>
       </c>
       <c r="D26">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="E26">
-        <v>482</v>
+        <v>228</v>
       </c>
       <c r="F26">
-        <v>505</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -6668,16 +10687,16 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>1036</v>
+        <v>731</v>
       </c>
       <c r="D27">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="E27">
-        <v>434</v>
+        <v>205</v>
       </c>
       <c r="F27">
-        <v>396</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -6688,16 +10707,16 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>86.046999999999997</v>
+        <v>80.153999999999996</v>
       </c>
       <c r="D28">
-        <v>94.930999999999997</v>
+        <v>97.849000000000004</v>
       </c>
       <c r="E28">
-        <v>90.040999999999997</v>
+        <v>89.912000000000006</v>
       </c>
       <c r="F28">
-        <v>78.415999999999997</v>
+        <v>73.603999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -6708,16 +10727,16 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>1204</v>
+        <v>912</v>
       </c>
       <c r="D29">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>506</v>
+        <v>227</v>
       </c>
       <c r="F29">
-        <v>481</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -6728,16 +10747,16 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>1046</v>
+        <v>700</v>
       </c>
       <c r="D30">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="E30">
-        <v>457</v>
+        <v>198</v>
       </c>
       <c r="F30">
-        <v>382</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -6748,141 +10767,20 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>86.876999999999995</v>
+        <v>76.754000000000005</v>
       </c>
       <c r="D31">
-        <v>95.391999999999996</v>
+        <v>96</v>
       </c>
       <c r="E31">
-        <v>90.316000000000003</v>
+        <v>87.224999999999994</v>
       </c>
       <c r="F31">
-        <v>79.418000000000006</v>
+        <v>69.402000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63161854-79E1-4D59-BACB-BA1A63A5651F}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>4558</v>
-      </c>
-      <c r="C2">
-        <v>518</v>
-      </c>
-      <c r="D2">
-        <v>1165</v>
-      </c>
-      <c r="E2">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>1316</v>
-      </c>
-      <c r="C3">
-        <v>288</v>
-      </c>
-      <c r="D3">
-        <v>416</v>
-      </c>
-      <c r="E3">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>28.872</v>
-      </c>
-      <c r="C4">
-        <v>55.597999999999999</v>
-      </c>
-      <c r="D4">
-        <v>35.707999999999998</v>
-      </c>
-      <c r="E4">
-        <v>21.286999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>4558</v>
-      </c>
-      <c r="C5">
-        <v>518</v>
-      </c>
-      <c r="D5">
-        <v>1165</v>
-      </c>
-      <c r="E5">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>3262</v>
-      </c>
-      <c r="C6">
-        <v>495</v>
-      </c>
-      <c r="D6">
-        <v>962</v>
-      </c>
-      <c r="E6">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>71.566000000000003</v>
-      </c>
-      <c r="C7">
-        <v>95.56</v>
-      </c>
-      <c r="D7">
-        <v>82.575000000000003</v>
-      </c>
-      <c r="E7">
-        <v>62.783000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stat.xlsx
+++ b/stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulugbek\PycharmProjects\LetterCubicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9391BC-E24A-4D02-9CDE-5EE04FCC6E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E312BD-52CA-44E7-8874-EDA279D69C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
   </bookViews>
@@ -8576,7 +8576,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F31"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\LetterCubicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B36D7C1-4C23-4FD7-B998-569C0D40E7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DCB889-1CEF-4013-A026-0158AB53826E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
   </bookViews>
   <sheets>
     <sheet name="uz" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t xml:space="preserve"># </t>
   </si>
@@ -155,29 +155,15 @@
   <si>
     <t>avg</t>
   </si>
-  <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.42</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -243,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -263,10 +249,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3189,8 +3178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA2341E-E866-43A2-911D-AC37F482C321}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" activeCellId="4" sqref="C7 C10 C13 C4 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3592,19 +3581,19 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16">
+      <c r="C16" s="8">
         <f t="shared" ref="C16" si="5">AVERAGE(C3,C6,C9,C12,C15)</f>
         <v>88.899000000000001</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <f t="shared" ref="D16" si="6">AVERAGE(D3,D6,D9,D12,D15)</f>
         <v>99.406399999999991</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <f t="shared" ref="E16" si="7">AVERAGE(E3,E6,E9,E12,E15)</f>
         <v>95.134200000000007</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="8">
         <f t="shared" ref="F16" si="8">AVERAGE(F3,F6,F9,F12,F15)</f>
         <v>84.459400000000002</v>
       </c>
@@ -3842,6 +3831,10 @@
       <c r="F23">
         <v>549</v>
       </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -4004,19 +3997,19 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C32">
+      <c r="C32" s="8">
         <f t="shared" ref="C32" si="14">AVERAGE(C19,C22,C25,C28,C31)</f>
         <v>95.940200000000004</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="8">
         <f t="shared" ref="D32" si="15">AVERAGE(D19,D22,D25,D28,D31)</f>
         <v>99.446799999999996</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="8">
         <f t="shared" ref="E32" si="16">AVERAGE(E19,E22,E25,E28,E31)</f>
         <v>98.122600000000006</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="8">
         <f t="shared" ref="F32" si="17">AVERAGE(F19,F22,F25,F28,F31)</f>
         <v>94.444400000000002</v>
       </c>
@@ -4031,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6981B89-5433-4A4B-84D8-726093473F0F}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4268,6 +4261,10 @@
       <c r="F7">
         <v>505</v>
       </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -4288,6 +4285,10 @@
       <c r="F8">
         <v>449</v>
       </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -4646,8 +4647,8 @@
       <c r="F22">
         <v>95.037999999999997</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>37</v>
+      <c r="G22" s="13">
+        <v>0.42</v>
       </c>
       <c r="H22" s="9">
         <v>0.53</v>
@@ -4678,6 +4679,18 @@
       <c r="F23">
         <v>505</v>
       </c>
+      <c r="G23" s="15">
+        <v>96.779399999999995</v>
+      </c>
+      <c r="H23" s="15">
+        <v>99.130799999999994</v>
+      </c>
+      <c r="I23" s="15">
+        <v>97.843400000000003</v>
+      </c>
+      <c r="J23" s="15">
+        <v>94.747</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -4697,6 +4710,18 @@
       </c>
       <c r="F24">
         <v>489</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0.53</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0.26</v>
+      </c>
+      <c r="J24" s="15">
+        <v>1.23</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4866,8 +4891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A9FFEC-73A8-4D4F-94F7-7026AFE1C90E}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD64"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4896,7 +4921,7 @@
         <v>77.143000000000001</v>
       </c>
       <c r="H1">
-        <f t="shared" ref="H1:K1" si="0">D3</f>
+        <f t="shared" ref="H1:J1" si="0">D3</f>
         <v>98.957999999999998</v>
       </c>
       <c r="I1">
@@ -5071,19 +5096,19 @@
       <c r="F6">
         <v>69.084999999999994</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="16">
         <f>AVERAGE(G1:G5)</f>
         <v>77.248800000000003</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="16">
         <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
         <v>95.737200000000001</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="16">
         <f t="shared" si="5"/>
         <v>87.177600000000012</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="16">
         <f t="shared" si="5"/>
         <v>69.914199999999994</v>
       </c>
@@ -5107,16 +5132,16 @@
       <c r="F7">
         <v>549</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="17">
         <v>1.1200000000000001</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="17">
         <v>2.4700000000000002</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="17">
         <v>2.4900000000000002</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="17">
         <v>1.26</v>
       </c>
     </row>
@@ -5479,19 +5504,19 @@
       <c r="F22">
         <v>67.185000000000002</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="16">
         <f>AVERAGE(G17:G21)</f>
         <v>77.424000000000007</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="16">
         <f t="shared" ref="H22:J22" si="11">AVERAGE(H17:H21)</f>
         <v>95.353999999999999</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="16">
         <f t="shared" si="11"/>
         <v>87.850800000000007</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="16">
         <f t="shared" si="11"/>
         <v>70.005599999999987</v>
       </c>
@@ -5515,16 +5540,16 @@
       <c r="F23">
         <v>549</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="17">
         <v>1.56</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="17">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="16">
         <v>1.95</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="16">
         <v>2.08</v>
       </c>
     </row>
@@ -5698,8 +5723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F114FA6-C604-4621-8026-B722E31EC2F7}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" activeCellId="4" sqref="C1 C4 C7 C10 C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5903,19 +5928,19 @@
       <c r="F6">
         <v>85.878</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="16">
         <f>AVERAGE(G1:G5)</f>
         <v>87.416600000000003</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="16">
         <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
         <v>96.67179999999999</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="16">
         <f t="shared" si="5"/>
         <v>91.053799999999995</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="16">
         <f t="shared" si="5"/>
         <v>79.934799999999996</v>
       </c>
@@ -5939,16 +5964,16 @@
       <c r="F7">
         <v>505</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="15">
         <v>2.84</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="15">
         <v>1.24</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="15">
         <v>2.17</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="15">
         <v>5.31</v>
       </c>
     </row>
@@ -6311,19 +6336,19 @@
       <c r="F22">
         <v>80.534000000000006</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="16">
         <f>AVERAGE(G17:G21)</f>
         <v>86.554000000000002</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="16">
         <f t="shared" ref="H22:J22" si="11">AVERAGE(H17:H21)</f>
         <v>94.578400000000002</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="16">
         <f t="shared" si="11"/>
         <v>89.776399999999995</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="16">
         <f t="shared" si="11"/>
         <v>80.037200000000013</v>
       </c>
@@ -6347,16 +6372,16 @@
       <c r="F23">
         <v>505</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="17">
         <v>0.66</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="17">
         <v>1.7</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="16">
         <v>1.3</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="17">
         <v>1.1299999999999999</v>
       </c>
     </row>
@@ -6620,11 +6645,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="8">
         <f>AVERAGE(D2:D6)</f>
         <v>88.881</v>

--- a/stat.xlsx
+++ b/stat.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\LetterCubicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DCB889-1CEF-4013-A026-0158AB53826E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BE2E60-1EA0-46AA-BA1D-04A4B89300E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
   </bookViews>
   <sheets>
     <sheet name="uz" sheetId="1" r:id="rId1"/>
     <sheet name="en" sheetId="2" r:id="rId2"/>
     <sheet name="chart" sheetId="3" r:id="rId3"/>
-    <sheet name="vovel stat" sheetId="4" r:id="rId4"/>
-    <sheet name="5-fold CV last uz 8" sheetId="8" r:id="rId5"/>
-    <sheet name="5-fold CV last en 8" sheetId="7" r:id="rId6"/>
-    <sheet name="uz 7" sheetId="10" r:id="rId7"/>
-    <sheet name="en 7" sheetId="11" r:id="rId8"/>
-    <sheet name="what is statistical significace" sheetId="9" r:id="rId9"/>
+    <sheet name="5-fold CV last uz 8" sheetId="8" r:id="rId4"/>
+    <sheet name="5-fold CV last en 8" sheetId="7" r:id="rId5"/>
+    <sheet name="5-fold CV ru 8" sheetId="12" r:id="rId6"/>
+    <sheet name="ru_7" sheetId="13" r:id="rId7"/>
+    <sheet name="ru_6" sheetId="14" r:id="rId8"/>
+    <sheet name="ru_5" sheetId="15" r:id="rId9"/>
+    <sheet name="uz 7" sheetId="10" r:id="rId10"/>
+    <sheet name="en 7" sheetId="11" r:id="rId11"/>
+    <sheet name="what is statistical significace" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="11">
   <si>
     <t xml:space="preserve"># </t>
   </si>
@@ -58,84 +60,6 @@
   </si>
   <si>
     <t>desc_soft</t>
-  </si>
-  <si>
-    <t>5 letter words</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>portion %</t>
-  </si>
-  <si>
-    <t>#*#*#</t>
-  </si>
-  <si>
-    <t>#*##*</t>
-  </si>
-  <si>
-    <t>*##*#</t>
-  </si>
-  <si>
-    <t>*#*#*</t>
-  </si>
-  <si>
-    <t>##*##</t>
-  </si>
-  <si>
-    <t>*###*</t>
-  </si>
-  <si>
-    <t>*#*##</t>
-  </si>
-  <si>
-    <t>##*#*</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>5 letter total =2875 </t>
-  </si>
-  <si>
-    <t>4 letter total = 1165</t>
-  </si>
-  <si>
-    <t>3 letter total = 518</t>
-  </si>
-  <si>
-    <t>4 letter words</t>
-  </si>
-  <si>
-    <t>#*##</t>
-  </si>
-  <si>
-    <t>#*#*</t>
-  </si>
-  <si>
-    <t>*#*#</t>
-  </si>
-  <si>
-    <t>*##*</t>
-  </si>
-  <si>
-    <t>##*#</t>
-  </si>
-  <si>
-    <t>#**#</t>
-  </si>
-  <si>
-    <t>3 letter words</t>
-  </si>
-  <si>
-    <t>#*#</t>
-  </si>
-  <si>
-    <t>*##</t>
-  </si>
-  <si>
-    <t>*#*</t>
   </si>
   <si>
     <t>uz</t>
@@ -160,12 +84,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,12 +110,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -229,7 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -239,23 +156,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2392,6 +2306,1782 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A9FFEC-73A8-4D4F-94F7-7026AFE1C90E}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>910</v>
+      </c>
+      <c r="D1">
+        <v>96</v>
+      </c>
+      <c r="E1">
+        <v>243</v>
+      </c>
+      <c r="F1">
+        <v>571</v>
+      </c>
+      <c r="G1">
+        <f>C3</f>
+        <v>77.143000000000001</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ref="H1:J1" si="0">D3</f>
+        <v>98.957999999999998</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>85.596999999999994</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>69.876999999999995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>702</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <v>208</v>
+      </c>
+      <c r="F2">
+        <v>399</v>
+      </c>
+      <c r="G2">
+        <f>C6</f>
+        <v>77.192999999999998</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>95.575000000000003</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>89.090999999999994</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>69.084999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>77.143000000000001</v>
+      </c>
+      <c r="D3">
+        <v>98.957999999999998</v>
+      </c>
+      <c r="E3">
+        <v>85.596999999999994</v>
+      </c>
+      <c r="F3">
+        <v>69.876999999999995</v>
+      </c>
+      <c r="G3">
+        <f>C9</f>
+        <v>78.727999999999994</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>91.379000000000005</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>91.093000000000004</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>70.492000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>912</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>220</v>
+      </c>
+      <c r="F4">
+        <v>579</v>
+      </c>
+      <c r="G4">
+        <f>C12</f>
+        <v>77.850999999999999</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>96.774000000000001</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>85.525999999999996</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>71.912000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>704</v>
+      </c>
+      <c r="D5">
+        <v>108</v>
+      </c>
+      <c r="E5">
+        <v>196</v>
+      </c>
+      <c r="F5">
+        <v>400</v>
+      </c>
+      <c r="G5">
+        <f>C15</f>
+        <v>75.328999999999994</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>96</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>84.581000000000003</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>68.204999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>77.192999999999998</v>
+      </c>
+      <c r="D6">
+        <v>95.575000000000003</v>
+      </c>
+      <c r="E6">
+        <v>89.090999999999994</v>
+      </c>
+      <c r="F6">
+        <v>69.084999999999994</v>
+      </c>
+      <c r="G6" s="12">
+        <f>AVERAGE(G1:G5)</f>
+        <v>77.248800000000003</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
+        <v>95.737200000000001</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="5"/>
+        <v>87.177600000000012</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="5"/>
+        <v>69.914199999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>912</v>
+      </c>
+      <c r="D7">
+        <v>116</v>
+      </c>
+      <c r="E7">
+        <v>247</v>
+      </c>
+      <c r="F7">
+        <v>549</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H7" s="13">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I7" s="13">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J7" s="13">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>718</v>
+      </c>
+      <c r="D8">
+        <v>106</v>
+      </c>
+      <c r="E8">
+        <v>225</v>
+      </c>
+      <c r="F8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>78.727999999999994</v>
+      </c>
+      <c r="D9">
+        <v>91.379000000000005</v>
+      </c>
+      <c r="E9">
+        <v>91.093000000000004</v>
+      </c>
+      <c r="F9">
+        <v>70.492000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>912</v>
+      </c>
+      <c r="D10">
+        <v>93</v>
+      </c>
+      <c r="E10">
+        <v>228</v>
+      </c>
+      <c r="F10">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>710</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>195</v>
+      </c>
+      <c r="F11">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>77.850999999999999</v>
+      </c>
+      <c r="D12">
+        <v>96.774000000000001</v>
+      </c>
+      <c r="E12">
+        <v>85.525999999999996</v>
+      </c>
+      <c r="F12">
+        <v>71.912000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>912</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>227</v>
+      </c>
+      <c r="F13">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>687</v>
+      </c>
+      <c r="D14">
+        <v>96</v>
+      </c>
+      <c r="E14">
+        <v>192</v>
+      </c>
+      <c r="F14">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>75.328999999999994</v>
+      </c>
+      <c r="D15">
+        <v>96</v>
+      </c>
+      <c r="E15">
+        <v>84.581000000000003</v>
+      </c>
+      <c r="F15">
+        <v>68.204999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>910</v>
+      </c>
+      <c r="D17">
+        <v>96</v>
+      </c>
+      <c r="E17">
+        <v>243</v>
+      </c>
+      <c r="F17">
+        <v>571</v>
+      </c>
+      <c r="G17">
+        <f>C19</f>
+        <v>76.373999999999995</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:J17" si="6">D19</f>
+        <v>96.875</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>84.361999999999995</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>69.527000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>695</v>
+      </c>
+      <c r="D18">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>205</v>
+      </c>
+      <c r="F18">
+        <v>397</v>
+      </c>
+      <c r="G18">
+        <f>C22</f>
+        <v>75.768000000000001</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:J18" si="7">D22</f>
+        <v>93.805000000000007</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>89.090999999999994</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>67.185000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>76.373999999999995</v>
+      </c>
+      <c r="D19">
+        <v>96.875</v>
+      </c>
+      <c r="E19">
+        <v>84.361999999999995</v>
+      </c>
+      <c r="F19">
+        <v>69.527000000000001</v>
+      </c>
+      <c r="G19">
+        <f>C25</f>
+        <v>78.069999999999993</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:J19" si="8">D25</f>
+        <v>92.241</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>88.664000000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>70.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>912</v>
+      </c>
+      <c r="D20">
+        <v>113</v>
+      </c>
+      <c r="E20">
+        <v>220</v>
+      </c>
+      <c r="F20">
+        <v>579</v>
+      </c>
+      <c r="G20">
+        <f>C28</f>
+        <v>80.153999999999996</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J20" si="9">D28</f>
+        <v>97.849000000000004</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>89.912000000000006</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>73.603999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>691</v>
+      </c>
+      <c r="D21">
+        <v>106</v>
+      </c>
+      <c r="E21">
+        <v>196</v>
+      </c>
+      <c r="F21">
+        <v>389</v>
+      </c>
+      <c r="G21">
+        <f>C31</f>
+        <v>76.754000000000005</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:J21" si="10">D31</f>
+        <v>96</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>87.224999999999994</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>69.402000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>75.768000000000001</v>
+      </c>
+      <c r="D22">
+        <v>93.805000000000007</v>
+      </c>
+      <c r="E22">
+        <v>89.090999999999994</v>
+      </c>
+      <c r="F22">
+        <v>67.185000000000002</v>
+      </c>
+      <c r="G22" s="12">
+        <f>AVERAGE(G17:G21)</f>
+        <v>77.424000000000007</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" ref="H22:J22" si="11">AVERAGE(H17:H21)</f>
+        <v>95.353999999999999</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="11"/>
+        <v>87.850800000000007</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="11"/>
+        <v>70.005599999999987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>912</v>
+      </c>
+      <c r="D23">
+        <v>116</v>
+      </c>
+      <c r="E23">
+        <v>247</v>
+      </c>
+      <c r="F23">
+        <v>549</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1.56</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1.95</v>
+      </c>
+      <c r="J23" s="12">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>712</v>
+      </c>
+      <c r="D24">
+        <v>107</v>
+      </c>
+      <c r="E24">
+        <v>219</v>
+      </c>
+      <c r="F24">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>78.069999999999993</v>
+      </c>
+      <c r="D25">
+        <v>92.241</v>
+      </c>
+      <c r="E25">
+        <v>88.664000000000001</v>
+      </c>
+      <c r="F25">
+        <v>70.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>912</v>
+      </c>
+      <c r="D26">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>228</v>
+      </c>
+      <c r="F26">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>731</v>
+      </c>
+      <c r="D27">
+        <v>91</v>
+      </c>
+      <c r="E27">
+        <v>205</v>
+      </c>
+      <c r="F27">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>80.153999999999996</v>
+      </c>
+      <c r="D28">
+        <v>97.849000000000004</v>
+      </c>
+      <c r="E28">
+        <v>89.912000000000006</v>
+      </c>
+      <c r="F28">
+        <v>73.603999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>912</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>227</v>
+      </c>
+      <c r="F29">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>700</v>
+      </c>
+      <c r="D30">
+        <v>96</v>
+      </c>
+      <c r="E30">
+        <v>198</v>
+      </c>
+      <c r="F30">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>76.754000000000005</v>
+      </c>
+      <c r="D31">
+        <v>96</v>
+      </c>
+      <c r="E31">
+        <v>87.224999999999994</v>
+      </c>
+      <c r="F31">
+        <v>69.402000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F114FA6-C604-4621-8026-B722E31EC2F7}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" activeCellId="4" sqref="C1 C4 C7 C10 C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1208</v>
+      </c>
+      <c r="D1">
+        <v>211</v>
+      </c>
+      <c r="E1">
+        <v>513</v>
+      </c>
+      <c r="F1">
+        <v>484</v>
+      </c>
+      <c r="G1">
+        <f>C3</f>
+        <v>88.411000000000001</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ref="H1:J1" si="0">D3</f>
+        <v>94.787000000000006</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>89.864000000000004</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>84.090999999999994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1068</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>461</v>
+      </c>
+      <c r="F2">
+        <v>407</v>
+      </c>
+      <c r="G2">
+        <f>C6</f>
+        <v>90.448999999999998</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>96.512</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>93.11</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>85.878</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>88.411000000000001</v>
+      </c>
+      <c r="D3">
+        <v>94.787000000000006</v>
+      </c>
+      <c r="E3">
+        <v>89.864000000000004</v>
+      </c>
+      <c r="F3">
+        <v>84.090999999999994</v>
+      </c>
+      <c r="G3">
+        <f>C9</f>
+        <v>83.305999999999997</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>97.129000000000005</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>88.775999999999996</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>72.277000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1204</v>
+      </c>
+      <c r="D4">
+        <v>172</v>
+      </c>
+      <c r="E4">
+        <v>508</v>
+      </c>
+      <c r="F4">
+        <v>524</v>
+      </c>
+      <c r="G4">
+        <f>C12</f>
+        <v>90.033000000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>98.617999999999995</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>94.191000000000003</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>82.376000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1089</v>
+      </c>
+      <c r="D5">
+        <v>166</v>
+      </c>
+      <c r="E5">
+        <v>473</v>
+      </c>
+      <c r="F5">
+        <v>450</v>
+      </c>
+      <c r="G5">
+        <f>C15</f>
+        <v>84.884</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>96.313000000000002</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>89.328000000000003</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>75.052000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>90.448999999999998</v>
+      </c>
+      <c r="D6">
+        <v>96.512</v>
+      </c>
+      <c r="E6">
+        <v>93.11</v>
+      </c>
+      <c r="F6">
+        <v>85.878</v>
+      </c>
+      <c r="G6" s="12">
+        <f>AVERAGE(G1:G5)</f>
+        <v>87.416600000000003</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
+        <v>96.67179999999999</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="5"/>
+        <v>91.053799999999995</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="5"/>
+        <v>79.934799999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1204</v>
+      </c>
+      <c r="D7">
+        <v>209</v>
+      </c>
+      <c r="E7">
+        <v>490</v>
+      </c>
+      <c r="F7">
+        <v>505</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2.84</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1.24</v>
+      </c>
+      <c r="I7" s="11">
+        <v>2.17</v>
+      </c>
+      <c r="J7" s="11">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1003</v>
+      </c>
+      <c r="D8">
+        <v>203</v>
+      </c>
+      <c r="E8">
+        <v>435</v>
+      </c>
+      <c r="F8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>83.305999999999997</v>
+      </c>
+      <c r="D9">
+        <v>97.129000000000005</v>
+      </c>
+      <c r="E9">
+        <v>88.775999999999996</v>
+      </c>
+      <c r="F9">
+        <v>72.277000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1204</v>
+      </c>
+      <c r="D10">
+        <v>217</v>
+      </c>
+      <c r="E10">
+        <v>482</v>
+      </c>
+      <c r="F10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1084</v>
+      </c>
+      <c r="D11">
+        <v>214</v>
+      </c>
+      <c r="E11">
+        <v>454</v>
+      </c>
+      <c r="F11">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>90.033000000000001</v>
+      </c>
+      <c r="D12">
+        <v>98.617999999999995</v>
+      </c>
+      <c r="E12">
+        <v>94.191000000000003</v>
+      </c>
+      <c r="F12">
+        <v>82.376000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1204</v>
+      </c>
+      <c r="D13">
+        <v>217</v>
+      </c>
+      <c r="E13">
+        <v>506</v>
+      </c>
+      <c r="F13">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1022</v>
+      </c>
+      <c r="D14">
+        <v>209</v>
+      </c>
+      <c r="E14">
+        <v>452</v>
+      </c>
+      <c r="F14">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>84.884</v>
+      </c>
+      <c r="D15">
+        <v>96.313000000000002</v>
+      </c>
+      <c r="E15">
+        <v>89.328000000000003</v>
+      </c>
+      <c r="F15">
+        <v>75.052000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1208</v>
+      </c>
+      <c r="D17">
+        <v>211</v>
+      </c>
+      <c r="E17">
+        <v>513</v>
+      </c>
+      <c r="F17">
+        <v>484</v>
+      </c>
+      <c r="G17">
+        <f>C19</f>
+        <v>86.174999999999997</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:J17" si="6">D19</f>
+        <v>92.417000000000002</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>87.718999999999994</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>81.817999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1041</v>
+      </c>
+      <c r="D18">
+        <v>195</v>
+      </c>
+      <c r="E18">
+        <v>450</v>
+      </c>
+      <c r="F18">
+        <v>396</v>
+      </c>
+      <c r="G18">
+        <f>C22</f>
+        <v>85.962999999999994</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:J18" si="7">D22</f>
+        <v>93.022999999999996</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>89.173000000000002</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>80.534000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>86.174999999999997</v>
+      </c>
+      <c r="D19">
+        <v>92.417000000000002</v>
+      </c>
+      <c r="E19">
+        <v>87.718999999999994</v>
+      </c>
+      <c r="F19">
+        <v>81.817999999999998</v>
+      </c>
+      <c r="G19">
+        <f>C25</f>
+        <v>87.707999999999998</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:J19" si="8">D25</f>
+        <v>97.129000000000005</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>91.632999999999996</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1204</v>
+      </c>
+      <c r="D20">
+        <v>172</v>
+      </c>
+      <c r="E20">
+        <v>508</v>
+      </c>
+      <c r="F20">
+        <v>524</v>
+      </c>
+      <c r="G20">
+        <f>C28</f>
+        <v>86.046999999999997</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J20" si="9">D28</f>
+        <v>94.930999999999997</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>90.040999999999997</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>78.415999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1035</v>
+      </c>
+      <c r="D21">
+        <v>160</v>
+      </c>
+      <c r="E21">
+        <v>453</v>
+      </c>
+      <c r="F21">
+        <v>422</v>
+      </c>
+      <c r="G21">
+        <f>C31</f>
+        <v>86.876999999999995</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:J21" si="10">D31</f>
+        <v>95.391999999999996</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>90.316000000000003</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>79.418000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>85.962999999999994</v>
+      </c>
+      <c r="D22">
+        <v>93.022999999999996</v>
+      </c>
+      <c r="E22">
+        <v>89.173000000000002</v>
+      </c>
+      <c r="F22">
+        <v>80.534000000000006</v>
+      </c>
+      <c r="G22" s="12">
+        <f>AVERAGE(G17:G21)</f>
+        <v>86.554000000000002</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" ref="H22:J22" si="11">AVERAGE(H17:H21)</f>
+        <v>94.578400000000002</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="11"/>
+        <v>89.776399999999995</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="11"/>
+        <v>80.037200000000013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1204</v>
+      </c>
+      <c r="D23">
+        <v>209</v>
+      </c>
+      <c r="E23">
+        <v>490</v>
+      </c>
+      <c r="F23">
+        <v>505</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1.7</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="J23" s="13">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1056</v>
+      </c>
+      <c r="D24">
+        <v>203</v>
+      </c>
+      <c r="E24">
+        <v>449</v>
+      </c>
+      <c r="F24">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>87.707999999999998</v>
+      </c>
+      <c r="D25">
+        <v>97.129000000000005</v>
+      </c>
+      <c r="E25">
+        <v>91.632999999999996</v>
+      </c>
+      <c r="F25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1204</v>
+      </c>
+      <c r="D26">
+        <v>217</v>
+      </c>
+      <c r="E26">
+        <v>482</v>
+      </c>
+      <c r="F26">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1036</v>
+      </c>
+      <c r="D27">
+        <v>206</v>
+      </c>
+      <c r="E27">
+        <v>434</v>
+      </c>
+      <c r="F27">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>86.046999999999997</v>
+      </c>
+      <c r="D28">
+        <v>94.930999999999997</v>
+      </c>
+      <c r="E28">
+        <v>90.040999999999997</v>
+      </c>
+      <c r="F28">
+        <v>78.415999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1204</v>
+      </c>
+      <c r="D29">
+        <v>217</v>
+      </c>
+      <c r="E29">
+        <v>506</v>
+      </c>
+      <c r="F29">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1046</v>
+      </c>
+      <c r="D30">
+        <v>207</v>
+      </c>
+      <c r="E30">
+        <v>457</v>
+      </c>
+      <c r="F30">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>86.876999999999995</v>
+      </c>
+      <c r="D31">
+        <v>95.391999999999996</v>
+      </c>
+      <c r="E31">
+        <v>90.316000000000003</v>
+      </c>
+      <c r="F31">
+        <v>79.418000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9E162C-0449-4ED3-9ABA-74E3D824EDE7}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>912</v>
+      </c>
+      <c r="C2">
+        <v>818</v>
+      </c>
+      <c r="D2">
+        <v>89.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>912</v>
+      </c>
+      <c r="C3">
+        <v>785</v>
+      </c>
+      <c r="D3">
+        <v>86.075000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>912</v>
+      </c>
+      <c r="C4">
+        <v>798</v>
+      </c>
+      <c r="D4">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>912</v>
+      </c>
+      <c r="C5">
+        <v>811</v>
+      </c>
+      <c r="D5">
+        <v>88.924999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>912</v>
+      </c>
+      <c r="C6">
+        <v>841</v>
+      </c>
+      <c r="D6">
+        <v>92.215000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="5">
+        <f>AVERAGE(D2:D6)</f>
+        <v>88.881</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A199716-0BF3-40B4-9C34-5315D9C6F674}">
   <dimension ref="A1:F17"/>
@@ -2463,7 +4153,7 @@
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>0.35299999999999998</v>
       </c>
       <c r="C4">
@@ -2483,7 +4173,7 @@
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>0.35299999999999998</v>
       </c>
       <c r="C5">
@@ -2543,7 +4233,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>0.70699999999999996</v>
       </c>
       <c r="C8">
@@ -2563,7 +4253,7 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>0.70699999999999996</v>
       </c>
       <c r="C9">
@@ -2583,7 +4273,7 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="5">
         <v>0.88300000000000001</v>
       </c>
       <c r="C10">
@@ -2623,7 +4313,7 @@
       <c r="A12">
         <v>7</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>0.88300000000000001</v>
       </c>
       <c r="C12">
@@ -2643,7 +4333,7 @@
       <c r="A13">
         <v>7</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="5">
         <v>0.88300000000000001</v>
       </c>
       <c r="C13">
@@ -2663,7 +4353,7 @@
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="5">
         <v>0.95399999999999996</v>
       </c>
       <c r="C14">
@@ -2859,7 +4549,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -2882,290 +4572,843 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0086F817-B0BC-49D3-A303-DFC2312F9E47}">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA2341E-E866-43A2-911D-AC37F482C321}">
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:K5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>910</v>
+      </c>
+      <c r="D1">
+        <v>96</v>
+      </c>
+      <c r="E1">
+        <v>243</v>
+      </c>
+      <c r="F1">
+        <v>571</v>
+      </c>
+      <c r="G1" s="1">
+        <f>C3</f>
+        <v>89.78</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" ref="H1:I1" si="0">D3</f>
+        <v>97.917000000000002</v>
+      </c>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
+        <v>96.707999999999998</v>
+      </c>
+      <c r="J1" s="1">
+        <f>F3</f>
+        <v>85.463999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1417</v>
-      </c>
-      <c r="C2" s="6">
-        <f>B2/2875</f>
-        <v>0.49286956521739128</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>817</v>
+      </c>
+      <c r="D2">
+        <v>94</v>
+      </c>
+      <c r="E2">
+        <v>235</v>
       </c>
       <c r="F2">
-        <v>351</v>
-      </c>
-      <c r="G2" s="6">
-        <f>F2/1165</f>
-        <v>0.3012875536480687</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2">
-        <v>416</v>
-      </c>
-      <c r="K2" s="6">
-        <f>J2/518</f>
-        <v>0.80308880308880304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
+        <v>488</v>
+      </c>
+      <c r="G2" s="1">
+        <f>C6</f>
+        <v>86.075000000000003</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>99.114999999999995</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" si="1"/>
+        <v>80.138000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>634</v>
-      </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C10" si="0">B3/2875</f>
-        <v>0.2205217391304348</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>89.78</v>
+      </c>
+      <c r="D3">
+        <v>97.917000000000002</v>
+      </c>
+      <c r="E3">
+        <v>96.707999999999998</v>
       </c>
       <c r="F3">
-        <v>309</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G8" si="1">F3/1165</f>
-        <v>0.26523605150214591</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3">
-        <v>52</v>
-      </c>
-      <c r="K3" s="6">
-        <f t="shared" ref="K3:K5" si="2">J3/518</f>
-        <v>0.10038610038610038</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
+        <v>85.463999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <f>C9</f>
+        <v>87.5</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="2"/>
+        <v>92.308000000000007</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" si="2"/>
+        <v>82.695999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>434</v>
-      </c>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
-        <v>0.15095652173913043</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>912</v>
+      </c>
+      <c r="D4">
+        <v>113</v>
+      </c>
+      <c r="E4">
+        <v>220</v>
       </c>
       <c r="F4">
-        <v>259</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="1"/>
-        <v>0.22231759656652361</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4">
-        <v>47</v>
-      </c>
-      <c r="K4" s="6">
-        <f t="shared" si="2"/>
-        <v>9.0733590733590733E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
+        <v>579</v>
+      </c>
+      <c r="G4" s="1">
+        <f>C12</f>
+        <v>88.924999999999997</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>100</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>94.298000000000002</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="3"/>
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>86</v>
-      </c>
-      <c r="C5" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9913043478260869E-2</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>785</v>
+      </c>
+      <c r="D5">
+        <v>112</v>
+      </c>
+      <c r="E5">
+        <v>209</v>
       </c>
       <c r="F5">
-        <v>126</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="1"/>
-        <v>0.10815450643776824</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5">
+        <v>464</v>
+      </c>
+      <c r="G5" s="1">
+        <f>C15</f>
+        <v>92.215000000000003</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>100</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="4"/>
+        <v>97.356999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="4"/>
+        <v>88.888999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>86.075000000000003</v>
+      </c>
+      <c r="D6">
+        <v>99.114999999999995</v>
+      </c>
+      <c r="E6">
+        <v>95</v>
+      </c>
+      <c r="F6">
+        <v>80.138000000000005</v>
+      </c>
+      <c r="G6" s="6">
+        <v>2.08</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>912</v>
+      </c>
+      <c r="D7">
+        <v>116</v>
+      </c>
+      <c r="E7">
+        <v>247</v>
+      </c>
+      <c r="F7">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>798</v>
+      </c>
+      <c r="D8">
+        <v>116</v>
+      </c>
+      <c r="E8">
+        <v>228</v>
+      </c>
+      <c r="F8">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>87.5</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>92.308000000000007</v>
+      </c>
+      <c r="F9">
+        <v>82.695999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="K5" s="6">
-        <f t="shared" si="2"/>
-        <v>5.7915057915057912E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>68</v>
-      </c>
-      <c r="C6" s="6">
-        <f t="shared" si="0"/>
-        <v>2.365217391304348E-2</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>82</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>7.0386266094420599E-2</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>49</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7043478260869566E-2</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>28</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>2.4034334763948499E-2</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>48</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>1.6695652173913042E-2</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <f>1165-F2-F3-F4-F5-F6-F7</f>
-        <v>10</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>8.5836909871244635E-3</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>43</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>1.4956521739130434E-2</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <f>2875-B2-B3-B4-B5-B6-B7-B8-B9</f>
+      <c r="C10">
+        <v>912</v>
+      </c>
+      <c r="D10">
+        <v>93</v>
+      </c>
+      <c r="E10">
+        <v>228</v>
+      </c>
+      <c r="F10">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>811</v>
+      </c>
+      <c r="D11">
+        <v>93</v>
+      </c>
+      <c r="E11">
+        <v>215</v>
+      </c>
+      <c r="F11">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>88.924999999999997</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>94.298000000000002</v>
+      </c>
+      <c r="F12">
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>912</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>227</v>
+      </c>
+      <c r="F13">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>841</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>221</v>
+      </c>
+      <c r="F14">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>92.215000000000003</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>97.356999999999999</v>
+      </c>
+      <c r="F15">
+        <v>88.888999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <f t="shared" ref="C16" si="5">AVERAGE(C3,C6,C9,C12,C15)</f>
+        <v>88.899000000000001</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" ref="D16" si="6">AVERAGE(D3,D6,D9,D12,D15)</f>
+        <v>99.406399999999991</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16" si="7">AVERAGE(E3,E6,E9,E12,E15)</f>
+        <v>95.134200000000007</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16" si="8">AVERAGE(F3,F6,F9,F12,F15)</f>
+        <v>84.459400000000002</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>910</v>
+      </c>
+      <c r="D17">
         <v>96</v>
       </c>
-      <c r="C10" s="6">
-        <f t="shared" si="0"/>
-        <v>3.3391304347826084E-2</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>19</v>
+      <c r="E17">
+        <v>243</v>
+      </c>
+      <c r="F17">
+        <v>571</v>
+      </c>
+      <c r="G17" s="1">
+        <f>C19</f>
+        <v>93.956000000000003</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17:J17" si="9">D19</f>
+        <v>98.957999999999998</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="9"/>
+        <v>97.531000000000006</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="9"/>
+        <v>91.593999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>855</v>
+      </c>
+      <c r="D18">
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <v>237</v>
+      </c>
+      <c r="F18">
+        <v>523</v>
+      </c>
+      <c r="G18" s="1">
+        <f>C22</f>
+        <v>96.052999999999997</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ref="H18:J18" si="10">D22</f>
+        <v>100</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="10"/>
+        <v>98.182000000000002</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="10"/>
+        <v>94.472999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>93.956000000000003</v>
+      </c>
+      <c r="D19">
+        <v>98.957999999999998</v>
+      </c>
+      <c r="E19">
+        <v>97.531000000000006</v>
+      </c>
+      <c r="F19">
+        <v>91.593999999999994</v>
+      </c>
+      <c r="G19" s="1">
+        <f>C25</f>
+        <v>97.039000000000001</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" ref="H19:J19" si="11">D25</f>
+        <v>98.275999999999996</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="11"/>
+        <v>97.975999999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="11"/>
+        <v>96.356999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>912</v>
+      </c>
+      <c r="D20">
+        <v>113</v>
+      </c>
+      <c r="E20">
+        <v>220</v>
+      </c>
+      <c r="F20">
+        <v>579</v>
+      </c>
+      <c r="G20" s="1">
+        <f>C28</f>
+        <v>96.162000000000006</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ref="H20:J20" si="12">D28</f>
+        <v>100</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="12"/>
+        <v>98.245999999999995</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="12"/>
+        <v>94.754999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>876</v>
+      </c>
+      <c r="D21">
+        <v>113</v>
+      </c>
+      <c r="E21">
+        <v>216</v>
+      </c>
+      <c r="F21">
+        <v>547</v>
+      </c>
+      <c r="G21" s="1">
+        <f>C31</f>
+        <v>96.491</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ref="H21:J21" si="13">D31</f>
+        <v>100</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="13"/>
+        <v>98.677999999999997</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="13"/>
+        <v>95.043000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>96.052999999999997</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>98.182000000000002</v>
+      </c>
+      <c r="F22">
+        <v>94.472999999999999</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.71</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>912</v>
+      </c>
+      <c r="D23">
+        <v>116</v>
+      </c>
+      <c r="E23">
+        <v>247</v>
+      </c>
+      <c r="F23">
+        <v>549</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>885</v>
+      </c>
+      <c r="D24">
+        <v>114</v>
+      </c>
+      <c r="E24">
+        <v>242</v>
+      </c>
+      <c r="F24">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>97.039000000000001</v>
+      </c>
+      <c r="D25">
+        <v>98.275999999999996</v>
+      </c>
+      <c r="E25">
+        <v>97.975999999999999</v>
+      </c>
+      <c r="F25">
+        <v>96.356999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>912</v>
+      </c>
+      <c r="D26">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>228</v>
+      </c>
+      <c r="F26">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>877</v>
+      </c>
+      <c r="D27">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>224</v>
+      </c>
+      <c r="F27">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>96.162000000000006</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>98.245999999999995</v>
+      </c>
+      <c r="F28">
+        <v>94.754999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>912</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>227</v>
+      </c>
+      <c r="F29">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>880</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>224</v>
+      </c>
+      <c r="F30">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>96.491</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>98.677999999999997</v>
+      </c>
+      <c r="F31">
+        <v>95.043000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="5">
+        <f t="shared" ref="C32" si="14">AVERAGE(C19,C22,C25,C28,C31)</f>
+        <v>95.940200000000004</v>
+      </c>
+      <c r="D32" s="5">
+        <f t="shared" ref="D32" si="15">AVERAGE(D19,D22,D25,D28,D31)</f>
+        <v>99.446799999999996</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" ref="E32" si="16">AVERAGE(E19,E22,E25,E28,E31)</f>
+        <v>98.122600000000006</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" ref="F32" si="17">AVERAGE(F19,F22,F25,F28,F31)</f>
+        <v>94.444400000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3175,17 +5418,883 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA2341E-E866-43A2-911D-AC37F482C321}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6981B89-5433-4A4B-84D8-726093473F0F}">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1208</v>
+      </c>
+      <c r="D1">
+        <v>211</v>
+      </c>
+      <c r="E1">
+        <v>513</v>
+      </c>
+      <c r="F1">
+        <v>484</v>
+      </c>
+      <c r="G1">
+        <f>C3</f>
+        <v>91.721999999999994</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ref="H1:J1" si="0">D3</f>
+        <v>98.103999999999999</v>
+      </c>
+      <c r="I1">
+        <f t="shared" si="0"/>
+        <v>94.932000000000002</v>
+      </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>85.537000000000006</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1108</v>
+      </c>
+      <c r="D2">
+        <v>207</v>
+      </c>
+      <c r="E2">
+        <v>487</v>
+      </c>
+      <c r="F2">
+        <v>414</v>
+      </c>
+      <c r="G2">
+        <f>C6</f>
+        <v>91.113</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:J2" si="1">D6</f>
+        <v>99.418999999999997</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>95.668999999999997</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>83.968999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>91.721999999999994</v>
+      </c>
+      <c r="D3">
+        <v>98.103999999999999</v>
+      </c>
+      <c r="E3">
+        <v>94.932000000000002</v>
+      </c>
+      <c r="F3">
+        <v>85.537000000000006</v>
+      </c>
+      <c r="G3">
+        <f>C9</f>
+        <v>92.11</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:J3" si="2">D9</f>
+        <v>98.085999999999999</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>92.856999999999999</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>88.911000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1204</v>
+      </c>
+      <c r="D4">
+        <v>172</v>
+      </c>
+      <c r="E4">
+        <v>508</v>
+      </c>
+      <c r="F4">
+        <v>524</v>
+      </c>
+      <c r="G4">
+        <f>C12</f>
+        <v>90.033000000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:J4" si="3">D12</f>
+        <v>98.617999999999995</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>93.153999999999996</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>83.366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1097</v>
+      </c>
+      <c r="D5">
+        <v>171</v>
+      </c>
+      <c r="E5">
+        <v>486</v>
+      </c>
+      <c r="F5">
+        <v>440</v>
+      </c>
+      <c r="G5">
+        <f>C15</f>
+        <v>95.763999999999996</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:J5" si="4">D15</f>
+        <v>99.078000000000003</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>97.628</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>92.308000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>91.113</v>
+      </c>
+      <c r="D6">
+        <v>99.418999999999997</v>
+      </c>
+      <c r="E6">
+        <v>95.668999999999997</v>
+      </c>
+      <c r="F6">
+        <v>83.968999999999994</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1204</v>
+      </c>
+      <c r="D7">
+        <v>209</v>
+      </c>
+      <c r="E7">
+        <v>490</v>
+      </c>
+      <c r="F7">
+        <v>505</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1109</v>
+      </c>
+      <c r="D8">
+        <v>205</v>
+      </c>
+      <c r="E8">
+        <v>455</v>
+      </c>
+      <c r="F8">
+        <v>449</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>92.11</v>
+      </c>
+      <c r="D9">
+        <v>98.085999999999999</v>
+      </c>
+      <c r="E9">
+        <v>92.856999999999999</v>
+      </c>
+      <c r="F9">
+        <v>88.911000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1204</v>
+      </c>
+      <c r="D10">
+        <v>217</v>
+      </c>
+      <c r="E10">
+        <v>482</v>
+      </c>
+      <c r="F10">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1084</v>
+      </c>
+      <c r="D11">
+        <v>214</v>
+      </c>
+      <c r="E11">
+        <v>449</v>
+      </c>
+      <c r="F11">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>90.033000000000001</v>
+      </c>
+      <c r="D12">
+        <v>98.617999999999995</v>
+      </c>
+      <c r="E12">
+        <v>93.153999999999996</v>
+      </c>
+      <c r="F12">
+        <v>83.366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1204</v>
+      </c>
+      <c r="D13">
+        <v>217</v>
+      </c>
+      <c r="E13">
+        <v>506</v>
+      </c>
+      <c r="F13">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1153</v>
+      </c>
+      <c r="D14">
+        <v>215</v>
+      </c>
+      <c r="E14">
+        <v>494</v>
+      </c>
+      <c r="F14">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>95.763999999999996</v>
+      </c>
+      <c r="D15">
+        <v>99.078000000000003</v>
+      </c>
+      <c r="E15">
+        <v>97.628</v>
+      </c>
+      <c r="F15">
+        <v>92.308000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <f>AVERAGE(C3,C6,C9,C12,C15)</f>
+        <v>92.148400000000009</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
+        <v>98.660999999999987</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>94.847999999999985</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>86.818200000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1208</v>
+      </c>
+      <c r="D17">
+        <v>211</v>
+      </c>
+      <c r="E17">
+        <v>513</v>
+      </c>
+      <c r="F17">
+        <v>484</v>
+      </c>
+      <c r="G17">
+        <f>C19</f>
+        <v>96.853999999999999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:J17" si="6">D19</f>
+        <v>99.052000000000007</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>97.855999999999995</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>94.834999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1170</v>
+      </c>
+      <c r="D18">
+        <v>209</v>
+      </c>
+      <c r="E18">
+        <v>502</v>
+      </c>
+      <c r="F18">
+        <v>459</v>
+      </c>
+      <c r="G18">
+        <f>C22</f>
+        <v>96.760999999999996</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:J18" si="7">D22</f>
+        <v>99.418999999999997</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>97.638000000000005</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>95.037999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>96.853999999999999</v>
+      </c>
+      <c r="D19">
+        <v>99.052000000000007</v>
+      </c>
+      <c r="E19">
+        <v>97.855999999999995</v>
+      </c>
+      <c r="F19">
+        <v>94.834999999999994</v>
+      </c>
+      <c r="G19">
+        <f>C25</f>
+        <v>97.507999999999996</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:J19" si="8">D25</f>
+        <v>98.564999999999998</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>97.754999999999995</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>96.831999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1204</v>
+      </c>
+      <c r="D20">
+        <v>172</v>
+      </c>
+      <c r="E20">
+        <v>508</v>
+      </c>
+      <c r="F20">
+        <v>524</v>
+      </c>
+      <c r="G20">
+        <f>C28</f>
+        <v>96.512</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J20" si="9">D28</f>
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>98.34</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>93.266999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1165</v>
+      </c>
+      <c r="D21">
+        <v>171</v>
+      </c>
+      <c r="E21">
+        <v>496</v>
+      </c>
+      <c r="F21">
+        <v>498</v>
+      </c>
+      <c r="G21">
+        <f>C31</f>
+        <v>96.262</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:J21" si="10">D31</f>
+        <v>98.617999999999995</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>97.628</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>93.763000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>96.760999999999996</v>
+      </c>
+      <c r="D22">
+        <v>99.418999999999997</v>
+      </c>
+      <c r="E22">
+        <v>97.638000000000005</v>
+      </c>
+      <c r="F22">
+        <v>95.037999999999997</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1204</v>
+      </c>
+      <c r="D23">
+        <v>209</v>
+      </c>
+      <c r="E23">
+        <v>490</v>
+      </c>
+      <c r="F23">
+        <v>505</v>
+      </c>
+      <c r="G23" s="11">
+        <v>96.779399999999995</v>
+      </c>
+      <c r="H23" s="11">
+        <v>99.130799999999994</v>
+      </c>
+      <c r="I23" s="11">
+        <v>97.843400000000003</v>
+      </c>
+      <c r="J23" s="11">
+        <v>94.747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1174</v>
+      </c>
+      <c r="D24">
+        <v>206</v>
+      </c>
+      <c r="E24">
+        <v>479</v>
+      </c>
+      <c r="F24">
+        <v>489</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0.42</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.53</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>97.507999999999996</v>
+      </c>
+      <c r="D25">
+        <v>98.564999999999998</v>
+      </c>
+      <c r="E25">
+        <v>97.754999999999995</v>
+      </c>
+      <c r="F25">
+        <v>96.831999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>1204</v>
+      </c>
+      <c r="D26">
+        <v>217</v>
+      </c>
+      <c r="E26">
+        <v>482</v>
+      </c>
+      <c r="F26">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1162</v>
+      </c>
+      <c r="D27">
+        <v>217</v>
+      </c>
+      <c r="E27">
+        <v>474</v>
+      </c>
+      <c r="F27">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>96.512</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>98.34</v>
+      </c>
+      <c r="F28">
+        <v>93.266999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>1204</v>
+      </c>
+      <c r="D29">
+        <v>217</v>
+      </c>
+      <c r="E29">
+        <v>506</v>
+      </c>
+      <c r="F29">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1159</v>
+      </c>
+      <c r="D30">
+        <v>214</v>
+      </c>
+      <c r="E30">
+        <v>494</v>
+      </c>
+      <c r="F30">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>96.262</v>
+      </c>
+      <c r="D31">
+        <v>98.617999999999995</v>
+      </c>
+      <c r="E31">
+        <v>97.628</v>
+      </c>
+      <c r="F31">
+        <v>93.763000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <f>AVERAGE(C19,C22,C25,C28,C31)</f>
+        <v>96.779399999999995</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
+        <v>99.130799999999994</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>97.843400000000003</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="11"/>
+        <v>94.747</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DD8B0F-90E4-46D4-A651-6B19B02DFEC5}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" activeCellId="4" sqref="C7 C10 C13 C4 C1"/>
+      <selection activeCell="G17" sqref="G17:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="8.88671875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3196,32 +6305,32 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>910</v>
+        <v>860</v>
       </c>
       <c r="D1">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E1">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="F1">
-        <v>571</v>
-      </c>
-      <c r="G1" s="1">
+        <v>482</v>
+      </c>
+      <c r="G1" s="16">
         <f>C3</f>
-        <v>89.78</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="H1" s="1">
         <f t="shared" ref="H1:I1" si="0">D3</f>
-        <v>97.917000000000002</v>
+        <v>93.332999999999998</v>
       </c>
       <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>96.707999999999998</v>
+        <v>88.644999999999996</v>
       </c>
       <c r="J1" s="1">
         <f>F3</f>
-        <v>85.463999999999999</v>
+        <v>78.631</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3232,32 +6341,32 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>817</v>
+        <v>719</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="F2">
-        <v>488</v>
-      </c>
-      <c r="G2" s="1">
+        <v>379</v>
+      </c>
+      <c r="G2" s="16">
         <f>C6</f>
-        <v>86.075000000000003</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:J2" si="1">D6</f>
-        <v>99.114999999999995</v>
+        <v>95.918000000000006</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>90.8</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" si="1"/>
-        <v>80.138000000000005</v>
+        <v>80.739000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3267,33 +6376,33 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>89.78</v>
+      <c r="C3" s="15">
+        <v>0.83599999999999997</v>
       </c>
       <c r="D3">
-        <v>97.917000000000002</v>
+        <v>93.332999999999998</v>
       </c>
       <c r="E3">
-        <v>96.707999999999998</v>
+        <v>88.644999999999996</v>
       </c>
       <c r="F3">
-        <v>85.463999999999999</v>
-      </c>
-      <c r="G3" s="1">
+        <v>78.631</v>
+      </c>
+      <c r="G3" s="16">
         <f>C9</f>
-        <v>87.5</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:J3" si="2">D9</f>
-        <v>100</v>
+        <v>96.906999999999996</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="2"/>
-        <v>92.308000000000007</v>
+        <v>87.814999999999998</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>82.695999999999998</v>
+        <v>75.522000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3304,32 +6413,32 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D4">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F4">
-        <v>579</v>
-      </c>
-      <c r="G4" s="1">
+        <v>514</v>
+      </c>
+      <c r="G4" s="16">
         <f>C12</f>
-        <v>88.924999999999997</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ref="H4:J4" si="3">D12</f>
-        <v>100</v>
+        <v>97.143000000000001</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>94.298000000000002</v>
+        <v>88.968000000000004</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>85.11</v>
+        <v>80.882000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3340,32 +6449,32 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>785</v>
+        <v>736</v>
       </c>
       <c r="D5">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E5">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="F5">
-        <v>464</v>
-      </c>
-      <c r="G5" s="1">
+        <v>415</v>
+      </c>
+      <c r="G5" s="16">
         <f>C15</f>
-        <v>92.215000000000003</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ref="H5:J5" si="4">D15</f>
-        <v>100</v>
+        <v>96.396000000000001</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="4"/>
-        <v>97.356999999999999</v>
+        <v>93.004000000000005</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="4"/>
-        <v>88.888999999999996</v>
+        <v>78.543000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3375,29 +6484,29 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>86.075000000000003</v>
+      <c r="C6" s="15">
+        <v>0.85399999999999998</v>
       </c>
       <c r="D6">
-        <v>99.114999999999995</v>
+        <v>95.918000000000006</v>
       </c>
       <c r="E6">
-        <v>95</v>
+        <v>90.8</v>
       </c>
       <c r="F6">
-        <v>80.138000000000005</v>
-      </c>
-      <c r="G6" s="9">
-        <v>2.08</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.82</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1.8</v>
-      </c>
-      <c r="J6" s="9">
-        <v>2.93</v>
+        <v>80.739000000000004</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.37</v>
+      </c>
+      <c r="I6">
+        <v>1.86</v>
+      </c>
+      <c r="J6">
+        <v>1.94</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3408,16 +6517,16 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D7">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E7">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F7">
-        <v>549</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3428,16 +6537,16 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>798</v>
+        <v>701</v>
       </c>
       <c r="D8">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E8">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="F8">
-        <v>454</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3447,17 +6556,17 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>87.5</v>
+      <c r="C9" s="15">
+        <v>0.81299999999999994</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>96.906999999999996</v>
       </c>
       <c r="E9">
-        <v>92.308000000000007</v>
+        <v>87.814999999999998</v>
       </c>
       <c r="F9">
-        <v>82.695999999999998</v>
+        <v>75.522000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3468,16 +6577,16 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D10">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E10">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="F10">
-        <v>591</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3488,16 +6597,16 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>811</v>
+        <v>737</v>
       </c>
       <c r="D11">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E11">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="F11">
-        <v>503</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3507,17 +6616,17 @@
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>88.924999999999997</v>
+      <c r="C12" s="15">
+        <v>0.85499999999999998</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>97.143000000000001</v>
       </c>
       <c r="E12">
-        <v>94.298000000000002</v>
+        <v>88.968000000000004</v>
       </c>
       <c r="F12">
-        <v>85.11</v>
+        <v>80.882000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3528,16 +6637,16 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E13">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F13">
-        <v>585</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -3548,16 +6657,16 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>841</v>
+        <v>732</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E14">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F14">
-        <v>520</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -3567,38 +6676,36 @@
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15">
-        <v>92.215000000000003</v>
+      <c r="C15" s="15">
+        <v>0.84899999999999998</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>96.396000000000001</v>
       </c>
       <c r="E15">
-        <v>97.356999999999999</v>
+        <v>93.004000000000005</v>
       </c>
       <c r="F15">
-        <v>88.888999999999996</v>
+        <v>78.543000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="8">
-        <f t="shared" ref="C16" si="5">AVERAGE(C3,C6,C9,C12,C15)</f>
-        <v>88.899000000000001</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" ref="D16" si="6">AVERAGE(D3,D6,D9,D12,D15)</f>
-        <v>99.406399999999991</v>
-      </c>
-      <c r="E16" s="8">
-        <f t="shared" ref="E16" si="7">AVERAGE(E3,E6,E9,E12,E15)</f>
-        <v>95.134200000000007</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" ref="F16" si="8">AVERAGE(F3,F6,F9,F12,F15)</f>
-        <v>84.459400000000002</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11"/>
+      <c r="C16" s="5">
+        <f>AVERAGE(C3,C6,C9,C12,C15)*100</f>
+        <v>84.139999999999986</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" ref="C16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
+        <v>95.939400000000006</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="5"/>
+        <v>89.846400000000003</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="5"/>
+        <v>78.863399999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -3608,32 +6715,32 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>910</v>
+        <v>860</v>
       </c>
       <c r="D17">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E17">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="F17">
-        <v>571</v>
-      </c>
-      <c r="G17" s="1">
-        <f>C19</f>
-        <v>93.956000000000003</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" ref="H17:J17" si="9">D19</f>
-        <v>98.957999999999998</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="9"/>
-        <v>97.531000000000006</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="9"/>
-        <v>91.593999999999994</v>
+        <v>482</v>
+      </c>
+      <c r="G17">
+        <f>C19*100</f>
+        <v>74.3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:J17" si="6">D19</f>
+        <v>88.570999999999998</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>80.585999999999999</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>67.635000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3644,32 +6751,32 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>855</v>
+        <v>639</v>
       </c>
       <c r="D18">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F18">
-        <v>523</v>
-      </c>
-      <c r="G18" s="1">
-        <f>C22</f>
-        <v>96.052999999999997</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" ref="H18:J18" si="10">D22</f>
-        <v>100</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="10"/>
-        <v>98.182000000000002</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="10"/>
-        <v>94.472999999999999</v>
+        <v>326</v>
+      </c>
+      <c r="G18">
+        <f>C22*100</f>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:J18" si="7">D22</f>
+        <v>90.816000000000003</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>81.599999999999994</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>63.034999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3679,33 +6786,33 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>93.956000000000003</v>
+      <c r="C19" s="15">
+        <v>0.74299999999999999</v>
       </c>
       <c r="D19">
-        <v>98.957999999999998</v>
+        <v>88.570999999999998</v>
       </c>
       <c r="E19">
-        <v>97.531000000000006</v>
+        <v>80.585999999999999</v>
       </c>
       <c r="F19">
-        <v>91.593999999999994</v>
-      </c>
-      <c r="G19" s="1">
-        <f>C25</f>
-        <v>97.039000000000001</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" ref="H19:J19" si="11">D25</f>
-        <v>98.275999999999996</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="11"/>
-        <v>97.975999999999999</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="11"/>
-        <v>96.356999999999999</v>
+        <v>67.635000000000005</v>
+      </c>
+      <c r="G19">
+        <f>C25*100</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ref="H19:J19" si="8">D25</f>
+        <v>81.442999999999998</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>83.192999999999998</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>61.29</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3716,32 +6823,32 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D20">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E20">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F20">
-        <v>579</v>
-      </c>
-      <c r="G20" s="1">
-        <f>C28</f>
-        <v>96.162000000000006</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" ref="H20:J20" si="12">D28</f>
-        <v>100</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="12"/>
-        <v>98.245999999999995</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="12"/>
-        <v>94.754999999999995</v>
+        <v>514</v>
+      </c>
+      <c r="G20">
+        <f>C28*100</f>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:J20" si="9">D28</f>
+        <v>90.475999999999999</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="9"/>
+        <v>74.376999999999995</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>65.756</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3752,32 +6859,32 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>876</v>
+        <v>617</v>
       </c>
       <c r="D21">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="E21">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F21">
-        <v>547</v>
-      </c>
-      <c r="G21" s="1">
-        <f>C31</f>
-        <v>96.491</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" ref="H21:J21" si="13">D31</f>
-        <v>100</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="13"/>
-        <v>98.677999999999997</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="13"/>
-        <v>95.043000000000006</v>
+        <v>324</v>
+      </c>
+      <c r="G21">
+        <f>C31*100</f>
+        <v>72.399999999999991</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:J21" si="10">D31</f>
+        <v>96.396000000000001</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>82.715999999999994</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="10"/>
+        <v>62.204999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3787,29 +6894,29 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22">
-        <v>96.052999999999997</v>
+      <c r="C22" s="15">
+        <v>0.71599999999999997</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>90.816000000000003</v>
       </c>
       <c r="E22">
-        <v>98.182000000000002</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="F22">
-        <v>94.472999999999999</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1.05</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.71</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.37</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1.56</v>
+        <v>63.034999999999997</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1.52E-2</v>
+      </c>
+      <c r="H22">
+        <v>4.82</v>
+      </c>
+      <c r="I22">
+        <v>3.19</v>
+      </c>
+      <c r="J22">
+        <v>2.36</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3820,21 +6927,17 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D23">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E23">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F23">
-        <v>549</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+        <v>527</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -3844,16 +6947,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>885</v>
+        <v>600</v>
       </c>
       <c r="D24">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="E24">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="F24">
-        <v>529</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3863,17 +6966,17 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25">
-        <v>97.039000000000001</v>
+      <c r="C25" s="15">
+        <v>0.69599999999999995</v>
       </c>
       <c r="D25">
-        <v>98.275999999999996</v>
+        <v>81.442999999999998</v>
       </c>
       <c r="E25">
-        <v>97.975999999999999</v>
+        <v>83.192999999999998</v>
       </c>
       <c r="F25">
-        <v>96.356999999999999</v>
+        <v>61.29</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3884,16 +6987,16 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D26">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E26">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="F26">
-        <v>591</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3904,16 +7007,16 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>877</v>
+        <v>617</v>
       </c>
       <c r="D27">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E27">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F27">
-        <v>560</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -3923,17 +7026,17 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28">
-        <v>96.162000000000006</v>
+      <c r="C28" s="15">
+        <v>0.71599999999999997</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>90.475999999999999</v>
       </c>
       <c r="E28">
-        <v>98.245999999999995</v>
+        <v>74.376999999999995</v>
       </c>
       <c r="F28">
-        <v>94.754999999999995</v>
+        <v>65.756</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -3944,16 +7047,16 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E29">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F29">
-        <v>585</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -3964,16 +7067,16 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>880</v>
+        <v>624</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E30">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="F30">
-        <v>556</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -3983,35 +7086,35 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>96.491</v>
+      <c r="C31" s="15">
+        <v>0.72399999999999998</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>96.396000000000001</v>
       </c>
       <c r="E31">
-        <v>98.677999999999997</v>
+        <v>82.715999999999994</v>
       </c>
       <c r="F31">
-        <v>95.043000000000006</v>
+        <v>62.204999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="8">
-        <f t="shared" ref="C32" si="14">AVERAGE(C19,C22,C25,C28,C31)</f>
-        <v>95.940200000000004</v>
-      </c>
-      <c r="D32" s="8">
-        <f t="shared" ref="D32" si="15">AVERAGE(D19,D22,D25,D28,D31)</f>
-        <v>99.446799999999996</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" ref="E32" si="16">AVERAGE(E19,E22,E25,E28,E31)</f>
-        <v>98.122600000000006</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" ref="F32" si="17">AVERAGE(F19,F22,F25,F28,F31)</f>
-        <v>94.444400000000002</v>
+      <c r="C32">
+        <f>AVERAGE(C19,C22,C25,C28,C31)*100</f>
+        <v>71.900000000000006</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
+        <v>89.540400000000005</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>80.494399999999999</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="11"/>
+        <v>63.984200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4020,12 +7123,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6981B89-5433-4A4B-84D8-726093473F0F}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0685251F-8998-4F5F-BBD2-01EDE0C945A2}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4038,32 +7141,32 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1208</v>
+        <v>860</v>
       </c>
       <c r="D1">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="E1">
-        <v>513</v>
+        <v>273</v>
       </c>
       <c r="F1">
-        <v>484</v>
-      </c>
-      <c r="G1">
+        <v>482</v>
+      </c>
+      <c r="G1" s="16">
         <f>C3</f>
-        <v>91.721999999999994</v>
-      </c>
-      <c r="H1">
-        <f t="shared" ref="H1:J1" si="0">D3</f>
-        <v>98.103999999999999</v>
-      </c>
-      <c r="I1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" ref="H1:I1" si="0">D3</f>
+        <v>86.667000000000002</v>
+      </c>
+      <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>94.932000000000002</v>
-      </c>
-      <c r="J1">
-        <f t="shared" si="0"/>
-        <v>85.537000000000006</v>
+        <v>83.882999999999996</v>
+      </c>
+      <c r="J1" s="1">
+        <f>F3</f>
+        <v>55.601999999999997</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4074,32 +7177,32 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1108</v>
+        <v>588</v>
       </c>
       <c r="D2">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>487</v>
+        <v>229</v>
       </c>
       <c r="F2">
-        <v>414</v>
-      </c>
-      <c r="G2">
+        <v>268</v>
+      </c>
+      <c r="G2" s="16">
         <f>C6</f>
-        <v>91.113</v>
-      </c>
-      <c r="H2">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="H2" s="1">
         <f t="shared" ref="H2:J2" si="1">D6</f>
-        <v>99.418999999999997</v>
-      </c>
-      <c r="I2">
+        <v>90.816000000000003</v>
+      </c>
+      <c r="I2" s="1">
         <f t="shared" si="1"/>
-        <v>95.668999999999997</v>
-      </c>
-      <c r="J2">
+        <v>72.8</v>
+      </c>
+      <c r="J2" s="1">
         <f t="shared" si="1"/>
-        <v>83.968999999999994</v>
+        <v>55.642000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4109,33 +7212,33 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>91.721999999999994</v>
+      <c r="C3" s="15">
+        <v>0.68400000000000005</v>
       </c>
       <c r="D3">
-        <v>98.103999999999999</v>
+        <v>86.667000000000002</v>
       </c>
       <c r="E3">
-        <v>94.932000000000002</v>
+        <v>83.882999999999996</v>
       </c>
       <c r="F3">
-        <v>85.537000000000006</v>
-      </c>
-      <c r="G3">
+        <v>55.601999999999997</v>
+      </c>
+      <c r="G3" s="16">
         <f>C9</f>
-        <v>92.11</v>
-      </c>
-      <c r="H3">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="H3" s="1">
         <f t="shared" ref="H3:J3" si="2">D9</f>
-        <v>98.085999999999999</v>
-      </c>
-      <c r="I3">
+        <v>89.691000000000003</v>
+      </c>
+      <c r="I3" s="1">
         <f t="shared" si="2"/>
-        <v>92.856999999999999</v>
-      </c>
-      <c r="J3">
+        <v>80.251999999999995</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>88.911000000000001</v>
+        <v>52.941000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4146,32 +7249,32 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D4">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>508</v>
+        <v>250</v>
       </c>
       <c r="F4">
-        <v>524</v>
-      </c>
-      <c r="G4">
+        <v>514</v>
+      </c>
+      <c r="G4" s="16">
         <f>C12</f>
-        <v>90.033000000000001</v>
-      </c>
-      <c r="H4">
+        <v>0.66</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" ref="H4:J4" si="3">D12</f>
-        <v>98.617999999999995</v>
-      </c>
-      <c r="I4">
+        <v>90.475999999999999</v>
+      </c>
+      <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>93.153999999999996</v>
-      </c>
-      <c r="J4">
+        <v>77.58</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>83.366</v>
+        <v>53.781999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4182,32 +7285,32 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1097</v>
+        <v>557</v>
       </c>
       <c r="D5">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>486</v>
+        <v>182</v>
       </c>
       <c r="F5">
-        <v>440</v>
-      </c>
-      <c r="G5">
+        <v>286</v>
+      </c>
+      <c r="G5" s="16">
         <f>C15</f>
-        <v>95.763999999999996</v>
-      </c>
-      <c r="H5">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" ref="H5:J5" si="4">D15</f>
-        <v>99.078000000000003</v>
-      </c>
-      <c r="I5">
+        <v>88.287999999999997</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="4"/>
-        <v>97.628</v>
-      </c>
-      <c r="J5">
+        <v>78.600999999999999</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="4"/>
-        <v>92.308000000000007</v>
+        <v>57.087000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4217,29 +7320,29 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>91.113</v>
+      <c r="C6" s="15">
+        <v>0.64600000000000002</v>
       </c>
       <c r="D6">
-        <v>99.418999999999997</v>
+        <v>90.816000000000003</v>
       </c>
       <c r="E6">
-        <v>95.668999999999997</v>
+        <v>72.8</v>
       </c>
       <c r="F6">
-        <v>83.968999999999994</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1.94</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.53</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1.75</v>
-      </c>
-      <c r="J6" s="9">
-        <v>3.35</v>
+        <v>55.642000000000003</v>
+      </c>
+      <c r="G6">
+        <v>1.48</v>
+      </c>
+      <c r="H6">
+        <v>1.53</v>
+      </c>
+      <c r="I6">
+        <v>3.61</v>
+      </c>
+      <c r="J6">
+        <v>1.47</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4250,21 +7353,17 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D7">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="E7">
-        <v>490</v>
+        <v>238</v>
       </c>
       <c r="F7">
-        <v>505</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+        <v>527</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -4274,21 +7373,17 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>1109</v>
+        <v>557</v>
       </c>
       <c r="D8">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="E8">
-        <v>455</v>
+        <v>191</v>
       </c>
       <c r="F8">
-        <v>449</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+        <v>279</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -4297,17 +7392,17 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>92.11</v>
+      <c r="C9" s="15">
+        <v>0.64600000000000002</v>
       </c>
       <c r="D9">
-        <v>98.085999999999999</v>
+        <v>89.691000000000003</v>
       </c>
       <c r="E9">
-        <v>92.856999999999999</v>
+        <v>80.251999999999995</v>
       </c>
       <c r="F9">
-        <v>88.911000000000001</v>
+        <v>52.941000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4318,16 +7413,16 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D10">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="E10">
-        <v>482</v>
+        <v>281</v>
       </c>
       <c r="F10">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4338,16 +7433,16 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>1084</v>
+        <v>569</v>
       </c>
       <c r="D11">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c r="E11">
-        <v>449</v>
+        <v>218</v>
       </c>
       <c r="F11">
-        <v>421</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4357,17 +7452,17 @@
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>90.033000000000001</v>
+      <c r="C12" s="15">
+        <v>0.66</v>
       </c>
       <c r="D12">
-        <v>98.617999999999995</v>
+        <v>90.475999999999999</v>
       </c>
       <c r="E12">
-        <v>93.153999999999996</v>
+        <v>77.58</v>
       </c>
       <c r="F12">
-        <v>83.366</v>
+        <v>53.781999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4378,16 +7473,16 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D13">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="E13">
-        <v>506</v>
+        <v>243</v>
       </c>
       <c r="F13">
-        <v>481</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4398,16 +7493,16 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>1153</v>
+        <v>579</v>
       </c>
       <c r="D14">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="E14">
-        <v>494</v>
+        <v>191</v>
       </c>
       <c r="F14">
-        <v>444</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4417,35 +7512,35 @@
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15">
-        <v>95.763999999999996</v>
+      <c r="C15" s="15">
+        <v>0.67200000000000004</v>
       </c>
       <c r="D15">
-        <v>99.078000000000003</v>
+        <v>88.287999999999997</v>
       </c>
       <c r="E15">
-        <v>97.628</v>
+        <v>78.600999999999999</v>
       </c>
       <c r="F15">
-        <v>92.308000000000007</v>
+        <v>57.087000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <f>AVERAGE(C3,C6,C9,C12,C15)</f>
-        <v>92.148400000000009</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="5">
+        <f>AVERAGE(C3,C6,C9,C12,C15)*100</f>
+        <v>66.160000000000011</v>
+      </c>
+      <c r="D16" s="5">
         <f t="shared" ref="D16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
-        <v>98.660999999999987</v>
-      </c>
-      <c r="E16">
+        <v>89.187600000000003</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="5"/>
-        <v>94.847999999999985</v>
-      </c>
-      <c r="F16">
+        <v>78.623199999999997</v>
+      </c>
+      <c r="F16" s="5">
         <f t="shared" si="5"/>
-        <v>86.818200000000004</v>
+        <v>55.010799999999996</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4456,32 +7551,32 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1208</v>
+        <v>860</v>
       </c>
       <c r="D17">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="E17">
-        <v>513</v>
+        <v>273</v>
       </c>
       <c r="F17">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G17">
-        <f>C19</f>
-        <v>96.853999999999999</v>
+        <f>C19*100</f>
+        <v>51.9</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:J17" si="6">D19</f>
-        <v>99.052000000000007</v>
+        <v>81.905000000000001</v>
       </c>
       <c r="I17">
         <f t="shared" si="6"/>
-        <v>97.855999999999995</v>
+        <v>61.171999999999997</v>
       </c>
       <c r="J17">
         <f t="shared" si="6"/>
-        <v>94.834999999999994</v>
+        <v>40.040999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4492,32 +7587,32 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1170</v>
+        <v>446</v>
       </c>
       <c r="D18">
-        <v>209</v>
+        <v>86</v>
       </c>
       <c r="E18">
-        <v>502</v>
+        <v>167</v>
       </c>
       <c r="F18">
-        <v>459</v>
+        <v>193</v>
       </c>
       <c r="G18">
-        <f>C22</f>
-        <v>96.760999999999996</v>
+        <f>C22*100</f>
+        <v>52.300000000000004</v>
       </c>
       <c r="H18">
         <f t="shared" ref="H18:J18" si="7">D22</f>
-        <v>99.418999999999997</v>
+        <v>87.754999999999995</v>
       </c>
       <c r="I18">
         <f t="shared" si="7"/>
-        <v>97.638000000000005</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="J18">
         <f t="shared" si="7"/>
-        <v>95.037999999999997</v>
+        <v>37.743000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4527,33 +7622,33 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>96.853999999999999</v>
+      <c r="C19" s="15">
+        <v>0.51900000000000002</v>
       </c>
       <c r="D19">
-        <v>99.052000000000007</v>
+        <v>81.905000000000001</v>
       </c>
       <c r="E19">
-        <v>97.855999999999995</v>
+        <v>61.171999999999997</v>
       </c>
       <c r="F19">
-        <v>94.834999999999994</v>
+        <v>40.040999999999997</v>
       </c>
       <c r="G19">
-        <f>C25</f>
-        <v>97.507999999999996</v>
+        <f>C25*100</f>
+        <v>50.8</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19:J19" si="8">D25</f>
-        <v>98.564999999999998</v>
+        <v>84.536000000000001</v>
       </c>
       <c r="I19">
         <f t="shared" si="8"/>
-        <v>97.754999999999995</v>
+        <v>64.286000000000001</v>
       </c>
       <c r="J19">
         <f t="shared" si="8"/>
-        <v>96.831999999999994</v>
+        <v>38.520000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4564,32 +7659,32 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D20">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="E20">
-        <v>508</v>
+        <v>250</v>
       </c>
       <c r="F20">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G20">
-        <f>C28</f>
-        <v>96.512</v>
+        <f>C28*100</f>
+        <v>52.2</v>
       </c>
       <c r="H20">
         <f t="shared" ref="H20:J20" si="9">D28</f>
-        <v>100</v>
+        <v>81.905000000000001</v>
       </c>
       <c r="I20">
         <f t="shared" si="9"/>
-        <v>98.34</v>
+        <v>64.769000000000005</v>
       </c>
       <c r="J20">
         <f t="shared" si="9"/>
-        <v>93.266999999999996</v>
+        <v>38.234999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4600,32 +7695,32 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1165</v>
+        <v>451</v>
       </c>
       <c r="D21">
+        <v>86</v>
+      </c>
+      <c r="E21">
         <v>171</v>
       </c>
-      <c r="E21">
-        <v>496</v>
-      </c>
       <c r="F21">
-        <v>498</v>
+        <v>194</v>
       </c>
       <c r="G21">
-        <f>C31</f>
-        <v>96.262</v>
+        <f>C31*100</f>
+        <v>50.3</v>
       </c>
       <c r="H21">
         <f t="shared" ref="H21:J21" si="10">D31</f>
-        <v>98.617999999999995</v>
+        <v>81.981999999999999</v>
       </c>
       <c r="I21">
         <f t="shared" si="10"/>
-        <v>97.628</v>
+        <v>64.197999999999993</v>
       </c>
       <c r="J21">
         <f t="shared" si="10"/>
-        <v>93.763000000000005</v>
+        <v>36.811</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4635,29 +7730,29 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22">
-        <v>96.760999999999996</v>
+      <c r="C22" s="15">
+        <v>0.52300000000000002</v>
       </c>
       <c r="D22">
-        <v>99.418999999999997</v>
+        <v>87.754999999999995</v>
       </c>
       <c r="E22">
-        <v>97.638000000000005</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="F22">
-        <v>95.037999999999997</v>
-      </c>
-      <c r="G22" s="13">
-        <v>0.42</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0.53</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1.23</v>
+        <v>37.743000000000002</v>
+      </c>
+      <c r="G22">
+        <v>0.8</v>
+      </c>
+      <c r="H22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J22">
+        <v>1.06</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4668,28 +7763,16 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D23">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="E23">
-        <v>490</v>
+        <v>238</v>
       </c>
       <c r="F23">
-        <v>505</v>
-      </c>
-      <c r="G23" s="15">
-        <v>96.779399999999995</v>
-      </c>
-      <c r="H23" s="15">
-        <v>99.130799999999994</v>
-      </c>
-      <c r="I23" s="15">
-        <v>97.843400000000003</v>
-      </c>
-      <c r="J23" s="15">
-        <v>94.747</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4700,28 +7783,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>1174</v>
+        <v>438</v>
       </c>
       <c r="D24">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="E24">
-        <v>479</v>
+        <v>153</v>
       </c>
       <c r="F24">
-        <v>489</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0.42</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0.53</v>
-      </c>
-      <c r="I24" s="15">
-        <v>0.26</v>
-      </c>
-      <c r="J24" s="15">
-        <v>1.23</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4731,17 +7802,17 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25">
-        <v>97.507999999999996</v>
+      <c r="C25" s="15">
+        <v>0.50800000000000001</v>
       </c>
       <c r="D25">
-        <v>98.564999999999998</v>
+        <v>84.536000000000001</v>
       </c>
       <c r="E25">
-        <v>97.754999999999995</v>
+        <v>64.286000000000001</v>
       </c>
       <c r="F25">
-        <v>96.831999999999994</v>
+        <v>38.520000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4752,16 +7823,16 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D26">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="E26">
-        <v>482</v>
+        <v>281</v>
       </c>
       <c r="F26">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4772,16 +7843,16 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>1162</v>
+        <v>450</v>
       </c>
       <c r="D27">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="E27">
-        <v>474</v>
+        <v>182</v>
       </c>
       <c r="F27">
-        <v>471</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4791,17 +7862,17 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28">
-        <v>96.512</v>
+      <c r="C28" s="15">
+        <v>0.52200000000000002</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>81.905000000000001</v>
       </c>
       <c r="E28">
-        <v>98.34</v>
+        <v>64.769000000000005</v>
       </c>
       <c r="F28">
-        <v>93.266999999999996</v>
+        <v>38.234999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4812,16 +7883,16 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D29">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="E29">
-        <v>506</v>
+        <v>243</v>
       </c>
       <c r="F29">
-        <v>481</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4832,16 +7903,16 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>1159</v>
+        <v>434</v>
       </c>
       <c r="D30">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c r="E30">
-        <v>494</v>
+        <v>156</v>
       </c>
       <c r="F30">
-        <v>451</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4851,35 +7922,35 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>96.262</v>
+      <c r="C31" s="15">
+        <v>0.503</v>
       </c>
       <c r="D31">
-        <v>98.617999999999995</v>
+        <v>81.981999999999999</v>
       </c>
       <c r="E31">
-        <v>97.628</v>
+        <v>64.197999999999993</v>
       </c>
       <c r="F31">
-        <v>93.763000000000005</v>
+        <v>36.811</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C32">
-        <f>AVERAGE(C19,C22,C25,C28,C31)</f>
-        <v>96.779399999999995</v>
+        <f>AVERAGE(C19,C22,C25,C28,C31)*100</f>
+        <v>51.5</v>
       </c>
       <c r="D32">
         <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
-        <v>99.130799999999994</v>
+        <v>83.616599999999991</v>
       </c>
       <c r="E32">
         <f t="shared" si="11"/>
-        <v>97.843400000000003</v>
+        <v>64.564999999999998</v>
       </c>
       <c r="F32">
         <f t="shared" si="11"/>
-        <v>94.747</v>
+        <v>38.269999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -4887,12 +7958,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A9FFEC-73A8-4D4F-94F7-7026AFE1C90E}">
-  <dimension ref="A1:J31"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720CA82F-A166-4E12-85F8-C2D6B2C9830A}">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4905,32 +7976,32 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>910</v>
+        <v>860</v>
       </c>
       <c r="D1">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E1">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="F1">
-        <v>571</v>
-      </c>
-      <c r="G1">
+        <v>482</v>
+      </c>
+      <c r="G1" s="16">
         <f>C3</f>
-        <v>77.143000000000001</v>
-      </c>
-      <c r="H1">
-        <f t="shared" ref="H1:J1" si="0">D3</f>
-        <v>98.957999999999998</v>
-      </c>
-      <c r="I1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" ref="H1:I1" si="0">D3</f>
+        <v>69.524000000000001</v>
+      </c>
+      <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>85.596999999999994</v>
-      </c>
-      <c r="J1">
-        <f t="shared" si="0"/>
-        <v>69.876999999999995</v>
+        <v>49.084000000000003</v>
+      </c>
+      <c r="J1" s="1">
+        <f>F3</f>
+        <v>22.199000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4941,32 +8012,32 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>702</v>
+        <v>314</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E2">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c r="F2">
-        <v>399</v>
-      </c>
-      <c r="G2">
+        <v>107</v>
+      </c>
+      <c r="G2" s="16">
         <f>C6</f>
-        <v>77.192999999999998</v>
-      </c>
-      <c r="H2">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="H2" s="1">
         <f t="shared" ref="H2:J2" si="1">D6</f>
-        <v>95.575000000000003</v>
-      </c>
-      <c r="I2">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="I2" s="1">
         <f t="shared" si="1"/>
-        <v>89.090999999999994</v>
-      </c>
-      <c r="J2">
+        <v>48.8</v>
+      </c>
+      <c r="J2" s="1">
         <f t="shared" si="1"/>
-        <v>69.084999999999994</v>
+        <v>20.039000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4976,33 +8047,33 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>77.143000000000001</v>
+      <c r="C3" s="15">
+        <v>0.36499999999999999</v>
       </c>
       <c r="D3">
-        <v>98.957999999999998</v>
+        <v>69.524000000000001</v>
       </c>
       <c r="E3">
-        <v>85.596999999999994</v>
+        <v>49.084000000000003</v>
       </c>
       <c r="F3">
-        <v>69.876999999999995</v>
-      </c>
-      <c r="G3">
+        <v>22.199000000000002</v>
+      </c>
+      <c r="G3" s="16">
         <f>C9</f>
-        <v>78.727999999999994</v>
-      </c>
-      <c r="H3">
+        <v>0.36</v>
+      </c>
+      <c r="H3" s="1">
         <f t="shared" ref="H3:J3" si="2">D9</f>
-        <v>91.379000000000005</v>
-      </c>
-      <c r="I3">
+        <v>69.072000000000003</v>
+      </c>
+      <c r="I3" s="1">
         <f t="shared" si="2"/>
-        <v>91.093000000000004</v>
-      </c>
-      <c r="J3">
+        <v>54.201999999999998</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>70.492000000000004</v>
+        <v>21.632000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5013,32 +8084,32 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D4">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F4">
-        <v>579</v>
-      </c>
-      <c r="G4">
+        <v>514</v>
+      </c>
+      <c r="G4" s="16">
         <f>C12</f>
-        <v>77.850999999999999</v>
-      </c>
-      <c r="H4">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" ref="H4:J4" si="3">D12</f>
-        <v>96.774000000000001</v>
-      </c>
-      <c r="I4">
+        <v>71.429000000000002</v>
+      </c>
+      <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>85.525999999999996</v>
-      </c>
-      <c r="J4">
+        <v>50.177999999999997</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>71.912000000000006</v>
+        <v>23.95</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5049,32 +8120,32 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>704</v>
+        <v>298</v>
       </c>
       <c r="D5">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E5">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="F5">
-        <v>400</v>
-      </c>
-      <c r="G5">
+        <v>103</v>
+      </c>
+      <c r="G5" s="16">
         <f>C15</f>
-        <v>75.328999999999994</v>
-      </c>
-      <c r="H5">
+        <v>0.35</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" ref="H5:J5" si="4">D15</f>
-        <v>96</v>
-      </c>
-      <c r="I5">
+        <v>72.072000000000003</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="4"/>
-        <v>84.581000000000003</v>
-      </c>
-      <c r="J5">
+        <v>44.033000000000001</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="4"/>
-        <v>68.204999999999998</v>
+        <v>22.638000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5084,33 +8155,29 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>77.192999999999998</v>
+      <c r="C6" s="15">
+        <v>0.34599999999999997</v>
       </c>
       <c r="D6">
-        <v>95.575000000000003</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="E6">
-        <v>89.090999999999994</v>
+        <v>48.8</v>
       </c>
       <c r="F6">
-        <v>69.084999999999994</v>
-      </c>
-      <c r="G6" s="16">
-        <f>AVERAGE(G1:G5)</f>
-        <v>77.248800000000003</v>
-      </c>
-      <c r="H6" s="16">
-        <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
-        <v>95.737200000000001</v>
-      </c>
-      <c r="I6" s="16">
-        <f t="shared" si="5"/>
-        <v>87.177600000000012</v>
-      </c>
-      <c r="J6" s="16">
-        <f t="shared" si="5"/>
-        <v>69.914199999999994</v>
+        <v>20.039000000000001</v>
+      </c>
+      <c r="G6">
+        <v>1.3</v>
+      </c>
+      <c r="H6">
+        <v>1.94</v>
+      </c>
+      <c r="I6">
+        <v>3.25</v>
+      </c>
+      <c r="J6">
+        <v>1.28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5121,28 +8188,16 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D7">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E7">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F7">
-        <v>549</v>
-      </c>
-      <c r="G7" s="17">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="H7" s="17">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="I7" s="17">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="J7" s="17">
-        <v>1.26</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5153,16 +8208,16 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>718</v>
+        <v>310</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E8">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="F8">
-        <v>387</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -5172,17 +8227,17 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>78.727999999999994</v>
+      <c r="C9" s="15">
+        <v>0.36</v>
       </c>
       <c r="D9">
-        <v>91.379000000000005</v>
+        <v>69.072000000000003</v>
       </c>
       <c r="E9">
-        <v>91.093000000000004</v>
+        <v>54.201999999999998</v>
       </c>
       <c r="F9">
-        <v>70.492000000000004</v>
+        <v>21.632000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5193,16 +8248,16 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D10">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E10">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="F10">
-        <v>591</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5213,16 +8268,16 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>710</v>
+        <v>330</v>
       </c>
       <c r="D11">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E11">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="F11">
-        <v>425</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -5232,17 +8287,17 @@
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>77.850999999999999</v>
+      <c r="C12" s="15">
+        <v>0.38300000000000001</v>
       </c>
       <c r="D12">
-        <v>96.774000000000001</v>
+        <v>71.429000000000002</v>
       </c>
       <c r="E12">
-        <v>85.525999999999996</v>
+        <v>50.177999999999997</v>
       </c>
       <c r="F12">
-        <v>71.912000000000006</v>
+        <v>23.95</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5253,16 +8308,16 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E13">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F13">
-        <v>585</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5273,16 +8328,16 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>687</v>
+        <v>302</v>
       </c>
       <c r="D14">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E14">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="F14">
-        <v>399</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5292,17 +8347,35 @@
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15">
-        <v>75.328999999999994</v>
+      <c r="C15" s="15">
+        <v>0.35</v>
       </c>
       <c r="D15">
-        <v>96</v>
+        <v>72.072000000000003</v>
       </c>
       <c r="E15">
-        <v>84.581000000000003</v>
+        <v>44.033000000000001</v>
       </c>
       <c r="F15">
-        <v>68.204999999999998</v>
+        <v>22.638000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <f>AVERAGE(C3,C6,C9,C12,C15)*100</f>
+        <v>36.08</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" ref="D16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
+        <v>71.317399999999992</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="5"/>
+        <v>49.259400000000007</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="5"/>
+        <v>22.091600000000003</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -5313,32 +8386,32 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>910</v>
+        <v>860</v>
       </c>
       <c r="D17">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E17">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="F17">
-        <v>571</v>
+        <v>482</v>
       </c>
       <c r="G17">
-        <f>C19</f>
-        <v>76.373999999999995</v>
+        <f>C19*100</f>
+        <v>38.6</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:J17" si="6">D19</f>
-        <v>96.875</v>
+        <v>66.667000000000002</v>
       </c>
       <c r="I17">
         <f t="shared" si="6"/>
-        <v>84.361999999999995</v>
+        <v>48.351999999999997</v>
       </c>
       <c r="J17">
         <f t="shared" si="6"/>
-        <v>69.527000000000001</v>
+        <v>26.971</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -5349,32 +8422,32 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>695</v>
+        <v>332</v>
       </c>
       <c r="D18">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="E18">
-        <v>205</v>
+        <v>132</v>
       </c>
       <c r="F18">
-        <v>397</v>
+        <v>130</v>
       </c>
       <c r="G18">
-        <f>C22</f>
-        <v>75.768000000000001</v>
+        <f>C22*100</f>
+        <v>38.1</v>
       </c>
       <c r="H18">
         <f t="shared" ref="H18:J18" si="7">D22</f>
-        <v>93.805000000000007</v>
+        <v>80.611999999999995</v>
       </c>
       <c r="I18">
         <f t="shared" si="7"/>
-        <v>89.090999999999994</v>
+        <v>48.8</v>
       </c>
       <c r="J18">
         <f t="shared" si="7"/>
-        <v>67.185000000000002</v>
+        <v>24.707999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -5384,33 +8457,33 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>76.373999999999995</v>
+      <c r="C19" s="15">
+        <v>0.38600000000000001</v>
       </c>
       <c r="D19">
-        <v>96.875</v>
+        <v>66.667000000000002</v>
       </c>
       <c r="E19">
-        <v>84.361999999999995</v>
+        <v>48.351999999999997</v>
       </c>
       <c r="F19">
-        <v>69.527000000000001</v>
+        <v>26.971</v>
       </c>
       <c r="G19">
-        <f>C25</f>
-        <v>78.069999999999993</v>
+        <f>C25*100</f>
+        <v>34.699999999999996</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19:J19" si="8">D25</f>
-        <v>92.241</v>
+        <v>61.856000000000002</v>
       </c>
       <c r="I19">
         <f t="shared" si="8"/>
-        <v>88.664000000000001</v>
+        <v>47.899000000000001</v>
       </c>
       <c r="J19">
         <f t="shared" si="8"/>
-        <v>70.31</v>
+        <v>23.719000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -5421,32 +8494,32 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D20">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E20">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F20">
-        <v>579</v>
+        <v>514</v>
       </c>
       <c r="G20">
-        <f>C28</f>
-        <v>80.153999999999996</v>
+        <f>C28*100</f>
+        <v>37</v>
       </c>
       <c r="H20">
         <f t="shared" ref="H20:J20" si="9">D28</f>
-        <v>97.849000000000004</v>
+        <v>74.286000000000001</v>
       </c>
       <c r="I20">
         <f t="shared" si="9"/>
-        <v>89.912000000000006</v>
+        <v>52.668999999999997</v>
       </c>
       <c r="J20">
         <f t="shared" si="9"/>
-        <v>73.603999999999999</v>
+        <v>19.538</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -5457,32 +8530,32 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>691</v>
+        <v>328</v>
       </c>
       <c r="D21">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E21">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="F21">
-        <v>389</v>
+        <v>127</v>
       </c>
       <c r="G21">
-        <f>C31</f>
-        <v>76.754000000000005</v>
+        <f>C31*100</f>
+        <v>34.200000000000003</v>
       </c>
       <c r="H21">
         <f t="shared" ref="H21:J21" si="10">D31</f>
-        <v>96</v>
+        <v>67.567999999999998</v>
       </c>
       <c r="I21">
         <f t="shared" si="10"/>
-        <v>87.224999999999994</v>
+        <v>49.383000000000003</v>
       </c>
       <c r="J21">
         <f t="shared" si="10"/>
-        <v>69.402000000000001</v>
+        <v>19.684999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -5492,33 +8565,29 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22">
-        <v>75.768000000000001</v>
+      <c r="C22" s="15">
+        <v>0.38100000000000001</v>
       </c>
       <c r="D22">
-        <v>93.805000000000007</v>
+        <v>80.611999999999995</v>
       </c>
       <c r="E22">
-        <v>89.090999999999994</v>
+        <v>48.8</v>
       </c>
       <c r="F22">
-        <v>67.185000000000002</v>
-      </c>
-      <c r="G22" s="16">
-        <f>AVERAGE(G17:G21)</f>
-        <v>77.424000000000007</v>
-      </c>
-      <c r="H22" s="16">
-        <f t="shared" ref="H22:J22" si="11">AVERAGE(H17:H21)</f>
-        <v>95.353999999999999</v>
-      </c>
-      <c r="I22" s="16">
-        <f t="shared" si="11"/>
-        <v>87.850800000000007</v>
-      </c>
-      <c r="J22" s="16">
-        <f t="shared" si="11"/>
-        <v>70.005599999999987</v>
+        <v>24.707999999999998</v>
+      </c>
+      <c r="G22">
+        <v>1.77</v>
+      </c>
+      <c r="H22">
+        <v>6.54</v>
+      </c>
+      <c r="I22">
+        <v>1.7</v>
+      </c>
+      <c r="J22">
+        <v>2.9</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5529,28 +8598,16 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D23">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E23">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F23">
-        <v>549</v>
-      </c>
-      <c r="G23" s="17">
-        <v>1.56</v>
-      </c>
-      <c r="H23" s="17">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="I23" s="16">
-        <v>1.95</v>
-      </c>
-      <c r="J23" s="16">
-        <v>2.08</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5561,16 +8618,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>712</v>
+        <v>299</v>
       </c>
       <c r="D24">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E24">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="F24">
-        <v>386</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5580,17 +8637,17 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25">
-        <v>78.069999999999993</v>
+      <c r="C25" s="15">
+        <v>0.34699999999999998</v>
       </c>
       <c r="D25">
-        <v>92.241</v>
+        <v>61.856000000000002</v>
       </c>
       <c r="E25">
-        <v>88.664000000000001</v>
+        <v>47.899000000000001</v>
       </c>
       <c r="F25">
-        <v>70.31</v>
+        <v>23.719000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5601,16 +8658,16 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D26">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E26">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="F26">
-        <v>591</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5621,16 +8678,16 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>731</v>
+        <v>319</v>
       </c>
       <c r="D27">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E27">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="F27">
-        <v>435</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5640,17 +8697,17 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28">
-        <v>80.153999999999996</v>
+      <c r="C28" s="15">
+        <v>0.37</v>
       </c>
       <c r="D28">
-        <v>97.849000000000004</v>
+        <v>74.286000000000001</v>
       </c>
       <c r="E28">
-        <v>89.912000000000006</v>
+        <v>52.668999999999997</v>
       </c>
       <c r="F28">
-        <v>73.603999999999999</v>
+        <v>19.538</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5661,16 +8718,16 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E29">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F29">
-        <v>585</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5681,16 +8738,16 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>700</v>
+        <v>295</v>
       </c>
       <c r="D30">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E30">
-        <v>198</v>
+        <v>120</v>
       </c>
       <c r="F30">
-        <v>406</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5700,31 +8757,48 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>76.754000000000005</v>
+      <c r="C31" s="15">
+        <v>0.34200000000000003</v>
       </c>
       <c r="D31">
-        <v>96</v>
+        <v>67.567999999999998</v>
       </c>
       <c r="E31">
-        <v>87.224999999999994</v>
+        <v>49.383000000000003</v>
       </c>
       <c r="F31">
-        <v>69.402000000000001</v>
+        <v>19.684999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <f>AVERAGE(C19,C22,C25,C28,C31)*100</f>
+        <v>36.520000000000003</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
+        <v>70.197800000000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>49.420599999999993</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="11"/>
+        <v>22.924199999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F114FA6-C604-4621-8026-B722E31EC2F7}">
-  <dimension ref="A1:J31"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359574D1-8941-4A11-AF6A-8BFF86B2B114}">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" activeCellId="4" sqref="C1 C4 C7 C10 C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5737,32 +8811,32 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>1208</v>
+        <v>860</v>
       </c>
       <c r="D1">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="E1">
-        <v>513</v>
+        <v>273</v>
       </c>
       <c r="F1">
-        <v>484</v>
-      </c>
-      <c r="G1">
+        <v>482</v>
+      </c>
+      <c r="G1" s="16">
         <f>C3</f>
-        <v>88.411000000000001</v>
-      </c>
-      <c r="H1">
-        <f t="shared" ref="H1:J1" si="0">D3</f>
-        <v>94.787000000000006</v>
-      </c>
-      <c r="I1">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" ref="H1:I1" si="0">D3</f>
+        <v>50.475999999999999</v>
+      </c>
+      <c r="I1" s="1">
         <f t="shared" si="0"/>
-        <v>89.864000000000004</v>
-      </c>
-      <c r="J1">
-        <f t="shared" si="0"/>
-        <v>84.090999999999994</v>
+        <v>18.681000000000001</v>
+      </c>
+      <c r="J1" s="1">
+        <f>F3</f>
+        <v>3.1120000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -5773,32 +8847,32 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1068</v>
+        <v>119</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c r="E2">
-        <v>461</v>
+        <v>51</v>
       </c>
       <c r="F2">
-        <v>407</v>
-      </c>
-      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="G2" s="16">
         <f>C6</f>
-        <v>90.448999999999998</v>
-      </c>
-      <c r="H2">
+        <v>0.126</v>
+      </c>
+      <c r="H2" s="1">
         <f t="shared" ref="H2:J2" si="1">D6</f>
-        <v>96.512</v>
-      </c>
-      <c r="I2">
+        <v>45.917999999999999</v>
+      </c>
+      <c r="I2" s="1">
         <f t="shared" si="1"/>
-        <v>93.11</v>
-      </c>
-      <c r="J2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J2" s="1">
         <f t="shared" si="1"/>
-        <v>85.878</v>
+        <v>3.5019999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -5808,33 +8882,33 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>88.411000000000001</v>
+      <c r="C3" s="15">
+        <v>0.13800000000000001</v>
       </c>
       <c r="D3">
-        <v>94.787000000000006</v>
+        <v>50.475999999999999</v>
       </c>
       <c r="E3">
-        <v>89.864000000000004</v>
+        <v>18.681000000000001</v>
       </c>
       <c r="F3">
-        <v>84.090999999999994</v>
-      </c>
-      <c r="G3">
+        <v>3.1120000000000001</v>
+      </c>
+      <c r="G3" s="16">
         <f>C9</f>
-        <v>83.305999999999997</v>
-      </c>
-      <c r="H3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H3" s="1">
         <f t="shared" ref="H3:J3" si="2">D9</f>
-        <v>97.129000000000005</v>
-      </c>
-      <c r="I3">
+        <v>47.423000000000002</v>
+      </c>
+      <c r="I3" s="1">
         <f t="shared" si="2"/>
-        <v>88.775999999999996</v>
-      </c>
-      <c r="J3">
+        <v>22.268999999999998</v>
+      </c>
+      <c r="J3" s="1">
         <f t="shared" si="2"/>
-        <v>72.277000000000001</v>
+        <v>3.226</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -5845,32 +8919,32 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D4">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>508</v>
+        <v>250</v>
       </c>
       <c r="F4">
-        <v>524</v>
-      </c>
-      <c r="G4">
+        <v>514</v>
+      </c>
+      <c r="G4" s="16">
         <f>C12</f>
-        <v>90.033000000000001</v>
-      </c>
-      <c r="H4">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" ref="H4:J4" si="3">D12</f>
-        <v>98.617999999999995</v>
-      </c>
-      <c r="I4">
+        <v>55.238</v>
+      </c>
+      <c r="I4" s="1">
         <f t="shared" si="3"/>
-        <v>94.191000000000003</v>
-      </c>
-      <c r="J4">
+        <v>17.437999999999999</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" si="3"/>
-        <v>82.376000000000005</v>
+        <v>3.3610000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -5881,32 +8955,32 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1089</v>
+        <v>109</v>
       </c>
       <c r="D5">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>473</v>
+        <v>46</v>
       </c>
       <c r="F5">
-        <v>450</v>
-      </c>
-      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="G5" s="16">
         <f>C15</f>
-        <v>84.884</v>
-      </c>
-      <c r="H5">
+        <v>0.107</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" ref="H5:J5" si="4">D15</f>
-        <v>96.313000000000002</v>
-      </c>
-      <c r="I5">
+        <v>44.143999999999998</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="4"/>
-        <v>89.328000000000003</v>
-      </c>
-      <c r="J5">
+        <v>13.992000000000001</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="4"/>
-        <v>75.052000000000007</v>
+        <v>1.772</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -5916,33 +8990,29 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>90.448999999999998</v>
+      <c r="C6" s="15">
+        <v>0.126</v>
       </c>
       <c r="D6">
-        <v>96.512</v>
+        <v>45.917999999999999</v>
       </c>
       <c r="E6">
-        <v>93.11</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F6">
-        <v>85.878</v>
-      </c>
-      <c r="G6" s="16">
-        <f>AVERAGE(G1:G5)</f>
-        <v>87.416600000000003</v>
-      </c>
-      <c r="H6" s="16">
-        <f t="shared" ref="H6:J6" si="5">AVERAGE(H1:H5)</f>
-        <v>96.67179999999999</v>
-      </c>
-      <c r="I6" s="16">
-        <f t="shared" si="5"/>
-        <v>91.053799999999995</v>
-      </c>
-      <c r="J6" s="16">
-        <f t="shared" si="5"/>
-        <v>79.934799999999996</v>
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="G6">
+        <v>1.27</v>
+      </c>
+      <c r="H6">
+        <v>3.9</v>
+      </c>
+      <c r="I6">
+        <v>2.65</v>
+      </c>
+      <c r="J6">
+        <v>0.63</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -5953,28 +9023,16 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D7">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="E7">
-        <v>490</v>
+        <v>238</v>
       </c>
       <c r="F7">
-        <v>505</v>
-      </c>
-      <c r="G7" s="15">
-        <v>2.84</v>
-      </c>
-      <c r="H7" s="15">
-        <v>1.24</v>
-      </c>
-      <c r="I7" s="15">
-        <v>2.17</v>
-      </c>
-      <c r="J7" s="15">
-        <v>5.31</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -5985,16 +9043,16 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>1003</v>
+        <v>116</v>
       </c>
       <c r="D8">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="E8">
-        <v>435</v>
+        <v>53</v>
       </c>
       <c r="F8">
-        <v>365</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -6004,17 +9062,17 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>83.305999999999997</v>
+      <c r="C9" s="15">
+        <v>0.13500000000000001</v>
       </c>
       <c r="D9">
-        <v>97.129000000000005</v>
+        <v>47.423000000000002</v>
       </c>
       <c r="E9">
-        <v>88.775999999999996</v>
+        <v>22.268999999999998</v>
       </c>
       <c r="F9">
-        <v>72.277000000000001</v>
+        <v>3.226</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -6025,16 +9083,16 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D10">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="E10">
-        <v>482</v>
+        <v>281</v>
       </c>
       <c r="F10">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -6045,16 +9103,16 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>1084</v>
+        <v>123</v>
       </c>
       <c r="D11">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="E11">
-        <v>454</v>
+        <v>49</v>
       </c>
       <c r="F11">
-        <v>416</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -6064,17 +9122,17 @@
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>90.033000000000001</v>
+      <c r="C12" s="15">
+        <v>0.14299999999999999</v>
       </c>
       <c r="D12">
-        <v>98.617999999999995</v>
+        <v>55.238</v>
       </c>
       <c r="E12">
-        <v>94.191000000000003</v>
+        <v>17.437999999999999</v>
       </c>
       <c r="F12">
-        <v>82.376000000000005</v>
+        <v>3.3610000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -6085,16 +9143,16 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D13">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="E13">
-        <v>506</v>
+        <v>243</v>
       </c>
       <c r="F13">
-        <v>481</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -6105,16 +9163,16 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>1022</v>
+        <v>92</v>
       </c>
       <c r="D14">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c r="E14">
-        <v>452</v>
+        <v>34</v>
       </c>
       <c r="F14">
-        <v>361</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -6124,17 +9182,35 @@
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="C15">
-        <v>84.884</v>
+      <c r="C15" s="15">
+        <v>0.107</v>
       </c>
       <c r="D15">
-        <v>96.313000000000002</v>
+        <v>44.143999999999998</v>
       </c>
       <c r="E15">
-        <v>89.328000000000003</v>
+        <v>13.992000000000001</v>
       </c>
       <c r="F15">
-        <v>75.052000000000007</v>
+        <v>1.772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <f>AVERAGE(C3,C6,C9,C12,C15)*100</f>
+        <v>12.98</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" ref="D16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
+        <v>48.639800000000001</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="5"/>
+        <v>18.155999999999999</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="5"/>
+        <v>2.9946000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -6145,32 +9221,32 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1208</v>
+        <v>860</v>
       </c>
       <c r="D17">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="E17">
-        <v>513</v>
+        <v>273</v>
       </c>
       <c r="F17">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G17">
-        <f>C19</f>
-        <v>86.174999999999997</v>
+        <f>C19*100</f>
+        <v>13.8</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:J17" si="6">D19</f>
-        <v>92.417000000000002</v>
+        <v>50.475999999999999</v>
       </c>
       <c r="I17">
         <f t="shared" si="6"/>
-        <v>87.718999999999994</v>
+        <v>18.681000000000001</v>
       </c>
       <c r="J17">
         <f t="shared" si="6"/>
-        <v>81.817999999999998</v>
+        <v>3.1120000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -6181,32 +9257,32 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1041</v>
+        <v>119</v>
       </c>
       <c r="D18">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>450</v>
+        <v>51</v>
       </c>
       <c r="F18">
-        <v>396</v>
+        <v>15</v>
       </c>
       <c r="G18">
-        <f>C22</f>
-        <v>85.962999999999994</v>
+        <f>C22*100</f>
+        <v>12.6</v>
       </c>
       <c r="H18">
         <f t="shared" ref="H18:J18" si="7">D22</f>
-        <v>93.022999999999996</v>
+        <v>45.917999999999999</v>
       </c>
       <c r="I18">
         <f t="shared" si="7"/>
-        <v>89.173000000000002</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="J18">
         <f t="shared" si="7"/>
-        <v>80.534000000000006</v>
+        <v>3.5019999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -6216,33 +9292,33 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>86.174999999999997</v>
+      <c r="C19" s="15">
+        <v>0.13800000000000001</v>
       </c>
       <c r="D19">
-        <v>92.417000000000002</v>
+        <v>50.475999999999999</v>
       </c>
       <c r="E19">
-        <v>87.718999999999994</v>
+        <v>18.681000000000001</v>
       </c>
       <c r="F19">
-        <v>81.817999999999998</v>
+        <v>3.1120000000000001</v>
       </c>
       <c r="G19">
-        <f>C25</f>
-        <v>87.707999999999998</v>
+        <f>C25*100</f>
+        <v>13.5</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19:J19" si="8">D25</f>
-        <v>97.129000000000005</v>
+        <v>47.423000000000002</v>
       </c>
       <c r="I19">
         <f t="shared" si="8"/>
-        <v>91.632999999999996</v>
+        <v>22.268999999999998</v>
       </c>
       <c r="J19">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>3.226</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -6253,32 +9329,32 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D20">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="E20">
-        <v>508</v>
+        <v>250</v>
       </c>
       <c r="F20">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G20">
-        <f>C28</f>
-        <v>86.046999999999997</v>
+        <f>C28*100</f>
+        <v>14.299999999999999</v>
       </c>
       <c r="H20">
         <f t="shared" ref="H20:J20" si="9">D28</f>
-        <v>94.930999999999997</v>
+        <v>55.238</v>
       </c>
       <c r="I20">
         <f t="shared" si="9"/>
-        <v>90.040999999999997</v>
+        <v>17.437999999999999</v>
       </c>
       <c r="J20">
         <f t="shared" si="9"/>
-        <v>78.415999999999997</v>
+        <v>3.3610000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -6289,32 +9365,32 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1035</v>
+        <v>109</v>
       </c>
       <c r="D21">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="E21">
-        <v>453</v>
+        <v>46</v>
       </c>
       <c r="F21">
-        <v>422</v>
+        <v>18</v>
       </c>
       <c r="G21">
-        <f>C31</f>
-        <v>86.876999999999995</v>
+        <f>C31*100</f>
+        <v>10.7</v>
       </c>
       <c r="H21">
         <f t="shared" ref="H21:J21" si="10">D31</f>
-        <v>95.391999999999996</v>
+        <v>44.143999999999998</v>
       </c>
       <c r="I21">
         <f t="shared" si="10"/>
-        <v>90.316000000000003</v>
+        <v>13.992000000000001</v>
       </c>
       <c r="J21">
         <f t="shared" si="10"/>
-        <v>79.418000000000006</v>
+        <v>1.772</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -6324,33 +9400,29 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22">
-        <v>85.962999999999994</v>
+      <c r="C22" s="15">
+        <v>0.126</v>
       </c>
       <c r="D22">
-        <v>93.022999999999996</v>
+        <v>45.917999999999999</v>
       </c>
       <c r="E22">
-        <v>89.173000000000002</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F22">
-        <v>80.534000000000006</v>
-      </c>
-      <c r="G22" s="16">
-        <f>AVERAGE(G17:G21)</f>
-        <v>86.554000000000002</v>
-      </c>
-      <c r="H22" s="16">
-        <f t="shared" ref="H22:J22" si="11">AVERAGE(H17:H21)</f>
-        <v>94.578400000000002</v>
-      </c>
-      <c r="I22" s="16">
-        <f t="shared" si="11"/>
-        <v>89.776399999999995</v>
-      </c>
-      <c r="J22" s="16">
-        <f t="shared" si="11"/>
-        <v>80.037200000000013</v>
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="G22">
+        <v>1.27</v>
+      </c>
+      <c r="H22">
+        <v>3.9</v>
+      </c>
+      <c r="I22">
+        <v>2.65</v>
+      </c>
+      <c r="J22">
+        <v>0.63</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -6361,28 +9433,16 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D23">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="E23">
-        <v>490</v>
+        <v>238</v>
       </c>
       <c r="F23">
-        <v>505</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0.66</v>
-      </c>
-      <c r="H23" s="17">
-        <v>1.7</v>
-      </c>
-      <c r="I23" s="16">
-        <v>1.3</v>
-      </c>
-      <c r="J23" s="17">
-        <v>1.1299999999999999</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -6393,16 +9453,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>1056</v>
+        <v>116</v>
       </c>
       <c r="D24">
-        <v>203</v>
+        <v>46</v>
       </c>
       <c r="E24">
-        <v>449</v>
+        <v>53</v>
       </c>
       <c r="F24">
-        <v>404</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -6412,17 +9472,17 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25">
-        <v>87.707999999999998</v>
+      <c r="C25" s="15">
+        <v>0.13500000000000001</v>
       </c>
       <c r="D25">
-        <v>97.129000000000005</v>
+        <v>47.423000000000002</v>
       </c>
       <c r="E25">
-        <v>91.632999999999996</v>
+        <v>22.268999999999998</v>
       </c>
       <c r="F25">
-        <v>80</v>
+        <v>3.226</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -6433,16 +9493,16 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D26">
-        <v>217</v>
+        <v>105</v>
       </c>
       <c r="E26">
-        <v>482</v>
+        <v>281</v>
       </c>
       <c r="F26">
-        <v>505</v>
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -6453,16 +9513,16 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>1036</v>
+        <v>123</v>
       </c>
       <c r="D27">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="E27">
-        <v>434</v>
+        <v>49</v>
       </c>
       <c r="F27">
-        <v>396</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -6472,17 +9532,17 @@
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="C28">
-        <v>86.046999999999997</v>
+      <c r="C28" s="15">
+        <v>0.14299999999999999</v>
       </c>
       <c r="D28">
-        <v>94.930999999999997</v>
+        <v>55.238</v>
       </c>
       <c r="E28">
-        <v>90.040999999999997</v>
+        <v>17.437999999999999</v>
       </c>
       <c r="F28">
-        <v>78.415999999999997</v>
+        <v>3.3610000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -6493,16 +9553,16 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>1204</v>
+        <v>862</v>
       </c>
       <c r="D29">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="E29">
-        <v>506</v>
+        <v>243</v>
       </c>
       <c r="F29">
-        <v>481</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -6513,16 +9573,16 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>1046</v>
+        <v>92</v>
       </c>
       <c r="D30">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="E30">
-        <v>457</v>
+        <v>34</v>
       </c>
       <c r="F30">
-        <v>382</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -6532,133 +9592,38 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31">
-        <v>86.876999999999995</v>
+      <c r="C31" s="15">
+        <v>0.107</v>
       </c>
       <c r="D31">
-        <v>95.391999999999996</v>
+        <v>44.143999999999998</v>
       </c>
       <c r="E31">
-        <v>90.316000000000003</v>
+        <v>13.992000000000001</v>
       </c>
       <c r="F31">
-        <v>79.418000000000006</v>
+        <v>1.772</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <f>AVERAGE(C19,C22,C25,C28,C31)*100</f>
+        <v>12.98</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
+        <v>48.639800000000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>18.155999999999999</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="11"/>
+        <v>2.9946000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9E162C-0449-4ED3-9ABA-74E3D824EDE7}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>912</v>
-      </c>
-      <c r="C2">
-        <v>818</v>
-      </c>
-      <c r="D2">
-        <v>89.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>912</v>
-      </c>
-      <c r="C3">
-        <v>785</v>
-      </c>
-      <c r="D3">
-        <v>86.075000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>912</v>
-      </c>
-      <c r="C4">
-        <v>798</v>
-      </c>
-      <c r="D4">
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>912</v>
-      </c>
-      <c r="C5">
-        <v>811</v>
-      </c>
-      <c r="D5">
-        <v>88.924999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>912</v>
-      </c>
-      <c r="C6">
-        <v>841</v>
-      </c>
-      <c r="D6">
-        <v>92.215000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="8">
-        <f>AVERAGE(D2:D6)</f>
-        <v>88.881</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A7:C7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/stat.xlsx
+++ b/stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-MaxPCShop\PycharmProjects\LetterCubicGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BE2E60-1EA0-46AA-BA1D-04A4B89300E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF406654-4174-47DD-A533-C10D18A28626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{BEB96F31-1855-48FF-A368-14514A8512CF}"/>
   </bookViews>
   <sheets>
     <sheet name="uz" sheetId="1" r:id="rId1"/>
@@ -6288,8 +6288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DD8B0F-90E4-46D4-A651-6B19B02DFEC5}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:J21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6499,13 +6499,13 @@
       <c r="G6" s="16">
         <v>1.5699999999999999E-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="11">
         <v>1.37</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="11">
         <v>1.86</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="11">
         <v>1.94</v>
       </c>
     </row>
@@ -6690,19 +6690,19 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="5">
+      <c r="C16" s="12">
         <f>AVERAGE(C3,C6,C9,C12,C15)*100</f>
         <v>84.139999999999986</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="12">
         <f t="shared" ref="C16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
         <v>95.939400000000006</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="12">
         <f t="shared" si="5"/>
         <v>89.846400000000003</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="12">
         <f t="shared" si="5"/>
         <v>78.863399999999999</v>
       </c>
@@ -6909,13 +6909,13 @@
       <c r="G22" s="16">
         <v>1.52E-2</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="11">
         <v>4.82</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="11">
         <v>3.19</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="11">
         <v>2.36</v>
       </c>
     </row>
@@ -7100,19 +7100,19 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C32">
+      <c r="C32" s="11">
         <f>AVERAGE(C19,C22,C25,C28,C31)*100</f>
         <v>71.900000000000006</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="11">
         <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
         <v>89.540400000000005</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="11">
         <f t="shared" si="11"/>
         <v>80.494399999999999</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="11">
         <f t="shared" si="11"/>
         <v>63.984200000000001</v>
       </c>
@@ -7127,8 +7127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0685251F-8998-4F5F-BBD2-01EDE0C945A2}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:J21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7332,16 +7332,16 @@
       <c r="F6">
         <v>55.642000000000003</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="11">
         <v>1.48</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="11">
         <v>1.53</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="11">
         <v>3.61</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="11">
         <v>1.47</v>
       </c>
     </row>
@@ -7526,19 +7526,19 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="5">
+      <c r="C16" s="12">
         <f>AVERAGE(C3,C6,C9,C12,C15)*100</f>
         <v>66.160000000000011</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="12">
         <f t="shared" ref="D16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
         <v>89.187600000000003</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="12">
         <f t="shared" si="5"/>
         <v>78.623199999999997</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="12">
         <f t="shared" si="5"/>
         <v>55.010799999999996</v>
       </c>
@@ -7742,16 +7742,16 @@
       <c r="F22">
         <v>37.743000000000002</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="11">
         <v>0.8</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="11">
         <v>1.06</v>
       </c>
     </row>
@@ -7936,19 +7936,19 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C32">
+      <c r="C32" s="11">
         <f>AVERAGE(C19,C22,C25,C28,C31)*100</f>
         <v>51.5</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="11">
         <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
         <v>83.616599999999991</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="11">
         <f t="shared" si="11"/>
         <v>64.564999999999998</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="11">
         <f t="shared" si="11"/>
         <v>38.269999999999996</v>
       </c>
@@ -7963,7 +7963,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:J21"/>
+      <selection activeCell="G6" sqref="G6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8167,16 +8167,16 @@
       <c r="F6">
         <v>20.039000000000001</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="11">
         <v>1.3</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="11">
         <v>1.94</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="11">
         <v>3.25</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="11">
         <v>1.28</v>
       </c>
     </row>
@@ -8361,19 +8361,19 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="5">
+      <c r="C16" s="12">
         <f>AVERAGE(C3,C6,C9,C12,C15)*100</f>
         <v>36.08</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="12">
         <f t="shared" ref="D16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
         <v>71.317399999999992</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="12">
         <f t="shared" si="5"/>
         <v>49.259400000000007</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="12">
         <f t="shared" si="5"/>
         <v>22.091600000000003</v>
       </c>
@@ -8577,16 +8577,16 @@
       <c r="F22">
         <v>24.707999999999998</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="11">
         <v>1.77</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="11">
         <v>6.54</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="11">
         <v>1.7</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="11">
         <v>2.9</v>
       </c>
     </row>
@@ -8771,19 +8771,19 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C32">
+      <c r="C32" s="11">
         <f>AVERAGE(C19,C22,C25,C28,C31)*100</f>
         <v>36.520000000000003</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="11">
         <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
         <v>70.197800000000001</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="11">
         <f t="shared" si="11"/>
         <v>49.420599999999993</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="11">
         <f t="shared" si="11"/>
         <v>22.924199999999999</v>
       </c>
@@ -8797,8 +8797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359574D1-8941-4A11-AF6A-8BFF86B2B114}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9002,16 +9002,16 @@
       <c r="F6">
         <v>3.5019999999999998</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="11">
         <v>1.27</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="11">
         <v>3.9</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="11">
         <v>2.65</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="11">
         <v>0.63</v>
       </c>
     </row>
@@ -9196,19 +9196,19 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="5">
+      <c r="C16" s="12">
         <f>AVERAGE(C3,C6,C9,C12,C15)*100</f>
         <v>12.98</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="12">
         <f t="shared" ref="D16:F16" si="5">AVERAGE(D3,D6,D9,D12,D15)</f>
         <v>48.639800000000001</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="12">
         <f t="shared" si="5"/>
         <v>18.155999999999999</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="12">
         <f t="shared" si="5"/>
         <v>2.9946000000000002</v>
       </c>
@@ -9412,16 +9412,16 @@
       <c r="F22">
         <v>3.5019999999999998</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="11">
         <v>1.27</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="11">
         <v>3.9</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="11">
         <v>2.65</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="11">
         <v>0.63</v>
       </c>
     </row>
@@ -9606,19 +9606,19 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C32">
+      <c r="C32" s="11">
         <f>AVERAGE(C19,C22,C25,C28,C31)*100</f>
         <v>12.98</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="11">
         <f t="shared" ref="D32:F32" si="11">AVERAGE(D19,D22,D25,D28,D31)</f>
         <v>48.639800000000001</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="11">
         <f t="shared" si="11"/>
         <v>18.155999999999999</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="11">
         <f t="shared" si="11"/>
         <v>2.9946000000000002</v>
       </c>
